--- a/output_requirements_distances.xlsx
+++ b/output_requirements_distances.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>Distance</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Content</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -474,11 +479,16 @@
       <c r="D2" t="n">
         <v>1.08976149559021</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['1\tScope&lt;/h1&gt;', '', 'The present document provides Stage 1 normative service requirements for 5G systems, in particular service requirements for cyber-physical control applications in vertical domains and requirements for auxiliary applications. In the context of the present document, cyber-physical systems are to be understood as systems that include engineered, interacting networks of physical and computational components; control applications are to be understood as applications that control physical processes. Examples for auxiliary applications are distributed sensing and asset monitoring.', '', 'Communication services supporting cyber-physical control applications need to be ultra-reliable and, in some cases, the end-to-end latency must be very low. Communication for cyber-physical control applications supports operation in various vertical domains, for instance industrial automation, Smart Grid . ', '', 'The aspects addressed in the present document include:', '', '-\tend-to-end service performance requirements and network performance requirements related to these end-to-end service performance requirements; ', '', '-\tsupport for Ethernet services specific to industrial/high performance use cases. Related Ethernet functionalities include, for example, those in IEEE 802.1Qbv;', '', '-\tdirect device connection and indirect network connection for cyber-physical applications.', '']</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;5.3	Aperiodic deterministic communication&lt;/h2&gt;</t>
+          <t>&lt;h1&gt;</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.136833429336548</v>
+        <v>1.058433771133423</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['1\tScope&lt;/h1&gt;', '', 'The present document provides Stage 1 normative service requirements for 5G systems, in particular service requirements for cyber-physical control applications in vertical domains and requirements for auxiliary applications. In the context of the present document, cyber-physical systems are to be understood as systems that include engineered, interacting networks of physical and computational components; control applications are to be understood as applications that control physical processes. Examples for auxiliary applications are distributed sensing and asset monitoring.', '', 'Communication services supporting cyber-physical control applications need to be ultra-reliable and, in some cases, the end-to-end latency must be very low. Communication for cyber-physical control applications supports operation in various vertical domains, for instance industrial automation, Smart Grid . ', '', 'The aspects addressed in the present document include:', '', '-\tend-to-end service performance requirements and network performance requirements related to these end-to-end service performance requirements; ', '', '-\tsupport for Ethernet services specific to industrial/high performance use cases. Related Ethernet functionalities include, for example, those in IEEE 802.1Qbv;', '', '-\tdirect device connection and indirect network connection for cyber-physical applications.', '']</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;5.5	Mixed traffic&lt;/h2&gt;</t>
+          <t>&lt;h1&gt;B.6	Unacceptable deviation from target end-to-end latency&lt;/h1&gt;</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -508,17 +523,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.128763675689697</v>
+        <v>1.072807192802429</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['', 'Messages may be delayed or advanced beyond their permitted arrival time window. Causes for this behaviour include errors in the transmission medium, congested transmission lines, interference, and applications sending messages in such a manner that communication services are delayed or denied.', '', 'Message errors can be recovered in the following ways using scheduled or cyclic scans, for instance, in field buses:', '', 'a)\timmediate repetition;', '', 'b)\trepetition using spare time at the end of the cycle;', '', 'c)\ttreating the message as lost and waiting for the next cycle to receive the next value.', '', 'In case of (a), all subsequent messages in that cycle are slightly delayed, while in case (b) only the resent message is delayed.', '', 'Cases (a) and (b) are often not classed as an unacceptable deviation from the target end-to-end latency.', '', 'Case (c) would be classed as an unacceptable delay for cyclic, distributed automation functions, unless the cycle repetition interval is short enough to ensure that delays between cycles are not significant and that the next cyclic value can be accepted as a replacement for the missed previous value before the survival time expiries (see Clause C.3) [3].', '']</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.6C.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h1&gt;B.6	Unacceptable deviation from target end-to-end latency&lt;/h1&gt;</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -532,13 +552,18 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.17250669002533</v>
+        <v>1.096020221710205</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['', 'Messages may be delayed or advanced beyond their permitted arrival time window. Causes for this behaviour include errors in the transmission medium, congested transmission lines, interference, and applications sending messages in such a manner that communication services are delayed or denied.', '', 'Message errors can be recovered in the following ways using scheduled or cyclic scans, for instance, in field buses:', '', 'a)\timmediate repetition;', '', 'b)\trepetition using spare time at the end of the cycle;', '', 'c)\ttreating the message as lost and waiting for the next cycle to receive the next value.', '', 'In case of (a), all subsequent messages in that cycle are slightly delayed, while in case (b) only the resent message is delayed.', '', 'Cases (a) and (b) are often not classed as an unacceptable deviation from the target end-to-end latency.', '', 'Case (c) would be classed as an unacceptable delay for cyclic, distributed automation functions, unless the cycle repetition interval is short enough to ensure that delays between cycles are not significant and that the next cyclic value can be accepted as a replacement for the missed previous value before the survival time expiries (see Clause C.3) [3].', '']</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.6C.2	Requirements&lt;/h3&gt;</t>
+          <t>&lt;h1&gt;C.5	Communication service terminology w.r.t. 5G network and vertical applications&lt;/h1&gt;</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -548,17 +573,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.093493938446045</v>
+        <v>1.039144515991211</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['', 'This section clarifies the wording and terminology with respect to communication interfaces that are relevant for vertical applications. Because the 3GPP network does not cover the complete ISO-OSI communication stack, it is important to distinguish between', '', '-\tthe vertical applications’ point of view, and ', '', '-\tthe 3GPP network’s point of view. ', '', 'In this section, the relation between those two is clarified.', '', 'Figure C.5-1 shows a simplified version of the communication stack. The PHY layer, the MAC layer and some parts of the IP layer are part of the 3GPP network. The layers that are part of the 3GPP network are referred to as lower communication layers (LCL). The communication stack also includes an application. The OSI layers related to providing data to the application are referred to as the higher communication layers (HCL). The interface between LCL and HCL is referred to as communication service interface (CSIF).', '', 'For the assessment of the overall system performance, it is important to differentiate between the 3GPP network’s performance (i.e., including only the LCL and measured at the CSIF) and the overall system performance including the application layer (i.e., including both, the LCL and the HCL). In Figure C.5-1, the orange arrow depicts the vertical application’s point of view. The blue arrows indicate two options to measure the 3GPP network’s performance, i.e., including and excluding the IP layer.', '', '----media/image25.emf----', '', 'Figure C&lt;b&gt;.&lt;/b&gt;5-1: Network performance measurements at different communication system interfaces (CSIF)', '', 'Figure C.5-2 illustrates how messages are transmitted from a source application device (e.g., a programmable logic controller) to a target application device (e.g. an industrial robot). The source application function (AF) is executed in the source operating system (OS) and hands over a message to the application layer interface of the source communication device. In the higher communication layers (HCL), which are not part of the 3GPP system, the data is processed. From the HCL the data is transferred to the lower communication layers (LCL), which are part of the 3GPP system. After transmission through the physical communication channel and the LCL of the target communication device, the data is passed to the HCL and lastly to the target application device. Characteristic parameters with respect to time are defined in Figure C.5-2.', '', 'From 3GPP system point of view:', '', '-\tTransfer interval of 5G system: Time between the arrival of two pieces of data at the source CSIF.', '', '-\tEnd-to-end latency: Time measured from the point when a piece of data received at the CSIF in the source communication device until the same piece of data is passed to the CSIF in the target communication device.', '', 'From vertical application point of view:', '', '-\tTransfer interval of vertical application: Time between the transmission of two successive pieces of data from the source application.', '', '-\tTransmission time: Time measured from the point when a piece of data is handed from the application layer interface of the source application device, until the same piece of data is received at the application layer interface of the target application device.', '', '-\tUpdate time: Time between the reception of two consecutive pieces of data at the application layer interface to the target application device.', '', 'If not stated otherwise, the terms "end-to-end latency" and "transfer interval" refer to the 3GPP system / 5G network parameters in this document.', '', '----media/image26.emf----', '', 'Figure &lt;span style="font-size:18pt"&gt;C&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt;.&lt;/b&gt;&lt;/span&gt;&lt;span style="font-size:18pt"&gt;5-2&lt;/span&gt;: Relation between application device and communication device (downlink example).', '', '', 'Annex D (informative):', '5G in industrial automation: different and multiple time domains for synchronization', '']</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.7.1	General requirements&lt;/h3&gt;</t>
+          <t>&lt;h1&gt;C.5	Communication service terminology w.r.t. 5G network and vertical applications&lt;/h1&gt;</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -572,13 +602,18 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.123344779014587</v>
+        <v>1.062394022941589</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>['', 'This section clarifies the wording and terminology with respect to communication interfaces that are relevant for vertical applications. Because the 3GPP network does not cover the complete ISO-OSI communication stack, it is important to distinguish between', '', '-\tthe vertical applications’ point of view, and ', '', '-\tthe 3GPP network’s point of view. ', '', 'In this section, the relation between those two is clarified.', '', 'Figure C.5-1 shows a simplified version of the communication stack. The PHY layer, the MAC layer and some parts of the IP layer are part of the 3GPP network. The layers that are part of the 3GPP network are referred to as lower communication layers (LCL). The communication stack also includes an application. The OSI layers related to providing data to the application are referred to as the higher communication layers (HCL). The interface between LCL and HCL is referred to as communication service interface (CSIF).', '', 'For the assessment of the overall system performance, it is important to differentiate between the 3GPP network’s performance (i.e., including only the LCL and measured at the CSIF) and the overall system performance including the application layer (i.e., including both, the LCL and the HCL). In Figure C.5-1, the orange arrow depicts the vertical application’s point of view. The blue arrows indicate two options to measure the 3GPP network’s performance, i.e., including and excluding the IP layer.', '', '----media/image25.emf----', '', 'Figure C&lt;b&gt;.&lt;/b&gt;5-1: Network performance measurements at different communication system interfaces (CSIF)', '', 'Figure C.5-2 illustrates how messages are transmitted from a source application device (e.g., a programmable logic controller) to a target application device (e.g. an industrial robot). The source application function (AF) is executed in the source operating system (OS) and hands over a message to the application layer interface of the source communication device. In the higher communication layers (HCL), which are not part of the 3GPP system, the data is processed. From the HCL the data is transferred to the lower communication layers (LCL), which are part of the 3GPP system. After transmission through the physical communication channel and the LCL of the target communication device, the data is passed to the HCL and lastly to the target application device. Characteristic parameters with respect to time are defined in Figure C.5-2.', '', 'From 3GPP system point of view:', '', '-\tTransfer interval of 5G system: Time between the arrival of two pieces of data at the source CSIF.', '', '-\tEnd-to-end latency: Time measured from the point when a piece of data received at the CSIF in the source communication device until the same piece of data is passed to the CSIF in the target communication device.', '', 'From vertical application point of view:', '', '-\tTransfer interval of vertical application: Time between the transmission of two successive pieces of data from the source application.', '', '-\tTransmission time: Time measured from the point when a piece of data is handed from the application layer interface of the source application device, until the same piece of data is received at the application layer interface of the target application device.', '', '-\tUpdate time: Time between the reception of two consecutive pieces of data at the application layer interface to the target application device.', '', 'If not stated otherwise, the terms "end-to-end latency" and "transfer interval" refer to the 3GPP system / 5G network parameters in this document.', '', '----media/image26.emf----', '', 'Figure &lt;span style="font-size:18pt"&gt;C&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt;.&lt;/b&gt;&lt;/span&gt;&lt;span style="font-size:18pt"&gt;5-2&lt;/span&gt;: Relation between application device and communication device (downlink example).', '', '', 'Annex D (informative):', '5G in industrial automation: different and multiple time domains for synchronization', '']</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.2.1	Overview&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;5.3	Aperiodic deterministic communication&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -588,17 +623,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.264178037643433</v>
+        <v>1.098932266235352</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>['', 'Aperiodic deterministic communication is without a pre-set sending time, but still with stringent requirements on timeliness and availability of the communication service. A description of aperiodic deterministic communication can be found in Clauses 4.3 and 4.4. Additional information on the underlying use cases of the sets of requirements in Table 5.3-1 can be found in Annex A. Further information on characteristic parameters and influence quantities used in Table 5.3-1 can be found in Annex C. ', '', 'The 5G system shall be able to provide aperiodic deterministic communication with the service performance requirements for individual logical communication links that realise the communication services reported in Table 5.3-1.', '', 'Table 5.3-1: Aperiodic deterministic communication service performance requirements', '', 'Characteristic parameter (KPI)', '', 'Influence quantity', '', '', '', 'Communication service availability', '', 'Communication service reliability: mean time between failures', '', 'Max Allowed End-to-end latency (note\xa01)&lt;b&gt; ', '(note 5)&lt;/b&gt;', '', 'Service bit rate: user-experienced data rate&lt;b&gt; (note 5)&lt;/b&gt;', '', 'Message size [byte]&lt;b&gt; (note 5)&lt;/b&gt;', '', 'Survival time', '', 'UE speed&lt;b&gt; (note 6)&lt;/b&gt;', '', '# of UEs', '', '', '', 'Service Area (note 3)', '', 'Remarks', '', '&amp;gt; 99.999\xa09\xa0%', '', '~ 1 week', '', '10 ms', '', 'UL: &amp;gt; 10 Mbit/s', '', '–', '', '–', '', '≤ 50 km/h', '', '≤\xa02,000', '', '≤ 1 km&lt;sup&gt;2&lt;/sup&gt;', '', 'Mobile robots – video streaming (A.2.2.3)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 1 month', '', '&amp;lt; 30 ms', '', '&amp;gt; 5 Mbit/s', '', '–', '', '–', '', '&amp;lt; 8 km/h (linear movement)', '', 'TBD', '', 'TBD', '', 'Mobile control panels - parallel data transmission (A.2.4.1)', '', '99.999\xa0999\xa0%', '', '1 day', '', '&amp;lt;8\xa0ms', '', '(note 8)', '', '250 kbit/s', '', '40 to 250', '', '16 ms', '', 'quasi-static; up to 10\xa0km/h', '', '2 or more', '', '30\xa0m x 30\xa0m', '', 'Mobile Operation Panel: Emergency stop (emergency stop events) (A.2.4.1A)', '', '99.999\xa09\xa0%', '', '– ', '', '&amp;lt; 50 ms', '', '0.59 kbit/s', '28 kbit/s', '', '&amp;lt; 100', '', '–', '', 'stationary', '', '&lt;span style="color:000000"&gt;10\xa0km&lt;/span&gt;&lt;span style="color:000000"&gt;² to 100\xa0km&lt;/span&gt;&lt;span style="color:000000"&gt;²&lt;/span&gt;', '', 'TBD', '', 'Smart grid millisecond level precise load control (A.4.5)', '', '&amp;gt; 99.9\xa0%', '', '~ 1 month', '', '&amp;lt; 10 ms', '', '–', '', '–', '', '–', '', '&amp;lt; 8 km/h (linear movement)', '', '≥ 3', '', '20 m x 20 m x 4 m', '', 'Augmented reality; bi-directional transmission to image processing server (A.2.4.2)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; 1\xa0ms', '', '(note 4)', '', '25 Mbit/s', '', '–', '', '–', '', 'stationary', '', '2 to 5', '', '100 m x', '', '30 m x 10 m', '', 'Wired-2-wireless 100\xa0Mbit/s link replacement (A.2.2.4)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; 1\xa0ms', '', '(note 4)', '', '500 Mbit/s', '', '–', '', '–', '', 'stationary', '', '2 to 5', '', '100 m x', '', '30 m x 10 m', '', 'Wired-2-wireless 1\xa0Gbit/s link replacement (A.2.2.4)', '', ' &amp;gt; 99.9 %', '', '–', '', 'DL: &amp;lt; 10\xa0ms', '', 'UL:&amp;lt;1\xa0s', '', '(rural)', '', 'DL: &amp;gt; 100\xa0kbit/s UL: &amp;gt; 5\xa0Gbit/s', '(note 9)', '', '–', '', '–', '', 'stationary', '', '&amp;gt; 100', '', '', '', 'Distributed energy storage; energy storage station video (A.4.6)', '', '&amp;gt; 99.99 %', '', '–', '', '&amp;lt; 100\xa0ms (note 10);', '', 'DL:&amp;lt;1\xa0Mbit/s', '', '–', '', '–', '', '–', '', '–', '', '–', '', 'Advanced metering (A.4.7)', '', '&amp;gt; 99.999\xa0%', '', '–', '', '20 ms', '', '–', '', '&amp;lt; 100 byte', '', '–', '', '–', '', '–', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', 'Distributed automated switching for isolation and service restoration (A.4.4.1) (note 7)', '', '&amp;gt; 99.999 9\xa0%', '', '', '', '&amp;lt; 3\xa0ms', '', '–', '', '160\xa0byte', '', '–', '', '–', '', '–', '', '–', '', 'Distributed Energy Resources (DERs) and micro-grids (A.4.9) (note 7)', '', 'NOTE 1:\tUnless otherwise specified, all communication includes 1 wireless link (UE to network node or network node to UE) rather than two wireless links (UE to UE).', '', 'NOTE 2:\t(void)', '', 'NOTE 3:\tLength x width x height.', '', 'NOTE 4:\tScheduled aperiodic traffic with transfer interval (max end-to-end allowed latency &amp;lt; transfer interval). ', '', 'NOTE 5:\tIt applies to both UL and DL unless stated otherwise.', '', 'NOTE 6:\tIt applies to both linear movement and rotation unless stated otherwise. ', '', 'NOTE 7:\tCommunication includes two wireless links (UE to UE).', '', 'NOTE 8:\tThe mobile operation panel is connected wirelessly to the 5G system. If the mobile robot/production line is also connected wirelessly to the 5G system, the communication includes two wireless links.', '', 'NOTE 9:\tThe service bit rate in one energy storage station can be calculated as follows:12.5\xa0Mbytes/s x 50 containers x 8 = 5\xa0Gbit/s.', '', 'NOTE 10:\tThe maximum allowed end-to-end latency is for accuracy fee control. It is the delay for one-way communication between the backend system and the 5G IoT device. The distance between the two is 40\xa0km or lower (city range).', '', '', '']</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.2.2.1	Motion control&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;5.3	Aperiodic deterministic communication&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -612,13 +652,18 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.119012951850891</v>
+        <v>1.136833429336548</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>['', 'Aperiodic deterministic communication is without a pre-set sending time, but still with stringent requirements on timeliness and availability of the communication service. A description of aperiodic deterministic communication can be found in Clauses 4.3 and 4.4. Additional information on the underlying use cases of the sets of requirements in Table 5.3-1 can be found in Annex A. Further information on characteristic parameters and influence quantities used in Table 5.3-1 can be found in Annex C. ', '', 'The 5G system shall be able to provide aperiodic deterministic communication with the service performance requirements for individual logical communication links that realise the communication services reported in Table 5.3-1.', '', 'Table 5.3-1: Aperiodic deterministic communication service performance requirements', '', 'Characteristic parameter (KPI)', '', 'Influence quantity', '', '', '', 'Communication service availability', '', 'Communication service reliability: mean time between failures', '', 'Max Allowed End-to-end latency (note\xa01)&lt;b&gt; ', '(note 5)&lt;/b&gt;', '', 'Service bit rate: user-experienced data rate&lt;b&gt; (note 5)&lt;/b&gt;', '', 'Message size [byte]&lt;b&gt; (note 5)&lt;/b&gt;', '', 'Survival time', '', 'UE speed&lt;b&gt; (note 6)&lt;/b&gt;', '', '# of UEs', '', '', '', 'Service Area (note 3)', '', 'Remarks', '', '&amp;gt; 99.999\xa09\xa0%', '', '~ 1 week', '', '10 ms', '', 'UL: &amp;gt; 10 Mbit/s', '', '–', '', '–', '', '≤ 50 km/h', '', '≤\xa02,000', '', '≤ 1 km&lt;sup&gt;2&lt;/sup&gt;', '', 'Mobile robots – video streaming (A.2.2.3)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 1 month', '', '&amp;lt; 30 ms', '', '&amp;gt; 5 Mbit/s', '', '–', '', '–', '', '&amp;lt; 8 km/h (linear movement)', '', 'TBD', '', 'TBD', '', 'Mobile control panels - parallel data transmission (A.2.4.1)', '', '99.999\xa0999\xa0%', '', '1 day', '', '&amp;lt;8\xa0ms', '', '(note 8)', '', '250 kbit/s', '', '40 to 250', '', '16 ms', '', 'quasi-static; up to 10\xa0km/h', '', '2 or more', '', '30\xa0m x 30\xa0m', '', 'Mobile Operation Panel: Emergency stop (emergency stop events) (A.2.4.1A)', '', '99.999\xa09\xa0%', '', '– ', '', '&amp;lt; 50 ms', '', '0.59 kbit/s', '28 kbit/s', '', '&amp;lt; 100', '', '–', '', 'stationary', '', '&lt;span style="color:000000"&gt;10\xa0km&lt;/span&gt;&lt;span style="color:000000"&gt;² to 100\xa0km&lt;/span&gt;&lt;span style="color:000000"&gt;²&lt;/span&gt;', '', 'TBD', '', 'Smart grid millisecond level precise load control (A.4.5)', '', '&amp;gt; 99.9\xa0%', '', '~ 1 month', '', '&amp;lt; 10 ms', '', '–', '', '–', '', '–', '', '&amp;lt; 8 km/h (linear movement)', '', '≥ 3', '', '20 m x 20 m x 4 m', '', 'Augmented reality; bi-directional transmission to image processing server (A.2.4.2)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; 1\xa0ms', '', '(note 4)', '', '25 Mbit/s', '', '–', '', '–', '', 'stationary', '', '2 to 5', '', '100 m x', '', '30 m x 10 m', '', 'Wired-2-wireless 100\xa0Mbit/s link replacement (A.2.2.4)', '', '99.999\xa09\xa0% to 99.999\xa0999\xa0%', '', '~ 10 years', '', '&amp;lt; 1\xa0ms', '', '(note 4)', '', '500 Mbit/s', '', '–', '', '–', '', 'stationary', '', '2 to 5', '', '100 m x', '', '30 m x 10 m', '', 'Wired-2-wireless 1\xa0Gbit/s link replacement (A.2.2.4)', '', ' &amp;gt; 99.9 %', '', '–', '', 'DL: &amp;lt; 10\xa0ms', '', 'UL:&amp;lt;1\xa0s', '', '(rural)', '', 'DL: &amp;gt; 100\xa0kbit/s UL: &amp;gt; 5\xa0Gbit/s', '(note 9)', '', '–', '', '–', '', 'stationary', '', '&amp;gt; 100', '', '', '', 'Distributed energy storage; energy storage station video (A.4.6)', '', '&amp;gt; 99.99 %', '', '–', '', '&amp;lt; 100\xa0ms (note 10);', '', 'DL:&amp;lt;1\xa0Mbit/s', '', '–', '', '–', '', '–', '', '–', '', '–', '', 'Advanced metering (A.4.7)', '', '&amp;gt; 99.999\xa0%', '', '–', '', '20 ms', '', '–', '', '&amp;lt; 100 byte', '', '–', '', '–', '', '–', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', 'Distributed automated switching for isolation and service restoration (A.4.4.1) (note 7)', '', '&amp;gt; 99.999 9\xa0%', '', '', '', '&amp;lt; 3\xa0ms', '', '–', '', '160\xa0byte', '', '–', '', '–', '', '–', '', '–', '', 'Distributed Energy Resources (DERs) and micro-grids (A.4.9) (note 7)', '', 'NOTE 1:\tUnless otherwise specified, all communication includes 1 wireless link (UE to network node or network node to UE) rather than two wireless links (UE to UE).', '', 'NOTE 2:\t(void)', '', 'NOTE 3:\tLength x width x height.', '', 'NOTE 4:\tScheduled aperiodic traffic with transfer interval (max end-to-end allowed latency &amp;lt; transfer interval). ', '', 'NOTE 5:\tIt applies to both UL and DL unless stated otherwise.', '', 'NOTE 6:\tIt applies to both linear movement and rotation unless stated otherwise. ', '', 'NOTE 7:\tCommunication includes two wireless links (UE to UE).', '', 'NOTE 8:\tThe mobile operation panel is connected wirelessly to the 5G system. If the mobile robot/production line is also connected wirelessly to the 5G system, the communication includes two wireless links.', '', 'NOTE 9:\tThe service bit rate in one energy storage station can be calculated as follows:12.5\xa0Mbytes/s x 50 containers x 8 = 5\xa0Gbit/s.', '', 'NOTE 10:\tThe maximum allowed end-to-end latency is for accuracy fee control. It is the delay for one-way communication between the backend system and the 5G IoT device. The distance between the two is 40\xa0km or lower (city range).', '', '', '']</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.2.2.2	Control-to-control communication&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;5.5	Mixed traffic&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -632,13 +677,18 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.113874554634094</v>
+        <v>1.128763675689697</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>['', 'Mixed traffic cannot be assigned to one of the other communication patterns exclusively. Additional information on the underlying use cases of the sets of requirements in Table 5.5-1 can be found in Annex A. Further information on characteristic parameters and influence quantities used in Table 5.5-1 can be found in Annex C. ', '', 'The 5G system shall be able to provide mixed traffic communication with the service performance requirements for individual logical communication links that realise the communication services reported in Table 5.5-1.', '', 'Table 5.5-1: Mixed traffic communication service performance requirements', '', 'Characteristic parameter (KPI)', '', 'Influence quantity', '', 'Remarks', '', 'Communication service availability', '', 'Communication service reliability: mean time between failures', '', 'Max Allowed End-to-end latency (note\xa01)&lt;b&gt; ', '(note 3)&lt;/b&gt;', '', 'Service bit rate: aggregate user-experienced data rate', '', 'Message', '', 'Size', '', '[byte]', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service Area', '', '', '', '99.999\xa0999\xa09\xa0%', '', '~ 10 years', '', '16 ms', '', '', '', '', '', '', '', 'stationary', '', '&amp;lt; 1,000', '', 'several km²', '', 'Wind power plant – control traffic (A.5.2) ', '', '99.999\xa09\xa0% to 99.999\xa099\xa0%', '', '1 day', '', '(note\xa04)', '', '12\xa0Mbit/s', '', '250 to 1,500', '', '', '', 'quasi-static; up to 10\xa0km/h', '', '2 or more', '', '30\xa0m x 30\xa0m', '', 'Mobile Operation Panel: Manufacturing data stream (A.2.4.1A)', '', 'NOTE 1:\tUnless otherwise specified, all communication includes 1 wireless link (UE to network node or network node to UE) rather than two wireless links (UE to UE).', '', 'NOTE 2:\t(void) ', '', 'NOTE 3: \tIt applies to both UL and DL unless stated otherwise.', '', 'NOTE 4:\tThe mobile operation panel is connected wirelessly to the 5G system. If the mobile robot/production line is also connected wirelessly to the 5G system, the communication includes two wireless links.', '', '', '', '', '']</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.2.2.3	Mobile robots&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;5.5	Mixed traffic&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -648,42 +698,52 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.099619150161743</v>
+        <v>1.083094716072083</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>['', 'Mixed traffic cannot be assigned to one of the other communication patterns exclusively. Additional information on the underlying use cases of the sets of requirements in Table 5.5-1 can be found in Annex A. Further information on characteristic parameters and influence quantities used in Table 5.5-1 can be found in Annex C. ', '', 'The 5G system shall be able to provide mixed traffic communication with the service performance requirements for individual logical communication links that realise the communication services reported in Table 5.5-1.', '', 'Table 5.5-1: Mixed traffic communication service performance requirements', '', 'Characteristic parameter (KPI)', '', 'Influence quantity', '', 'Remarks', '', 'Communication service availability', '', 'Communication service reliability: mean time between failures', '', 'Max Allowed End-to-end latency (note\xa01)&lt;b&gt; ', '(note 3)&lt;/b&gt;', '', 'Service bit rate: aggregate user-experienced data rate', '', 'Message', '', 'Size', '', '[byte]', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service Area', '', '', '', '99.999\xa0999\xa09\xa0%', '', '~ 10 years', '', '16 ms', '', '', '', '', '', '', '', 'stationary', '', '&amp;lt; 1,000', '', 'several km²', '', 'Wind power plant – control traffic (A.5.2) ', '', '99.999\xa09\xa0% to 99.999\xa099\xa0%', '', '1 day', '', '(note\xa04)', '', '12\xa0Mbit/s', '', '250 to 1,500', '', '', '', 'quasi-static; up to 10\xa0km/h', '', '2 or more', '', '30\xa0m x 30\xa0m', '', 'Mobile Operation Panel: Manufacturing data stream (A.2.4.1A)', '', 'NOTE 1:\tUnless otherwise specified, all communication includes 1 wireless link (UE to network node or network node to UE) rather than two wireless links (UE to UE).', '', 'NOTE 2:\t(void) ', '', 'NOTE 3: \tIt applies to both UL and DL unless stated otherwise.', '', 'NOTE 4:\tThe mobile operation panel is connected wirelessly to the 5G system. If the mobile robot/production line is also connected wirelessly to the 5G system, the communication includes two wireless links.', '', '', '', '', '']</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.2.2.4	Wired to wireless link replacement&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;6.2	Network exposure for UAV services&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TS_22_104.docx</t>
+          <t>TS_22_125.docx</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.171492338180542</v>
+        <v>1.068327069282532</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>['', '[R-6.2-001] The 3GPP system shall provide means to allow a 3&lt;sup&gt;rd&lt;/sup&gt; party to request and obtain real-time monitoring the status information (e.g., location of UAV, communication link status) of a UAV.', '', "[R-6.2-002] Based on operator 's policy, the 3GPP system shall provide means to provide a 3&lt;sup&gt;rd&lt;/sup&gt; party with the information regarding the service status for UAVs in a certain geographical area and/or at a certain time.", '', 'NOTE: \tService status is about the information of whether the communication service to the UAV can be provided with a certain QoS by the network.', '', '[R-6.2-003] Based on operator’s policy, the 5G system shall be able to support a method to predict, monitor network conditions and QoS (e.g. bitrate, latency, reliability) and report to 3&lt;sup&gt;rd&lt;/sup&gt; party along a continuous geographic planned flight path of a UAV at specific times of its expected flight duration.', '']</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.2.2.5	Cooperative carrying&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;6.2	Network exposure for UAV services&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TS_22_104.docx</t>
+          <t>TS_22_125.docx</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -692,38 +752,48 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.092858910560608</v>
+        <v>1.108289003372192</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>['', '[R-6.2-001] The 3GPP system shall provide means to allow a 3&lt;sup&gt;rd&lt;/sup&gt; party to request and obtain real-time monitoring the status information (e.g., location of UAV, communication link status) of a UAV.', '', "[R-6.2-002] Based on operator 's policy, the 3GPP system shall provide means to provide a 3&lt;sup&gt;rd&lt;/sup&gt; party with the information regarding the service status for UAVs in a certain geographical area and/or at a certain time.", '', 'NOTE: \tService status is about the information of whether the communication service to the UAV can be provided with a certain QoS by the network.', '', '[R-6.2-003] Based on operator’s policy, the 5G system shall be able to support a method to predict, monitor network conditions and QoS (e.g. bitrate, latency, reliability) and report to 3&lt;sup&gt;rd&lt;/sup&gt; party along a continuous geographic planned flight path of a UAV at specific times of its expected flight duration.', '']</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.2.3.1	Closed-loop control&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;6.8	UTM assistance requirements&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TS_22_104.docx</t>
+          <t>TS_22_125.docx</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.093109607696533</v>
+        <v>1.063575267791748</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>['', '[R-6.8-001] Based on operator’s policy, the 5G system shall be able to provide UTM with the information about geographic areas where UAV service requirements could or could not be met based on predicted network conditions and QoS (e.g. bitrate, latency, reliability).', '', '[R-6.8-002] Based on a 3&lt;sup&gt;rd&lt;/sup&gt; party request, the 5G system shall be able to assist the UTM with mechanism to provide to the 3&lt;sup&gt;rd&lt;/sup&gt; party alternative UAV flight paths, e.g., based on required waypoints, QoS, and exclusion zones.', '', '[R-6.8-003] The 5G system shall be able to support service enablement layer exposure mechanisms for the UTM or other authorized 3&lt;sup&gt;rd&lt;/sup&gt; party to provide the UAV application with configuration information to route and switch traffic between one active and one standby PLMN connection, e.g. for C2 communication reliability and redundancy purpose, or to route different traffic across different PLMN connections simultaneously, e.g. C2 traffic via one PLMN and other data via the second PLMN.', '', 'NOTE 1:\tThe above requirement can be extended to scenarios where one network is a PLMN and one is an NPN.', '', 'NOTE 2: There is no impact on legacy network selection. ', '', 'NOTE 3: It is assumed that UAV traffic handling, over each PLMN, is subject to NW control mechanisms (e.g. in accordance with MNO routing priorities, available QoS/NW resources, etc.).', '', '[R-6.8-004] Subject to user consent and national or regional regulation, based on operator and UTM policy, the 5G system may be able to provide aerial object location(s) derived using 5G Wireless Sensing to the UTM to fulfil the UTM’s request.', '', 'NOTE 4: The airborne object location(s) are expected to be used by the UTM to determine the position of airborne objects.', '']</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.2.3.2	Process and asset monitoring&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;6.8	UTM assistance requirements&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TS_22_104.docx</t>
+          <t>TS_22_125.docx</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -732,38 +802,48 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.116275310516357</v>
+        <v>1.083270311355591</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>['', '[R-6.8-001] Based on operator’s policy, the 5G system shall be able to provide UTM with the information about geographic areas where UAV service requirements could or could not be met based on predicted network conditions and QoS (e.g. bitrate, latency, reliability).', '', '[R-6.8-002] Based on a 3&lt;sup&gt;rd&lt;/sup&gt; party request, the 5G system shall be able to assist the UTM with mechanism to provide to the 3&lt;sup&gt;rd&lt;/sup&gt; party alternative UAV flight paths, e.g., based on required waypoints, QoS, and exclusion zones.', '', '[R-6.8-003] The 5G system shall be able to support service enablement layer exposure mechanisms for the UTM or other authorized 3&lt;sup&gt;rd&lt;/sup&gt; party to provide the UAV application with configuration information to route and switch traffic between one active and one standby PLMN connection, e.g. for C2 communication reliability and redundancy purpose, or to route different traffic across different PLMN connections simultaneously, e.g. C2 traffic via one PLMN and other data via the second PLMN.', '', 'NOTE 1:\tThe above requirement can be extended to scenarios where one network is a PLMN and one is an NPN.', '', 'NOTE 2: There is no impact on legacy network selection. ', '', 'NOTE 3: It is assumed that UAV traffic handling, over each PLMN, is subject to NW control mechanisms (e.g. in accordance with MNO routing priorities, available QoS/NW resources, etc.).', '', '[R-6.8-004] Subject to user consent and national or regional regulation, based on operator and UTM policy, the 5G system may be able to provide aerial object location(s) derived using 5G Wireless Sensing to the UTM to fulfil the UTM’s request.', '', 'NOTE 4: The airborne object location(s) are expected to be used by the UTM to determine the position of airborne objects.', '']</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.2.3.3	Plant asset management&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;7.1	KPIs for services provided to the UAV applications&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TS_22_104.docx</t>
+          <t>TS_22_125.docx</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.107444643974304</v>
+        <v>1.120516777038574</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>['', 'The 5G system shall be able to provide uncrewed aerial vehicle with the service performance requirements reported in Table 7.1-1.', '', 'UAV originated QoS in the table refers to the QoS of Uplink data (e.g. from UAV to the network side). UAV terminated QoS is the QoS of downlink data (e.g. from the network side to UAV).', '', 'The data transmitted by the 5G system includes data collected by hardware devices installed on UAV such as cameras, e.g. pictures, videos and files. It is also possible to transmit some software calculation or statistical data, e.g. UAV management data. The service control data transmitted by the 5G system may be based on application triggers, such as switch, rotation, promotion and demotion control of equipment on UAV. Various UAV applications may require different uplink and downlink QoS at the same time. The 5G system may simultaneously provide services to other users on the ground (e.g., the KPIs for rural and urban scenarios as defined in 7.1 of TS 22.261 [4]) in the same area without service degradation.', '', 'Table 7.1-1 KPIs for services provided to the UAV applications ', '', 'Use case', '', 'Services', '', 'Data rate', '', '', '', 'End to end Latency', '', 'Altitude AGL', '', 'service area', '', '(note 4)', '', '1', '', '8K video live broadcast', '', ' 100Mbps', '', 'UAV ', '', 'originated ', '', '200 ms', '', '&amp;lt;100 m', '', 'Urban, scenic area', '', '', '', '', '', '600Kbps', '', 'UAV ', '', 'terminated', '', '20 ms', '', '&amp;lt;100 m', '', '', '', '2', '', 'Laser mapping/', '', 'HD patrol', '', 'Note 7', '', '120Mbps', '', 'UAV ', '', 'originated', '', 'Note 1', '', '200 ms', '', '30-300 m', '', 'Urban, rural area, scenic area', '', '', '', '', '', '300Kbps', '', 'UAV ', '', 'terminated', '', '20 ms', '', '30-300 m', '', '', '', '3', '', '4*4K AI surveillance', '', '120Mbps', '', 'UAV ', '', 'originated ', '', '20 ms', '', '&amp;lt;200 m', '', 'Urban, rural area', '', '', '', '', '', '50Mbps', '', 'UAV terminated ', '', '20 ms', '', '&amp;lt;200 m', '', '', '', '4', '', 'Remote UAV controller through HD video', '', '&amp;gt;=25Mbps ', '', 'UAV ', '', 'originated ', '', '(Note 3)', '', '100 ms', '', '&amp;lt;300 m ', '', 'Urban, rural area', '', '', '', '', '', '300Kbps', '', 'UAV ', '', 'terminated', '', '20 ms', '', '&amp;lt;300 m ', '', '', '', '5', '', 'Real-Time Video', '', '0.06 Mbps w/o video', '', 'UAV', '', 'originated', '', '100 ms', '', '', '', '-', '', 'Urban, rural, countryside', '', '6', '', 'Video streaming', '', '4 Mbps for 720p video', '', '9 Mbps for 1080p video', '', 'UAV ', '', 'originated', '', '100 ms', '', '', '', '-', '', 'Urban, rural, countryside', '', '7', '', 'Periodic still photos', '', '1Mbps', '', 'UAV ', '', 'originated ', '', '1S', '', '0.1m', '', '&amp;lt;120m', '', '-', '', 'Urban, rural area', '', '', '', '1s', '', '&amp;lt;120 m', '', 'Urban, rural, countryside', '', '', '', 'NOTE 1:   The flight average speed is 60km/h. The KPI is referring to [5].', '', 'NOTE 2:   The latency is the time of the 5G system provide higher accuracy location information of a UAV to a third party.', '', 'NOTE 3:   Referring to clause 5.2.2, the absolute flying speed of UAV in this service can be up to 160km/h. ', '', 'NOTE 4:   The density of active UAV is 10/200km&lt;sup&gt;2&lt;/sup&gt;. The maximum altitude is 300m. The flight average speed is 60km/h.', '', '', '']</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.2.3.4	Inspection in production systems&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;7.1	KPIs for services provided to the UAV applications&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TS_22_104.docx</t>
+          <t>TS_22_125.docx</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -772,18 +852,23 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.117323994636536</v>
+        <v>1.165401935577393</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>['', 'The 5G system shall be able to provide uncrewed aerial vehicle with the service performance requirements reported in Table 7.1-1.', '', 'UAV originated QoS in the table refers to the QoS of Uplink data (e.g. from UAV to the network side). UAV terminated QoS is the QoS of downlink data (e.g. from the network side to UAV).', '', 'The data transmitted by the 5G system includes data collected by hardware devices installed on UAV such as cameras, e.g. pictures, videos and files. It is also possible to transmit some software calculation or statistical data, e.g. UAV management data. The service control data transmitted by the 5G system may be based on application triggers, such as switch, rotation, promotion and demotion control of equipment on UAV. Various UAV applications may require different uplink and downlink QoS at the same time. The 5G system may simultaneously provide services to other users on the ground (e.g., the KPIs for rural and urban scenarios as defined in 7.1 of TS 22.261 [4]) in the same area without service degradation.', '', 'Table 7.1-1 KPIs for services provided to the UAV applications ', '', 'Use case', '', 'Services', '', 'Data rate', '', '', '', 'End to end Latency', '', 'Altitude AGL', '', 'service area', '', '(note 4)', '', '1', '', '8K video live broadcast', '', ' 100Mbps', '', 'UAV ', '', 'originated ', '', '200 ms', '', '&amp;lt;100 m', '', 'Urban, scenic area', '', '', '', '', '', '600Kbps', '', 'UAV ', '', 'terminated', '', '20 ms', '', '&amp;lt;100 m', '', '', '', '2', '', 'Laser mapping/', '', 'HD patrol', '', 'Note 7', '', '120Mbps', '', 'UAV ', '', 'originated', '', 'Note 1', '', '200 ms', '', '30-300 m', '', 'Urban, rural area, scenic area', '', '', '', '', '', '300Kbps', '', 'UAV ', '', 'terminated', '', '20 ms', '', '30-300 m', '', '', '', '3', '', '4*4K AI surveillance', '', '120Mbps', '', 'UAV ', '', 'originated ', '', '20 ms', '', '&amp;lt;200 m', '', 'Urban, rural area', '', '', '', '', '', '50Mbps', '', 'UAV terminated ', '', '20 ms', '', '&amp;lt;200 m', '', '', '', '4', '', 'Remote UAV controller through HD video', '', '&amp;gt;=25Mbps ', '', 'UAV ', '', 'originated ', '', '(Note 3)', '', '100 ms', '', '&amp;lt;300 m ', '', 'Urban, rural area', '', '', '', '', '', '300Kbps', '', 'UAV ', '', 'terminated', '', '20 ms', '', '&amp;lt;300 m ', '', '', '', '5', '', 'Real-Time Video', '', '0.06 Mbps w/o video', '', 'UAV', '', 'originated', '', '100 ms', '', '', '', '-', '', 'Urban, rural, countryside', '', '6', '', 'Video streaming', '', '4 Mbps for 720p video', '', '9 Mbps for 1080p video', '', 'UAV ', '', 'originated', '', '100 ms', '', '', '', '-', '', 'Urban, rural, countryside', '', '7', '', 'Periodic still photos', '', '1Mbps', '', 'UAV ', '', 'originated ', '', '1S', '', '0.1m', '', '&amp;lt;120m', '', '-', '', 'Urban, rural area', '', '', '', '1s', '', '&amp;lt;120 m', '', 'Urban, rural, countryside', '', '', '', 'NOTE 1:   The flight average speed is 60km/h. The KPI is referring to [5].', '', 'NOTE 2:   The latency is the time of the 5G system provide higher accuracy location information of a UAV to a third party.', '', 'NOTE 3:   Referring to clause 5.2.2, the absolute flying speed of UAV in this service can be up to 160km/h. ', '', 'NOTE 4:   The density of active UAV is 10/200km&lt;sup&gt;2&lt;/sup&gt;. The maximum altitude is 300m. The flight average speed is 60km/h.', '', '', '']</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.2.4.1	Mobile control panels&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;7.2	KPIs for UAV command and control&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TS_22_104.docx</t>
+          <t>TS_22_125.docx</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -792,58 +877,73 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.102161526679993</v>
+        <v>1.144551753997803</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>['', 'UAVs may use a variety of flight command and control modes. Command and control (C2) communications refers to the two-way communication, which may include video, required to control the operation of the UAV itself. C2 messages may be communicated with the UAV controller, the UTM or both and may or may not be periodic. UAV controller and UTM communications may happen at essentially the same time with different required QoS. Any mission specific communication (e.g. HD video for area surveillance), if required, is additional. Different modes of control and their typical KPIs are listed in this clause below. The 5G system shall support UAV operation at altitudes of at least 120m / 400ft above ground level, e.g. the services should be provided and characterized up to 3000ft AGL.', '', 'Table 7.2-1 KPIs for command and control of UAV operation', '', 'Control Mode', '', 'Function', '', 'Typical Message Interval', '', '', '', 'Max UAV ground speed', '', 'Typical message Size', '', '(note 1)', '', 'End to end Latency', '', '', '', 'Reliability', '', '(note 2)', '', 'Positive ACK', '', '(note 8)', '', 'Steer to waypoints (note 3)', '', 'UAV terminated C2 message', '', '&amp;gt;=1 s', '', '300 km/h', '', '', '', '100 byte', '', '', '', '1 s', '', '99.9%', '', 'Required', '', '', '', 'UAV originated C2 message', '', '(note 4)', '', '1 s', '', '', '', '84-140 byte', '', '1 s', '', '99.9%', '', 'Not Required', '', 'Direct stick steering ', '', '(note 5)', '', 'UAV terminated C2 message', '', '40 ms', '', '(note 6)', '', '60km/h', '', '24 byte', '', '40 ms', '', '99.9%', '', 'Required ', '', '', '', 'UAV originated C2 message ', '', '(note 7)', '', '40 ms', '', '', '', '84-140 byte', '', '40 ms', '', '', '', '99.9%', '', 'Not Required', '', 'Automatic flight on UTM', '', '(note 10)', '', ' ', '', 'UAV terminated C2 message', '', '1 s     ', '', '300 km/h', '', '', '', '', '', '&amp;lt;10 kbyte', '', '5 s (note 9)', '', '99.9%', '', 'Required', '', '', '', 'UAV originated C2 message', '', '1 s', '', '(note 9)', '', '', '', '1500 byte ', '', '5 s', '', '(note 9)', '', '99.9% ', '', 'Required', '', 'Approaching Autonomous Navigation Infrastructure', '', 'UAV terminated C2 message', '', '500 ms', '', '50 km/h', '', '4 kbyte', '', '10 ms', '', '99%', '', 'Required', '', '', '', 'UAVoriginated C2 message', '', '500 ms', '', '', '', '4 kbyte', '', '140 ms', '', '99.99%', '', 'Required', '', 'NOTE 1: Message size is at the application layer and excludes any headers and security related load. The numbers shown are typical as message size depends on the commands sent and is implementation specific.', '', 'NOTE 2: Message reliability is defined as the probability of successful transmission within the required latency at the application layer while under network coverage.', '', 'NOTE 3: Video is neither required nor expected to be used for steering in this mode.', '', 'NOTE 4: It may be possible to transmit this message on an event driven basis (e.g. approaching a geo fence). A status message may, but is not required to, be sent as a response to a control message.', '', 'NOTE 5: A video feedback is required for this mode. The KPIs for video are defined in table 7.2-2.', '', 'NOTE 6: UAVs on-board controllers typically update at either 50Hz (20ms) or 25Hz (40ms).', '', 'NOTE 7: A status message may, but is not required to, be sent as a response to a control message A 1Hz slow mode also exists.', '', 'NOTE 8: Positive ACK is sent to the originator of the message (i.e. UAV controller and / or the UTM). The 5G system makes no assumption whether an appropriate ACK is sent by the application layer.', '', 'NOTE 9: At the application layer, the C2 communication between a UAV and UTM can be allowed to experience much longer traffic interruptions, e.g. timeouts of 30 s on the uplink and 300 s on the downlink.', '', 'NOTE 10: This only represents periodic message exchange during a nominal mission in steady state. Itdoes not represent unusual or aperiodic events such as conveying dynamic restrictions or a flight plan to the UAV on the downlink.', '', '', '', 'Table 7.2-2 KPIs for video used to aid UAV control. ', '', 'Scenario ', '', '(note 2)', '', 'Data rate', '', 'End to end Latency', '', 'Reliability', '', '(note 1)', '', 'Direction', '', 'Positive ACK required', '', 'VLOS (visual line of sight)', '', '2 Mpbs at 480 p, 30 fps', '', '1 s', '', '99.9%', '', 'Sent by UAV', '', 'Not Required', '', 'Non-VLOS', '', '4 Mbps at 720 p, 30 fps', '', '140 ms', '', '99.99%', '', 'Sent by UAV', '', 'Not Required', '', 'NOTE 1:  Message reliability is defined as the probability of successful transmission within the required latency.', '', 'NOTE 2:  Maximum UAV speed is same as control mode of direct stick steering in 7.2-1', '', '', '']</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.2.4.1A	Mobile operation panels&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;7.2	KPIs for UAV command and control&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TS_22_104.docx</t>
+          <t>TS_22_125.docx</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.122668266296387</v>
+        <v>1.097088217735291</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>['', 'UAVs may use a variety of flight command and control modes. Command and control (C2) communications refers to the two-way communication, which may include video, required to control the operation of the UAV itself. C2 messages may be communicated with the UAV controller, the UTM or both and may or may not be periodic. UAV controller and UTM communications may happen at essentially the same time with different required QoS. Any mission specific communication (e.g. HD video for area surveillance), if required, is additional. Different modes of control and their typical KPIs are listed in this clause below. The 5G system shall support UAV operation at altitudes of at least 120m / 400ft above ground level, e.g. the services should be provided and characterized up to 3000ft AGL.', '', 'Table 7.2-1 KPIs for command and control of UAV operation', '', 'Control Mode', '', 'Function', '', 'Typical Message Interval', '', '', '', 'Max UAV ground speed', '', 'Typical message Size', '', '(note 1)', '', 'End to end Latency', '', '', '', 'Reliability', '', '(note 2)', '', 'Positive ACK', '', '(note 8)', '', 'Steer to waypoints (note 3)', '', 'UAV terminated C2 message', '', '&amp;gt;=1 s', '', '300 km/h', '', '', '', '100 byte', '', '', '', '1 s', '', '99.9%', '', 'Required', '', '', '', 'UAV originated C2 message', '', '(note 4)', '', '1 s', '', '', '', '84-140 byte', '', '1 s', '', '99.9%', '', 'Not Required', '', 'Direct stick steering ', '', '(note 5)', '', 'UAV terminated C2 message', '', '40 ms', '', '(note 6)', '', '60km/h', '', '24 byte', '', '40 ms', '', '99.9%', '', 'Required ', '', '', '', 'UAV originated C2 message ', '', '(note 7)', '', '40 ms', '', '', '', '84-140 byte', '', '40 ms', '', '', '', '99.9%', '', 'Not Required', '', 'Automatic flight on UTM', '', '(note 10)', '', ' ', '', 'UAV terminated C2 message', '', '1 s     ', '', '300 km/h', '', '', '', '', '', '&amp;lt;10 kbyte', '', '5 s (note 9)', '', '99.9%', '', 'Required', '', '', '', 'UAV originated C2 message', '', '1 s', '', '(note 9)', '', '', '', '1500 byte ', '', '5 s', '', '(note 9)', '', '99.9% ', '', 'Required', '', 'Approaching Autonomous Navigation Infrastructure', '', 'UAV terminated C2 message', '', '500 ms', '', '50 km/h', '', '4 kbyte', '', '10 ms', '', '99%', '', 'Required', '', '', '', 'UAVoriginated C2 message', '', '500 ms', '', '', '', '4 kbyte', '', '140 ms', '', '99.99%', '', 'Required', '', 'NOTE 1: Message size is at the application layer and excludes any headers and security related load. The numbers shown are typical as message size depends on the commands sent and is implementation specific.', '', 'NOTE 2: Message reliability is defined as the probability of successful transmission within the required latency at the application layer while under network coverage.', '', 'NOTE 3: Video is neither required nor expected to be used for steering in this mode.', '', 'NOTE 4: It may be possible to transmit this message on an event driven basis (e.g. approaching a geo fence). A status message may, but is not required to, be sent as a response to a control message.', '', 'NOTE 5: A video feedback is required for this mode. The KPIs for video are defined in table 7.2-2.', '', 'NOTE 6: UAVs on-board controllers typically update at either 50Hz (20ms) or 25Hz (40ms).', '', 'NOTE 7: A status message may, but is not required to, be sent as a response to a control message A 1Hz slow mode also exists.', '', 'NOTE 8: Positive ACK is sent to the originator of the message (i.e. UAV controller and / or the UTM). The 5G system makes no assumption whether an appropriate ACK is sent by the application layer.', '', 'NOTE 9: At the application layer, the C2 communication between a UAV and UTM can be allowed to experience much longer traffic interruptions, e.g. timeouts of 30 s on the uplink and 300 s on the downlink.', '', 'NOTE 10: This only represents periodic message exchange during a nominal mission in steady state. Itdoes not represent unusual or aperiodic events such as conveying dynamic restrictions or a flight plan to the UAV on the downlink.', '', '', '', 'Table 7.2-2 KPIs for video used to aid UAV control. ', '', 'Scenario ', '', '(note 2)', '', 'Data rate', '', 'End to end Latency', '', 'Reliability', '', '(note 1)', '', 'Direction', '', 'Positive ACK required', '', 'VLOS (visual line of sight)', '', '2 Mpbs at 480 p, 30 fps', '', '1 s', '', '99.9%', '', 'Sent by UAV', '', 'Not Required', '', 'Non-VLOS', '', '4 Mbps at 720 p, 30 fps', '', '140 ms', '', '99.99%', '', 'Sent by UAV', '', 'Not Required', '', 'NOTE 1:  Message reliability is defined as the probability of successful transmission within the required latency.', '', 'NOTE 2:  Maximum UAV speed is same as control mode of direct stick steering in 7.2-1', '', '', '']</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.2.4.2	Augmented reality&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;7.3	Positioning performance requirements	&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TS_22_104.docx</t>
+          <t>TS_22_125.docx</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.121581315994263</v>
+        <v>1.144670963287354</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>['', 'Table 7.3-1 below lists typical scenarios and the corresponding positioning requirements for horizontal and vertical accuracy, availability, heading, latency, and UE speed.', '', 'NOTE:\tThe column on "Corresponding Positioning Service Level in TS 22.261" maps the scenarios listed in Table 7.3-1 to the service levels defined in TS 22.261 [4].', '', 'Table 7.3-1: Positioning performance requirements', '', 'Scenario', '', 'Accuracy', '', '(95 % confidence level)', '', 'Availability', '', 'Heading', '', 'Latency for position estimation of UE', '', 'UE Speed', '', '&lt;span style="font-size:16pt"&gt;Corresponding Positioning Service Level in TS 22.261&lt;/span&gt;', '', '', '', 'Horizontal accuracy', '', 'Vertical accuracy', '', '', '', '', '', '', '', '', '', '', '', '8K video live broadcast', '', '[0.5 m]', '', '[1 m]', '', '99%', '', '', '', '1s', '', '[&amp;lt;120 km/h]', '', '5', '', 'Laser mapping/', '', 'HD patrol', '', '[0.5 m]', '', '[1 m]', '', '99%', '', '', '', '1s', '', '[&amp;lt;120 km/h]', '', '5', '', '4*4K AI surveillance', '', '[0.1\xa0m]', '', '', '', '', '', '', '', '', '', '[&amp;lt;60 ', '', 'km/h]', '', '', '', 'Remote UAV controller through HD video', '', '[0.5 m]', '', '[1 m]', '', '99%', '', '', '', '1s', '', '[&amp;lt;120 km/h]', '', '5', '', 'Periodic still photos', '', '[0.1 m]', '', '[1 m]', '', '', '', '', '', '', '', '[&amp;lt;60 km/h]', '', '', '', 'NOTE: The positioning accuracy in this table is not related to navigation or safety. ', '']</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.2.5.1	Remote access and maintenance&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;7.3	Positioning performance requirements	&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TS_22_104.docx</t>
+          <t>TS_22_125.docx</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -852,18 +952,23 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.139143466949463</v>
+        <v>1.190701365470886</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>['', 'Table 7.3-1 below lists typical scenarios and the corresponding positioning requirements for horizontal and vertical accuracy, availability, heading, latency, and UE speed.', '', 'NOTE:\tThe column on "Corresponding Positioning Service Level in TS 22.261" maps the scenarios listed in Table 7.3-1 to the service levels defined in TS 22.261 [4].', '', 'Table 7.3-1: Positioning performance requirements', '', 'Scenario', '', 'Accuracy', '', '(95 % confidence level)', '', 'Availability', '', 'Heading', '', 'Latency for position estimation of UE', '', 'UE Speed', '', '&lt;span style="font-size:16pt"&gt;Corresponding Positioning Service Level in TS 22.261&lt;/span&gt;', '', '', '', 'Horizontal accuracy', '', 'Vertical accuracy', '', '', '', '', '', '', '', '', '', '', '', '8K video live broadcast', '', '[0.5 m]', '', '[1 m]', '', '99%', '', '', '', '1s', '', '[&amp;lt;120 km/h]', '', '5', '', 'Laser mapping/', '', 'HD patrol', '', '[0.5 m]', '', '[1 m]', '', '99%', '', '', '', '1s', '', '[&amp;lt;120 km/h]', '', '5', '', '4*4K AI surveillance', '', '[0.1\xa0m]', '', '', '', '', '', '', '', '', '', '[&amp;lt;60 ', '', 'km/h]', '', '', '', 'Remote UAV controller through HD video', '', '[0.5 m]', '', '[1 m]', '', '99%', '', '', '', '1s', '', '[&amp;lt;120 km/h]', '', '5', '', 'Periodic still photos', '', '[0.1 m]', '', '[1 m]', '', '', '', '', '', '', '', '[&amp;lt;60 km/h]', '', '', '', 'NOTE: The positioning accuracy in this table is not related to navigation or safety. ', '']</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.4.2	Primary frequency control&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;7.4	Other requirements &lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TS_22_104.docx</t>
+          <t>TS_22_125.docx</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -872,33 +977,43 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.113672256469727</v>
+        <v>1.107107162475586</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>['', '[R-7.4-001] The 5G system shall support a mechanism to switch between C2 communication modes for UAS operation, e.g. from indirect C2 communication to direct C2 communication, and ensure the disconnect time is below the latency requirements.', '', '[R-7.4-002] The 3GPP system shall enable concurrent communications between the UAV-controller and UAV and between the UTM and the UAV that may require different KPIs. ', '', '[R-7.4-003] The 3GPP system shall be capable of switching between the KPIs, as requested by the UAV-controller or the UTM, within [500ms].  ', '', '', 'Annex A (informative):', 'UAS Reference Model', '']</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.4.3	Distributed voltage control&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;7.4	Other requirements &lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TS_22_104.docx</t>
+          <t>TS_22_125.docx</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.125114321708679</v>
+        <v>1.056294202804565</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>['', '[R-7.4-001] The 5G system shall support a mechanism to switch between C2 communication modes for UAS operation, e.g. from indirect C2 communication to direct C2 communication, and ensure the disconnect time is below the latency requirements.', '', '[R-7.4-002] The 3GPP system shall enable concurrent communications between the UAV-controller and UAV and between the UTM and the UAV that may require different KPIs. ', '', '[R-7.4-003] The 3GPP system shall be capable of switching between the KPIs, as requested by the UAV-controller or the UTM, within [500ms].  ', '', '', 'Annex A (informative):', 'UAS Reference Model', '']</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.4.4.1	Distributed automated switching for isolation and service restoration&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.2.1	Overview&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -912,13 +1027,18 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.112600088119507</v>
+        <v>1.264178037643433</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>['', 'The manufacturing industry is currently subject to a fundamental change, which is often referred to as the "Fourth Industrial Revolution" or simply "Industry 4.0" [15]. The main goals of Industry 4.0 are―among others―the improvement of flexibility, versatility, resource efficiency, cost efficiency, worker support, and quality of industrial production and logistics. These improvements are important for addressing the needs of increasingly volatile and globalised markets. A major enabler for all this is cyber-physical production systems based on a ubiquitous and powerful connectivity, communication, and computing infrastructure. The infrastructure interconnects people, machines, products, and all kinds of other devices in a flexible, secure and consistent manner. Several different application areas can be distinguished:', '', '&lt;b&gt;1)&lt;/b&gt;\t&lt;b&gt;Factory automation:&lt;/b&gt; Factory automation deals with the automated control, monitoring and optimisation of processes and workflows within a factory. This includes aspects like closed-loop control applications (e.g., based on programmable logic or motion controllers) and robotics, as well as aspects of computer-integrated manufacturing. Factory automation generally represents a key enabler for industrial mass production with high quality and cost-efficiency. Corresponding applications are often characterised by highest requirements on the underlying communication infrastructure, especially in terms of communication service availability, determinism, and latency. In the Factories of the Future, static sequential production systems will be more and more replaced by novel modular production systems offering a high flexibility and versatility. This involves many increasingly mobile production assets, for which powerful wireless communication and localisation services are required. ', '', '&lt;b&gt;2)&lt;/b&gt;\t&lt;b&gt;Process automation: &lt;/b&gt;Process automation refers to the control of production and handling of substances like chemicals, food &amp;amp; beverage, pulp, etc. Process automation improves the efficiency of production processes, energy consumption, and safety of the facilities. Sensors measuring process values, such as pressures or temperatures, are working in closed loops via centralised and decentralised controllers. In turn, the controllers interact with actuators, e.g., valves, pumps, heaters. Also, monitoring of attributes such as the filling levels of tanks, quality of material, or environmental data are important, as well as safety warnings or plant shut downs. Workers in the plant are supported by mobile devices. A process automation facility may range from a few 100\xa0m² to several km², and the facility may be geographically distributed. Depending on the size, a production plant may have several 10,000 measurement points and actuators. Autarkic device power supply for years is needed in order to stay flexible and to keep the total costs of ownership low. ', '', '&lt;b&gt;3)&lt;/b&gt;\t&lt;b&gt;HMIs and production IT: &lt;/b&gt;Human-machine interfaces (HMIs) include all sorts of devices for the interaction between people and production facilities, such as panels attached to a machine or production line, but also standard IT devices, such as laptops, tablet PCs, smartphones, etc. In addition, augmented- and virtual-reality applications are expected to play an increasingly important role in future. ', '', '4) \t&lt;b&gt;Logistics and warehousing&lt;/b&gt;: Organisation and control of the flow and storage of materials and goods in the context of industrial production. In this respect, intra-logistics is dealing with logistics within a certain property (e.g., within a factory), for example by ensuring the uninterrupted supply of raw materials on the shop floor level using automated guided vehicles (AGVs), fork-lifts, etc. This is to be seen in contrast to logistics between different sites. Warehousing particularly refers to the storage of materials and goods, which is also getting more and more automated, for example based on conveyors, cranes and automated storage and retrieval systems.', '', '5)\t&lt;b&gt;Monitoring and maintenance&lt;/b&gt;: Monitoring of certain processes and/or assets in the context of industrial production without an immediate impact on the processes themselves (in contrast to a typical closed-loop control system in factory automation, for example). This particularly includes applications such as condition monitoring and predictive maintenance based on sensor data, but also big data analytics for optimising future parameter sets of a certain process, for instance. For these use cases, the data acquisition process is typically not latency-critical.', '', 'For each of these application areas, a multitude of potential use cases exists, some of which are outlined in the following subclauses. These use cases can be mapped to the given application areas (see Table A.2.1-1).', '', 'Table A&lt;b&gt;.&lt;/b&gt;2.1-1: Mapping of the considered use cases (columns) to application areas (rows)', '', '', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Motion control&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Control-to-control&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Mobile control panels with safety&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Mobile robots&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Remote access and maintenance&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Augmented reality&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Closed-loop process control&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Process monitoring&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Plant asset management&lt;/b&gt;&lt;/span&gt;', '', 'Factory automation', '', 'X', '', 'X', '', '', '', 'X', '', '', '', '', '', '', '', '', '', '', '', 'Process automation', '', '', '', '', '', '', '', 'X', '', '', '', '', '', 'X', '', 'X', '', 'X', '', 'HMIs and Production IT', '', '', '', '', '', 'X', '', '', '', '', '', 'X', '', '', '', '', '', '', '', 'Logistics and warehousing', '', '', '', 'X', '', '', '', 'X', '', '', '', '', '', '', '', '', '', 'X', '', 'Monitoring and maintenance', '', '', '', '', '', '', '', '', '', 'X', '', '', '', '', '', '', '', '', '', '', '']</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.4.4.2	Distributed automation without GOOSE&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.2.1	Overview&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -928,17 +1048,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.133356928825378</v>
+        <v>1.217380881309509</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>['', 'The manufacturing industry is currently subject to a fundamental change, which is often referred to as the "Fourth Industrial Revolution" or simply "Industry 4.0" [15]. The main goals of Industry 4.0 are―among others―the improvement of flexibility, versatility, resource efficiency, cost efficiency, worker support, and quality of industrial production and logistics. These improvements are important for addressing the needs of increasingly volatile and globalised markets. A major enabler for all this is cyber-physical production systems based on a ubiquitous and powerful connectivity, communication, and computing infrastructure. The infrastructure interconnects people, machines, products, and all kinds of other devices in a flexible, secure and consistent manner. Several different application areas can be distinguished:', '', '&lt;b&gt;1)&lt;/b&gt;\t&lt;b&gt;Factory automation:&lt;/b&gt; Factory automation deals with the automated control, monitoring and optimisation of processes and workflows within a factory. This includes aspects like closed-loop control applications (e.g., based on programmable logic or motion controllers) and robotics, as well as aspects of computer-integrated manufacturing. Factory automation generally represents a key enabler for industrial mass production with high quality and cost-efficiency. Corresponding applications are often characterised by highest requirements on the underlying communication infrastructure, especially in terms of communication service availability, determinism, and latency. In the Factories of the Future, static sequential production systems will be more and more replaced by novel modular production systems offering a high flexibility and versatility. This involves many increasingly mobile production assets, for which powerful wireless communication and localisation services are required. ', '', '&lt;b&gt;2)&lt;/b&gt;\t&lt;b&gt;Process automation: &lt;/b&gt;Process automation refers to the control of production and handling of substances like chemicals, food &amp;amp; beverage, pulp, etc. Process automation improves the efficiency of production processes, energy consumption, and safety of the facilities. Sensors measuring process values, such as pressures or temperatures, are working in closed loops via centralised and decentralised controllers. In turn, the controllers interact with actuators, e.g., valves, pumps, heaters. Also, monitoring of attributes such as the filling levels of tanks, quality of material, or environmental data are important, as well as safety warnings or plant shut downs. Workers in the plant are supported by mobile devices. A process automation facility may range from a few 100\xa0m² to several km², and the facility may be geographically distributed. Depending on the size, a production plant may have several 10,000 measurement points and actuators. Autarkic device power supply for years is needed in order to stay flexible and to keep the total costs of ownership low. ', '', '&lt;b&gt;3)&lt;/b&gt;\t&lt;b&gt;HMIs and production IT: &lt;/b&gt;Human-machine interfaces (HMIs) include all sorts of devices for the interaction between people and production facilities, such as panels attached to a machine or production line, but also standard IT devices, such as laptops, tablet PCs, smartphones, etc. In addition, augmented- and virtual-reality applications are expected to play an increasingly important role in future. ', '', '4) \t&lt;b&gt;Logistics and warehousing&lt;/b&gt;: Organisation and control of the flow and storage of materials and goods in the context of industrial production. In this respect, intra-logistics is dealing with logistics within a certain property (e.g., within a factory), for example by ensuring the uninterrupted supply of raw materials on the shop floor level using automated guided vehicles (AGVs), fork-lifts, etc. This is to be seen in contrast to logistics between different sites. Warehousing particularly refers to the storage of materials and goods, which is also getting more and more automated, for example based on conveyors, cranes and automated storage and retrieval systems.', '', '5)\t&lt;b&gt;Monitoring and maintenance&lt;/b&gt;: Monitoring of certain processes and/or assets in the context of industrial production without an immediate impact on the processes themselves (in contrast to a typical closed-loop control system in factory automation, for example). This particularly includes applications such as condition monitoring and predictive maintenance based on sensor data, but also big data analytics for optimising future parameter sets of a certain process, for instance. For these use cases, the data acquisition process is typically not latency-critical.', '', 'For each of these application areas, a multitude of potential use cases exists, some of which are outlined in the following subclauses. These use cases can be mapped to the given application areas (see Table A.2.1-1).', '', 'Table A&lt;b&gt;.&lt;/b&gt;2.1-1: Mapping of the considered use cases (columns) to application areas (rows)', '', '', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Motion control&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Control-to-control&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Mobile control panels with safety&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Mobile robots&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Remote access and maintenance&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Augmented reality&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Closed-loop process control&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Process monitoring&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Plant asset management&lt;/b&gt;&lt;/span&gt;', '', 'Factory automation', '', 'X', '', 'X', '', '', '', 'X', '', '', '', '', '', '', '', '', '', '', '', 'Process automation', '', '', '', '', '', '', '', 'X', '', '', '', '', '', 'X', '', 'X', '', 'X', '', 'HMIs and Production IT', '', '', '', '', '', 'X', '', '', '', '', '', 'X', '', '', '', '', '', '', '', 'Logistics and warehousing', '', '', '', 'X', '', '', '', 'X', '', '', '', '', '', '', '', '', '', 'X', '', 'Monitoring and maintenance', '', '', '', '', '', '', '', '', '', 'X', '', '', '', '', '', '', '', '', '', '', '']</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.4.4.3	Intelligent distributed feeder automation&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.4.10	Ensuring uninterrupted communication service availability during emergencies&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -948,17 +1073,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.135296940803528</v>
+        <v>1.089239358901978</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>['', 'During emergencies, public mobile land networks (PLMNs) may restrict network access, which may lead to a prohibitevly low communication service availability for machine-type communication (MTC) for Smart Grid applications. An example is communication for microgrids. Microgrids are separate parts of a power grid that can be controlled and operated individually in a so-called island mode, or together with other parts of the power grid. The idea is to prioritise Smart Grid-related communication in order to ensure reliable and available communication for selected devices during emergency conditions. Existing features of a mobile network can be used to differentiate MTC of devices in a microgrid from other kind of MTC traffic or human-to-human communication. These features can help these microgrid devices to have communication service during emergencies. The communication among the microgrid devices enables co-ordination of DERs, which help the DERs can autarkically implement recovery of an islanded microgrid. ', '', 'The associated KPI is provided in Table A.4.10-1.', '', '&lt;span style="font-size:20pt"&gt;&lt;b&gt;Table A.4.10-1: Key Performance for uninterrupted MTC service availability&lt;/b&gt;&lt;/span&gt;', '', '', '', 'Characteristic parameter (KPI)', '', 'Influence quantity', '', 'Communication service availability: target value', '', 'Communication service reliability: mean time between failures', '', 'Max Allowed End-to-end latency (note\xa01;  ', '(note 2)', '', 'Service bit rate: user-experienced data rate (note 2)', '', 'Message size [byte] ', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', '', '', 'Service Area', '', '99.999\xa09\xa0%', '', '–', '', '100 ms', '', '&amp;lt; 1 kbit/s per DER', '', '–', '', '–', '', 'Stationary', '', '–', '', '–', '', 'NOTE 1:\tUnless otherwise specified, all communication includes 1 wireless link (UE to network node or network node to UE) rather than two wireless links (UE to UE).', '', 'NOTE 2:\tIt applies to both UL and DL unless stated otherwise.', '']</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.4.4.4	High-speed current differential protection&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.4.10	Ensuring uninterrupted communication service availability during emergencies&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -972,13 +1102,18 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.094331741333008</v>
+        <v>1.130048394203186</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>['', 'During emergencies, public mobile land networks (PLMNs) may restrict network access, which may lead to a prohibitevly low communication service availability for machine-type communication (MTC) for Smart Grid applications. An example is communication for microgrids. Microgrids are separate parts of a power grid that can be controlled and operated individually in a so-called island mode, or together with other parts of the power grid. The idea is to prioritise Smart Grid-related communication in order to ensure reliable and available communication for selected devices during emergency conditions. Existing features of a mobile network can be used to differentiate MTC of devices in a microgrid from other kind of MTC traffic or human-to-human communication. These features can help these microgrid devices to have communication service during emergencies. The communication among the microgrid devices enables co-ordination of DERs, which help the DERs can autarkically implement recovery of an islanded microgrid. ', '', 'The associated KPI is provided in Table A.4.10-1.', '', '&lt;span style="font-size:20pt"&gt;&lt;b&gt;Table A.4.10-1: Key Performance for uninterrupted MTC service availability&lt;/b&gt;&lt;/span&gt;', '', '', '', 'Characteristic parameter (KPI)', '', 'Influence quantity', '', 'Communication service availability: target value', '', 'Communication service reliability: mean time between failures', '', 'Max Allowed End-to-end latency (note\xa01;  ', '(note 2)', '', 'Service bit rate: user-experienced data rate (note 2)', '', 'Message size [byte] ', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', '', '', 'Service Area', '', '99.999\xa09\xa0%', '', '–', '', '100 ms', '', '&amp;lt; 1 kbit/s per DER', '', '–', '', '–', '', 'Stationary', '', '–', '', '–', '', 'NOTE 1:\tUnless otherwise specified, all communication includes 1 wireless link (UE to network node or network node to UE) rather than two wireless links (UE to UE).', '', 'NOTE 2:\tIt applies to both UL and DL unless stated otherwise.', '']</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.4.5	Smart grid millisecond-level precise load control&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;A.4.2	Primary frequency control&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -988,17 +1123,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.120877265930176</v>
+        <v>1.067105174064636</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>['', 'Primary frequency control is among the most challenging and demanding control applications in the utility sector. A primary frequency control system is responsible for controlling the energy supply injected and withheld to ensure that the frequency is not deviating more than 0.02\xa0% from the nominal value (e.g., 50 Hz in Europe). Frequency control is based on having sensors for measuring the features in all parts of the network at all points where energy generation or storage units are connected to the grid. At these points, electronic power converters, also known as inverters, are equipped with communication units to send measurement values to other points in the grid such as a frequency control unit, or receive control commands to inject more, or less, energy into the local network. ', '', 'With the widespread deployment of local generation units, i.e. solar power units, or wind turbines, hundreds of thousands of such units, and their inverters, may have to be connected in a larger power distribution network. ', '', 'Primary frequency control is carried out in one of three ways: ', '', '1)\tCentralised control, all data analysis and corrective actions are determined by a central frequency control unit.', '', '2)\tDecentralised control, the automatic routine frequency control is performed by the individual local inverter based on local frequency values. Statistics and other information is communicated to the central frequency control unit. ', '', '3)\tDistributed control, the automatic routine frequency control is performed by the individual local inverter based on local and neighbouring frequency values. Statistics and other information are communicated to the central frequency control unit. ', '', 'Table A&lt;b&gt;.&lt;/b&gt;4.2-1: Service performance requirements for primary frequency control', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', '# of UEs', '', 'Service area', '', '1', '', '99.999', '', 'TBD', '', '~ 50 ms ', '', '~ 100', '', '~ 50 ms', '', 'TBD', '', '≤\xa0100,000', '', 'several km&lt;sup&gt;2&lt;/sup&gt; up to 100,000\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic communication service supporting message exchange for primary frequency control.', '']</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.4.6	Distributed energy storage&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;A.4.2	Primary frequency control&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1012,13 +1152,18 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.127777218818665</v>
+        <v>1.113672256469727</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>['', 'Primary frequency control is among the most challenging and demanding control applications in the utility sector. A primary frequency control system is responsible for controlling the energy supply injected and withheld to ensure that the frequency is not deviating more than 0.02\xa0% from the nominal value (e.g., 50 Hz in Europe). Frequency control is based on having sensors for measuring the features in all parts of the network at all points where energy generation or storage units are connected to the grid. At these points, electronic power converters, also known as inverters, are equipped with communication units to send measurement values to other points in the grid such as a frequency control unit, or receive control commands to inject more, or less, energy into the local network. ', '', 'With the widespread deployment of local generation units, i.e. solar power units, or wind turbines, hundreds of thousands of such units, and their inverters, may have to be connected in a larger power distribution network. ', '', 'Primary frequency control is carried out in one of three ways: ', '', '1)\tCentralised control, all data analysis and corrective actions are determined by a central frequency control unit.', '', '2)\tDecentralised control, the automatic routine frequency control is performed by the individual local inverter based on local frequency values. Statistics and other information is communicated to the central frequency control unit. ', '', '3)\tDistributed control, the automatic routine frequency control is performed by the individual local inverter based on local and neighbouring frequency values. Statistics and other information are communicated to the central frequency control unit. ', '', 'Table A&lt;b&gt;.&lt;/b&gt;4.2-1: Service performance requirements for primary frequency control', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', '# of UEs', '', 'Service area', '', '1', '', '99.999', '', 'TBD', '', '~ 50 ms ', '', '~ 100', '', '~ 50 ms', '', 'TBD', '', '≤\xa0100,000', '', 'several km&lt;sup&gt;2&lt;/sup&gt; up to 100,000\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic communication service supporting message exchange for primary frequency control.', '']</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.4.7	Advanced metering&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;A.4.3	Distributed voltage control&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1028,17 +1173,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.130799531936646</v>
+        <v>1.079986572265625</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>['', 'In the evolution towards 100\xa0% renewable electric power production, the objective of voltage control is to balance the voltage in future low voltage distribution grids connecting local loads and prosumers, as well as energy storage facilities. The aim is to stabilise the voltage as locally as possible, so that decisions and control commands can be issued as quickly as possible. Distributed voltage control is a challenging and demanding control application. Consumer devices rely on having stable voltage levels to operate successfully. When future energy networks rely on thousands of local energy generation units relying mostly on solar and wind power, then it is crucial to stabilise the voltage levels in all segments of the distribution grid. Inverters, or electronic power converters, measure the voltage and power and change the amount of power injected into the grid, and they connect and disconnect end points from the distribution network.', '', 'Distributed control means that the automated voltage control shall be performed by the local voltage control units based on local &lt;i&gt;and neighbouring&lt;/i&gt; voltage and impedance values. Statistics and other information shall be communicated to the central distribution management system, though. ', '', 'Table A&lt;b&gt;.&lt;/b&gt;4.3-1: Service performance requirements for distributed voltage control', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', '# of UEs', '', 'Service area', '', '1', '', '99.999', '', 'TBD', '', '~ 100 ms', '', '~ 100', '', '~\xa0200\xa0ms', '', 'TBD', '', '≤\xa0100,000', '', 'several km&lt;sup&gt;2&lt;/sup&gt; up to 100,000\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic communication service supporting message exchange for distributed voltage control.', '']</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.4.8	Smart distribution transformer terminal&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;A.4.3	Distributed voltage control&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1052,13 +1202,18 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.126832842826843</v>
+        <v>1.125114321708679</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>['', 'In the evolution towards 100\xa0% renewable electric power production, the objective of voltage control is to balance the voltage in future low voltage distribution grids connecting local loads and prosumers, as well as energy storage facilities. The aim is to stabilise the voltage as locally as possible, so that decisions and control commands can be issued as quickly as possible. Distributed voltage control is a challenging and demanding control application. Consumer devices rely on having stable voltage levels to operate successfully. When future energy networks rely on thousands of local energy generation units relying mostly on solar and wind power, then it is crucial to stabilise the voltage levels in all segments of the distribution grid. Inverters, or electronic power converters, measure the voltage and power and change the amount of power injected into the grid, and they connect and disconnect end points from the distribution network.', '', 'Distributed control means that the automated voltage control shall be performed by the local voltage control units based on local &lt;i&gt;and neighbouring&lt;/i&gt; voltage and impedance values. Statistics and other information shall be communicated to the central distribution management system, though. ', '', 'Table A&lt;b&gt;.&lt;/b&gt;4.3-1: Service performance requirements for distributed voltage control', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', '# of UEs', '', 'Service area', '', '1', '', '99.999', '', 'TBD', '', '~ 100 ms', '', '~ 100', '', '~\xa0200\xa0ms', '', 'TBD', '', '≤\xa0100,000', '', 'several km&lt;sup&gt;2&lt;/sup&gt; up to 100,000\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic communication service supporting message exchange for distributed voltage control.', '']</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.4.9	Distributed energy resources and micro-grids&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;A.4.5	Smart grid millisecond-level precise load control&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1068,17 +1223,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.140244007110596</v>
+        <v>1.081424474716187</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>['', 'Precise Load Control is the basic application for smart grid. When serious HVDC (high-voltage direct current) transmission fault happens, Millisecond-Level Precise Load Control is used to quickly remove interruptible less-important load, such as electric vehicle charging piles and non-continuous production power supplies in factories.', '', 'Table A&lt;b&gt;.&lt;/b&gt;4.5-1: Service performance requirements for smart grid millisecond-level precise load control ', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area', '', '1', '', '99.999\xa09', '', '– ', '', '&amp;lt; 50 ms', '', '0.59 kbit/s', '28 kbit/s', '', '&amp;lt; 100', '', 'n/a ', '(note)', '', '–', '', 'stationary', '', '&lt;span style="color:000000"&gt;10\xa0km&lt;/span&gt;&lt;span style="color:000000"&gt;&lt;sup&gt;-&lt;/sup&gt;&lt;/span&gt;&lt;span style="color:000000"&gt;² to 100\xa0km&lt;/span&gt;&lt;span style="color:000000"&gt;&lt;sup&gt;-&lt;/sup&gt;&lt;/span&gt;&lt;span style="color:000000"&gt;²&lt;/span&gt;', '', 'TBD', '', 'NOTE:\tevent-triggered', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'A non-periodic deterministic communication service between control primary station and load control terminals for removing interruptible less-important load quickly.', '']</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.4.10	Ensuring uninterrupted communication service availability during emergencies&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;A.4.5	Smart grid millisecond-level precise load control&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1092,13 +1252,18 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.130048394203186</v>
+        <v>1.120877265930176</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>['', 'Precise Load Control is the basic application for smart grid. When serious HVDC (high-voltage direct current) transmission fault happens, Millisecond-Level Precise Load Control is used to quickly remove interruptible less-important load, such as electric vehicle charging piles and non-continuous production power supplies in factories.', '', 'Table A&lt;b&gt;.&lt;/b&gt;4.5-1: Service performance requirements for smart grid millisecond-level precise load control ', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area', '', '1', '', '99.999\xa09', '', '– ', '', '&amp;lt; 50 ms', '', '0.59 kbit/s', '28 kbit/s', '', '&amp;lt; 100', '', 'n/a ', '(note)', '', '–', '', 'stationary', '', '&lt;span style="color:000000"&gt;10\xa0km&lt;/span&gt;&lt;span style="color:000000"&gt;&lt;sup&gt;-&lt;/sup&gt;&lt;/span&gt;&lt;span style="color:000000"&gt;² to 100\xa0km&lt;/span&gt;&lt;span style="color:000000"&gt;&lt;sup&gt;-&lt;/sup&gt;&lt;/span&gt;&lt;span style="color:000000"&gt;²&lt;/span&gt;', '', 'TBD', '', 'NOTE:\tevent-triggered', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'A non-periodic deterministic communication service between control primary station and load control terminals for removing interruptible less-important load quickly.', '']</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.5.2	Wind power plant network&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;A.4.6	Distributed energy storage&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1112,13 +1277,18 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.117619752883911</v>
+        <v>1.127777218818665</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>['', 'Distributed power generation includes various power sources such as solar, wind, fuel cells, and gas. Distributed power generation typically comes with a low power density and entails thus typicall a decentralised deployment. Decentralisation causes technical problems and challenges Smart Grid operators. When distributed power generation is connected to the elctrical grid, the energy flow becomes more complicated as the user often is both an electricity consumer and producer (a so-called “prosumer”). Therefore, the current in the electricity grid can change direction at different locations of the grid and at different times of the day. ', '', 'The information exchange in a distributed energy grid does not only include power-generation-related data, but also control commands for the distributed energy storage equipment. An example for such a command is “change the load characteristics to realise a flexible electricity grid” etc.', '', '----media/image10.jpeg----', '', 'Figure A.4.6-1 Example of a distributed-energy storage grid', '', 'Figure A.4.6-1 shows an example of distributed-energy storage grid. The distributed-energy storage grid needs to exchange information among the distributed-energy storage management platform (DESMP) and distributed-energy devices (DEDs). ', '', 'The DED is a plug-and-play device and periodically collects its energy information, such as battery energy, charge and discharge status, energy alarm information, etc. The DED then transfers this information via 5G UE to the DESMP. The DESMP regularly manages the DEDs, e.g., the DESMP monitors the DEDs working status, controls the DEDs working modes, or configures the DEDs energy parameters etc. The associated KPIs are provided in Table A.4.6-1. ', '', '', '', 'Table A.4.6-1: Communication service performance requirements ‒ data for distributed energy storage', '', 'Use case#', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value ', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum ', '', 'Service bit rate: user experienced data rate&lt;b&gt; &lt;/b&gt;', '', 'Message size [byte]&lt;b&gt; &lt;/b&gt;', '', 'Transfer interval: target value&lt;b&gt; &lt;/b&gt;', '', 'Survival time&lt;b&gt; &lt;/b&gt;', '', 'UE ', 'speed&lt;b&gt; &lt;/b&gt;', '', '# of UEs', '', 'Service area ', '', '', '1', '', ' &amp;gt; 99.9 %', '', '', '', 'DL: &amp;lt; 10\xa0ms', 'UL: &amp;lt; 10\xa0ms', '', 'UL: &amp;gt; 16\xa0Mbit/s (urban); 640\xa0Mbit/s (rural)', '', 'DL: &amp;gt; 100\xa0kbit/s', '', '(note 1)', '', 'UL: 800\xa0kbyte', '', 'UL: 10\xa0ms', '', '–', '', 'stationary', '', '&amp;gt; 10/km&lt;sup&gt;2&lt;/sup&gt; (urban); ', '', '&amp;gt; 100/km&lt;sup&gt;2&lt;/sup&gt; (rural)', '', '(note 2)', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '2', '', '&amp;gt; 99.9 %', '', '', '', 'DL: &amp;lt; 10\xa0ms', '', 'UL: &amp;lt; 1\xa0s', '', 'UL: &amp;gt; 128\xa0kbit/s (urban); 10.4\xa0Mbit/s (rural);', '', 'DL: &amp;gt; 100\xa0kbit/s', '', '(note 1)', '', 'UL: 1.3\xa0Mbyte', '', 'DL: &amp;gt; 100\xa0kbyte', '', 'UL: 1000\xa0ms', '', '–', '', 'stationary', '', '&amp;gt; 10/km&lt;sup&gt;2&lt;/sup&gt; (urban); ', '', '&amp;gt; 100/km&lt;sup&gt;2&lt;/sup&gt; (rural)', '', ' (note 2)', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '3', '', ' &amp;gt; 99.9 %', '', '', '', '&lt;span style="font-size:18pt"&gt;DL: &amp;lt; 10\xa0ms&lt;/span&gt;', '', 'UL:&amp;lt; 1\xa0s (rural)', '', 'DL: &amp;gt; 100\xa0kbit/s', '', 'UL: &amp;gt; 5\xa0Gbit/s', '(note 3)', '', '', '', '', '', '', '', 'stationary', '', '&amp;gt; 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', 'NOTE 1:\tService bit rate for one energy storage station.', '', 'NOTE 2:\tActivity storage nodes/km&lt;sup&gt;2&lt;/sup&gt;. This value is used for deducing the data volume in an area that features multiple energy storage stations. The data volume can be calculated with the following formula (current service bit rate per storage station) x (activity storage nodes/km&lt;sup&gt;2&lt;/sup&gt;) + (video service bit rate per storage station) x (activity storage nodes/km&lt;sup&gt;2&lt;/sup&gt;). ', '', 'NOTE 3:\tThe downlink user experienced data rate is calculated as follows: 12.5 Mbytes/s x 50(containers) x 8 = 5\xa0Gbit/s', '', '&lt;span style="font-size:20pt"&gt;&lt;i&gt;Use case#1:&lt;/i&gt;&lt;/span&gt; Distributed energy storage ‒ periodic communication for monitoring ', '', '&lt;span style="font-size:20pt"&gt;&lt;i&gt;Use case#2:&lt;/i&gt;&lt;/span&gt; Distributed energy storage ‒ periodic communication for data collection ', '', '&lt;b&gt;&lt;i&gt;Use case#3:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; Distributed energy storage ‒ aperiodic video communication&lt;/b&gt;&lt;/span&gt;', '']</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.6.1	Overview&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;A.4.6	Distributed energy storage&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1128,17 +1298,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.147675514221191</v>
+        <v>1.08225417137146</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>['', 'Distributed power generation includes various power sources such as solar, wind, fuel cells, and gas. Distributed power generation typically comes with a low power density and entails thus typicall a decentralised deployment. Decentralisation causes technical problems and challenges Smart Grid operators. When distributed power generation is connected to the elctrical grid, the energy flow becomes more complicated as the user often is both an electricity consumer and producer (a so-called “prosumer”). Therefore, the current in the electricity grid can change direction at different locations of the grid and at different times of the day. ', '', 'The information exchange in a distributed energy grid does not only include power-generation-related data, but also control commands for the distributed energy storage equipment. An example for such a command is “change the load characteristics to realise a flexible electricity grid” etc.', '', '----media/image10.jpeg----', '', 'Figure A.4.6-1 Example of a distributed-energy storage grid', '', 'Figure A.4.6-1 shows an example of distributed-energy storage grid. The distributed-energy storage grid needs to exchange information among the distributed-energy storage management platform (DESMP) and distributed-energy devices (DEDs). ', '', 'The DED is a plug-and-play device and periodically collects its energy information, such as battery energy, charge and discharge status, energy alarm information, etc. The DED then transfers this information via 5G UE to the DESMP. The DESMP regularly manages the DEDs, e.g., the DESMP monitors the DEDs working status, controls the DEDs working modes, or configures the DEDs energy parameters etc. The associated KPIs are provided in Table A.4.6-1. ', '', '', '', 'Table A.4.6-1: Communication service performance requirements ‒ data for distributed energy storage', '', 'Use case#', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value ', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum ', '', 'Service bit rate: user experienced data rate&lt;b&gt; &lt;/b&gt;', '', 'Message size [byte]&lt;b&gt; &lt;/b&gt;', '', 'Transfer interval: target value&lt;b&gt; &lt;/b&gt;', '', 'Survival time&lt;b&gt; &lt;/b&gt;', '', 'UE ', 'speed&lt;b&gt; &lt;/b&gt;', '', '# of UEs', '', 'Service area ', '', '', '1', '', ' &amp;gt; 99.9 %', '', '', '', 'DL: &amp;lt; 10\xa0ms', 'UL: &amp;lt; 10\xa0ms', '', 'UL: &amp;gt; 16\xa0Mbit/s (urban); 640\xa0Mbit/s (rural)', '', 'DL: &amp;gt; 100\xa0kbit/s', '', '(note 1)', '', 'UL: 800\xa0kbyte', '', 'UL: 10\xa0ms', '', '–', '', 'stationary', '', '&amp;gt; 10/km&lt;sup&gt;2&lt;/sup&gt; (urban); ', '', '&amp;gt; 100/km&lt;sup&gt;2&lt;/sup&gt; (rural)', '', '(note 2)', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '2', '', '&amp;gt; 99.9 %', '', '', '', 'DL: &amp;lt; 10\xa0ms', '', 'UL: &amp;lt; 1\xa0s', '', 'UL: &amp;gt; 128\xa0kbit/s (urban); 10.4\xa0Mbit/s (rural);', '', 'DL: &amp;gt; 100\xa0kbit/s', '', '(note 1)', '', 'UL: 1.3\xa0Mbyte', '', 'DL: &amp;gt; 100\xa0kbyte', '', 'UL: 1000\xa0ms', '', '–', '', 'stationary', '', '&amp;gt; 10/km&lt;sup&gt;2&lt;/sup&gt; (urban); ', '', '&amp;gt; 100/km&lt;sup&gt;2&lt;/sup&gt; (rural)', '', ' (note 2)', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '3', '', ' &amp;gt; 99.9 %', '', '', '', '&lt;span style="font-size:18pt"&gt;DL: &amp;lt; 10\xa0ms&lt;/span&gt;', '', 'UL:&amp;lt; 1\xa0s (rural)', '', 'DL: &amp;gt; 100\xa0kbit/s', '', 'UL: &amp;gt; 5\xa0Gbit/s', '(note 3)', '', '', '', '', '', '', '', 'stationary', '', '&amp;gt; 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', 'NOTE 1:\tService bit rate for one energy storage station.', '', 'NOTE 2:\tActivity storage nodes/km&lt;sup&gt;2&lt;/sup&gt;. This value is used for deducing the data volume in an area that features multiple energy storage stations. The data volume can be calculated with the following formula (current service bit rate per storage station) x (activity storage nodes/km&lt;sup&gt;2&lt;/sup&gt;) + (video service bit rate per storage station) x (activity storage nodes/km&lt;sup&gt;2&lt;/sup&gt;). ', '', 'NOTE 3:\tThe downlink user experienced data rate is calculated as follows: 12.5 Mbytes/s x 50(containers) x 8 = 5\xa0Gbit/s', '', '&lt;span style="font-size:20pt"&gt;&lt;i&gt;Use case#1:&lt;/i&gt;&lt;/span&gt; Distributed energy storage ‒ periodic communication for monitoring ', '', '&lt;span style="font-size:20pt"&gt;&lt;i&gt;Use case#2:&lt;/i&gt;&lt;/span&gt; Distributed energy storage ‒ periodic communication for data collection ', '', '&lt;b&gt;&lt;i&gt;Use case#3:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; Distributed energy storage ‒ aperiodic video communication&lt;/b&gt;&lt;/span&gt;', '']</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.6.2	Robotic Aided Surgery&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;A.4.7	Advanced metering&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1152,13 +1327,18 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.120053768157959</v>
+        <v>1.130799531936646</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>['', 'Instead of recording and sending metering data from a wired electricity meter unit, electricity metering collecting can be executed by a UE-integrated smart meter unit. Smart meter units can send real-time metering data to a server in the utility through mobile networks. In this way, the power enterprise―based on the analysis of the user’s power consumption behavior―gives the user power consumption suggestions, which fosters the user’s power consumption and energy saving habits. ', '', 'The electric smart meters monitor relevant user energy status and deliver the status data to a measurement data management system (MDMS). The MDMS sends control commands according to its policy and the status of the data collected from the smart meters. The MDMS commands include tripping, closing permission, alarm, alarm release, power protection, and power protection release. Accurate-fee control is one of the basic services of advanced metering. When the electric power user doesn’t pay her electric fee on time, the MDMS can cut off the power supply. And when there is a need for temporary power supply for this user, the MDMS can recover the power supply. This operation requires real-time interaction between the electric smart meter and the MDMS. Due to massive number of electricity meters, it is estimated that in the near future, the amount of this kind of interaction will increase 5 to 10 times. The associated KPIs are provided in Table A.4.7-1.', '', 'Table A.4.7-1: Communication KPI for advanced metering', '', 'Use case#', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value ', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum ', '', 'Service bit rate: user experienced data rate&lt;b&gt; &lt;/b&gt;', '', 'Message size [byte]&lt;b&gt; &lt;/b&gt;', '', 'Transfer interval: target value&lt;b&gt; &lt;/b&gt;', '', 'Survival time&lt;b&gt; &lt;/b&gt;', '', 'UE ', 'speed&lt;b&gt; &lt;/b&gt;', '', '# of UEs', '', 'Service area ', '', '', '&lt;span style="font-size:18pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;gt; 99.99&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;Accuracy fee control: &amp;lt; 100 (note 1);&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;General information data collection: &amp;lt; 3000&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;UL: &amp;lt; 2 M&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;DL: &amp;lt; 1 M&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;stationary&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; 10\xa0000/km2 (note2)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;–&lt;/span&gt;', '', 'NOTE 1: \tOne-way delay from 5G IoT device to backend system. The distance between the two is below 40\xa0km (city range).', '', 'NOTE 2: \tIt is the typical connection density in today city environment. With the evolution from centralised meters to socket meters in the home, the connection density is expected to increase 5 to 10 times.', '', '&lt;b&gt;&lt;i&gt;Use case#1:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; Advanced metering&lt;/b&gt;&lt;/span&gt;', '', '', '']</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.6.3	Robotic Aided Diagnosis&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;A.4.7	Advanced metering&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1168,17 +1348,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.125766634941101</v>
+        <v>1.091674208641052</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>['', 'Instead of recording and sending metering data from a wired electricity meter unit, electricity metering collecting can be executed by a UE-integrated smart meter unit. Smart meter units can send real-time metering data to a server in the utility through mobile networks. In this way, the power enterprise―based on the analysis of the user’s power consumption behavior―gives the user power consumption suggestions, which fosters the user’s power consumption and energy saving habits. ', '', 'The electric smart meters monitor relevant user energy status and deliver the status data to a measurement data management system (MDMS). The MDMS sends control commands according to its policy and the status of the data collected from the smart meters. The MDMS commands include tripping, closing permission, alarm, alarm release, power protection, and power protection release. Accurate-fee control is one of the basic services of advanced metering. When the electric power user doesn’t pay her electric fee on time, the MDMS can cut off the power supply. And when there is a need for temporary power supply for this user, the MDMS can recover the power supply. This operation requires real-time interaction between the electric smart meter and the MDMS. Due to massive number of electricity meters, it is estimated that in the near future, the amount of this kind of interaction will increase 5 to 10 times. The associated KPIs are provided in Table A.4.7-1.', '', 'Table A.4.7-1: Communication KPI for advanced metering', '', 'Use case#', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value ', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum ', '', 'Service bit rate: user experienced data rate&lt;b&gt; &lt;/b&gt;', '', 'Message size [byte]&lt;b&gt; &lt;/b&gt;', '', 'Transfer interval: target value&lt;b&gt; &lt;/b&gt;', '', 'Survival time&lt;b&gt; &lt;/b&gt;', '', 'UE ', 'speed&lt;b&gt; &lt;/b&gt;', '', '# of UEs', '', 'Service area ', '', '', '&lt;span style="font-size:18pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;gt; 99.99&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;Accuracy fee control: &amp;lt; 100 (note 1);&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;General information data collection: &amp;lt; 3000&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;UL: &amp;lt; 2 M&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;DL: &amp;lt; 1 M&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;stationary&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; 10\xa0000/km2 (note2)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;–&lt;/span&gt;', '', 'NOTE 1: \tOne-way delay from 5G IoT device to backend system. The distance between the two is below 40\xa0km (city range).', '', 'NOTE 2: \tIt is the typical connection density in today city environment. With the evolution from centralised meters to socket meters in the home, the connection density is expected to increase 5 to 10 times.', '', '&lt;b&gt;&lt;i&gt;Use case#1:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; Advanced metering&lt;/b&gt;&lt;/span&gt;', '', '', '']</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>&lt;h1&gt;B.6	Unacceptable deviation from target end-to-end latency&lt;/h1&gt;</t>
+          <t>&lt;h2&gt;A.4.8	Smart distribution transformer terminal&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1188,17 +1373,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.096020221710205</v>
+        <v>1.082614898681641</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>['', 'A smart distribution transformer terminal is usually deployed in a distribution transformer area. The terminal can support multiple energy applications simultaneously. Multiple kinds of energy data are collected by the terminal and then delivered to a energy application platform. Figure A.4.8.1-1 illustrates a workflow example for a smart distribution transformer terminal.', '', '----media/image11.png----', '', 'Figure A.4.8-1: Example of a smart distribution transformer terminal workflow', '', 'In general, the connections between the smart distribution transformer terminal and the energy application platform are provided by the 5G system. The connections between energy end equipment and smart distribution transformer terminal may be provided by 5G system. In this case, about 300 to 500 energy end devices are connected to one smart distribution transformer terminal. The average service bit rate between the smart distribution transformer terminal and an energy end device is more than 2\xa0Mbit/s in uplink for each application. The related communication distance is between 100 m and 500 m. The associated KPI is provided in Table A.4.8-1.', '', '', '', '&lt;span style="font-size:20pt"&gt;&lt;b&gt;Table A.4.8-1: Key Performance for Smart Distribution Transformer Terminal&lt;/b&gt;&lt;/span&gt;', '', 'Use case#', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value ', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum ', '', 'Service bit rate: user experienced data rate&lt;b&gt; &lt;/b&gt;', '', 'Message size [byte]&lt;b&gt; &lt;/b&gt;', '', 'Transfer interval: target value&lt;b&gt; &lt;/b&gt;', '', 'Survival time&lt;b&gt; &lt;/b&gt;', '', 'UE ', 'speed&lt;b&gt; &lt;/b&gt;', '', '# of UEs', '', 'Service area ', '', '', '&lt;span style="font-size:18pt"&gt;1&lt;/span&gt;', '', '&lt;b&gt;&amp;gt;99.99%&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;10\xa0ms, 100\xa0ms, 3\xa0s (note 2)&lt;/b&gt;', '', '&lt;b&gt;&amp;gt; 2\xa0Mbit/s (note 1)&lt;/b&gt;', '', '–', '', '–', '', '–', '', '–', '', '&lt;b&gt;500 in the service area (note\xa03)&lt;/b&gt;', '', '&lt;b&gt;Communication distance is from 100 m to 500\xa0m, (outdoor, indoor, and deep indoor)&lt;/b&gt;', '', 'NOTE 1: \tIt is the smart metering application data rate between the Smart Distribution Transformer Terminal and energy end equipment. Once there are multiple smart grid applications, it is required more data rate.', '', 'NOTE 2: \tIt depends on different applications supported by the Smart Distribution Transformer Terminal. The less the latency is, the more applications can be supported.', '', 'NOTE 3: \tThe distribution area can be calculated as 3.14 x range&lt;sup&gt;2&lt;/sup&gt; and in general is between 0.031 km&lt;sup&gt;2&lt;/sup&gt; and 0.79 km&lt;sup&gt;2&lt;/sup&gt;.', '', '&lt;b&gt;&lt;i&gt;Use case#1:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; smart distribution transformer terminal&lt;/b&gt;&lt;/span&gt;', '', '', '']</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;C.1.1	Area of consideration&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;A.4.8	Smart distribution transformer terminal&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1212,13 +1402,18 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.113209366798401</v>
+        <v>1.126832842826843</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>['', 'A smart distribution transformer terminal is usually deployed in a distribution transformer area. The terminal can support multiple energy applications simultaneously. Multiple kinds of energy data are collected by the terminal and then delivered to a energy application platform. Figure A.4.8.1-1 illustrates a workflow example for a smart distribution transformer terminal.', '', '----media/image11.png----', '', 'Figure A.4.8-1: Example of a smart distribution transformer terminal workflow', '', 'In general, the connections between the smart distribution transformer terminal and the energy application platform are provided by the 5G system. The connections between energy end equipment and smart distribution transformer terminal may be provided by 5G system. In this case, about 300 to 500 energy end devices are connected to one smart distribution transformer terminal. The average service bit rate between the smart distribution transformer terminal and an energy end device is more than 2\xa0Mbit/s in uplink for each application. The related communication distance is between 100 m and 500 m. The associated KPI is provided in Table A.4.8-1.', '', '', '', '&lt;span style="font-size:20pt"&gt;&lt;b&gt;Table A.4.8-1: Key Performance for Smart Distribution Transformer Terminal&lt;/b&gt;&lt;/span&gt;', '', 'Use case#', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value ', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum ', '', 'Service bit rate: user experienced data rate&lt;b&gt; &lt;/b&gt;', '', 'Message size [byte]&lt;b&gt; &lt;/b&gt;', '', 'Transfer interval: target value&lt;b&gt; &lt;/b&gt;', '', 'Survival time&lt;b&gt; &lt;/b&gt;', '', 'UE ', 'speed&lt;b&gt; &lt;/b&gt;', '', '# of UEs', '', 'Service area ', '', '', '&lt;span style="font-size:18pt"&gt;1&lt;/span&gt;', '', '&lt;b&gt;&amp;gt;99.99%&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;10\xa0ms, 100\xa0ms, 3\xa0s (note 2)&lt;/b&gt;', '', '&lt;b&gt;&amp;gt; 2\xa0Mbit/s (note 1)&lt;/b&gt;', '', '–', '', '–', '', '–', '', '–', '', '&lt;b&gt;500 in the service area (note\xa03)&lt;/b&gt;', '', '&lt;b&gt;Communication distance is from 100 m to 500\xa0m, (outdoor, indoor, and deep indoor)&lt;/b&gt;', '', 'NOTE 1: \tIt is the smart metering application data rate between the Smart Distribution Transformer Terminal and energy end equipment. Once there are multiple smart grid applications, it is required more data rate.', '', 'NOTE 2: \tIt depends on different applications supported by the Smart Distribution Transformer Terminal. The less the latency is, the more applications can be supported.', '', 'NOTE 3: \tThe distribution area can be calculated as 3.14 x range&lt;sup&gt;2&lt;/sup&gt; and in general is between 0.031 km&lt;sup&gt;2&lt;/sup&gt; and 0.79 km&lt;sup&gt;2&lt;/sup&gt;.', '', '&lt;b&gt;&lt;i&gt;Use case#1:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; smart distribution transformer terminal&lt;/b&gt;&lt;/span&gt;', '', '', '']</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;C.2.2	Characteristic parameters&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;A.4.9	Distributed energy resources and micro-grids&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1228,17 +1423,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.112982034683228</v>
+        <v>1.095664143562317</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>['', 'Distributed energy resources (DER) become increasingly important. The potentially large number of DERs will have an impact on security, stability, and operation efficiency of the energy grid. ', '', 'The integration of DERs into the energy grid poses many challenges for the involved communication system. To incorporate more renewable and alternative energy sources, the communication infrastructure must have the ability to easily handle an increasing amount of data traffic or service requests and must provide a real-time monitoring and control operation for these distributed energy resources. A reliable communication between the DERs is crucial. ', '', 'When it comes to communications architecture, IEC 61850 is a widely used standard for automation and equipment of power utilities and DER, specifically for defining protocols for IEDs (Intelligent electronic devices) at electrical substations The IEC 61850 standard specifies the timing constraints for messages typically used in substations. GOOSE (Generic Object Oriented Substation Events) and SV (Sampled Values) messages are assumed as time critical messages. They have the tightest deadlines (maximum allowed transfer time) among all IEC 61850 messages, corresponding to 3 ms. While GOOSE is typically used for transfering information related to monitoring and control functions (circuit breaker status etc.), SV is used for transfering measurement samples of current and voltage signals. The SV protocol works on a periodic information transmission model, sending messages at a fixed rate. For protection purposes, the default rate is 4000 or 4800 messages per second for 50 and 60 Hz power systems, respectively. On the other hand, the GOOSE protocol operates in a sporadic information transmission model, where a continuous flow of data is maintained to increase communication reliability. The typical sizes of GOOSE and SV messages are160 and 140 bytes, respectively. GOOSE messages are transmitted in two different modes: (1) safe operation: 1 message per second (service bit rate = 1.28 kbit/s); (2) emergency operation: 32 messages per second (service bit rate = 41.0 kbit/s). SV messages are transmitted at much higher rate, namely 4800 messages per second (service bit rate = 5.4 Mbit/s). The associated KPIs are provided in Table A.4.9-1.', '', '&lt;span style="font-size:20pt"&gt;&lt;b&gt;Table A.4.9-1: Key Performance for Distributed energy resources (DER): using SV (Sampled Values) message&lt;/b&gt;&lt;/span&gt;', '', '', '', 'Use case#', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bit rate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE ', 'speed', '', '&lt;b&gt;1&lt;/b&gt;', '', '&lt;b&gt;99,9999\xa0%&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;&amp;lt; 3 ms&lt;/b&gt;', '', '&lt;b&gt;4.5 Mbit/s&lt;/b&gt;', '', '&lt;b&gt;140&lt;/b&gt;', '', '&lt;b&gt;≤ 1 ms&lt;/b&gt;', '', '&lt;b&gt;transfer interval&lt;/b&gt;', '', '&lt;b&gt;stationary&lt;/b&gt;', '', '&lt;b&gt;2&lt;/b&gt;', '', '&lt;b&gt;99,9999\xa0%&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;&amp;lt; 3 ms&lt;/b&gt;', '', '&lt;b&gt;5.4 Mbit/s&lt;/b&gt;', '', '&lt;b&gt;140&lt;/b&gt;', '', '&lt;b&gt;≤ 1 ms&lt;/b&gt;', '', '&lt;b&gt;transfer interval&lt;/b&gt;', '', '&lt;b&gt;stationary&lt;/b&gt;', '', '&lt;b&gt;3&lt;/b&gt;', '', '&lt;b&gt;&amp;gt; 99.9999\xa0%&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;&amp;lt; 3 ms&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;160&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;stationary&lt;/b&gt;', '', 'NOTE:\tUE to UE communication is assumed.', '', '', '', '&lt;b&gt;&lt;i&gt;Use case#1:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; &lt;/b&gt;&lt;/span&gt;&lt;b&gt;Distributed energy resources and micro-grids: using SV(sample value) message with 50Hz&lt;/b&gt;', '', '&lt;b&gt;&lt;i&gt;Use case#2:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; &lt;/b&gt;&lt;/span&gt;&lt;b&gt;Distributed energy resources and micro-grids: using SV(sample value) message with 60Hz&lt;/b&gt;', '', '&lt;b&gt;&lt;i&gt;Use case#3:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; &lt;/b&gt;&lt;/span&gt;&lt;b&gt;Distributed energy resources and micro-grids: using GOOSE message&lt;/b&gt;', '', '', '', '', '']</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;C.4.1	Overview&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;A.4.9	Distributed energy resources and micro-grids&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1252,13 +1452,18 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.104259252548218</v>
+        <v>1.140244007110596</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>['', 'Distributed energy resources (DER) become increasingly important. The potentially large number of DERs will have an impact on security, stability, and operation efficiency of the energy grid. ', '', 'The integration of DERs into the energy grid poses many challenges for the involved communication system. To incorporate more renewable and alternative energy sources, the communication infrastructure must have the ability to easily handle an increasing amount of data traffic or service requests and must provide a real-time monitoring and control operation for these distributed energy resources. A reliable communication between the DERs is crucial. ', '', 'When it comes to communications architecture, IEC 61850 is a widely used standard for automation and equipment of power utilities and DER, specifically for defining protocols for IEDs (Intelligent electronic devices) at electrical substations The IEC 61850 standard specifies the timing constraints for messages typically used in substations. GOOSE (Generic Object Oriented Substation Events) and SV (Sampled Values) messages are assumed as time critical messages. They have the tightest deadlines (maximum allowed transfer time) among all IEC 61850 messages, corresponding to 3 ms. While GOOSE is typically used for transfering information related to monitoring and control functions (circuit breaker status etc.), SV is used for transfering measurement samples of current and voltage signals. The SV protocol works on a periodic information transmission model, sending messages at a fixed rate. For protection purposes, the default rate is 4000 or 4800 messages per second for 50 and 60 Hz power systems, respectively. On the other hand, the GOOSE protocol operates in a sporadic information transmission model, where a continuous flow of data is maintained to increase communication reliability. The typical sizes of GOOSE and SV messages are160 and 140 bytes, respectively. GOOSE messages are transmitted in two different modes: (1) safe operation: 1 message per second (service bit rate = 1.28 kbit/s); (2) emergency operation: 32 messages per second (service bit rate = 41.0 kbit/s). SV messages are transmitted at much higher rate, namely 4800 messages per second (service bit rate = 5.4 Mbit/s). The associated KPIs are provided in Table A.4.9-1.', '', '&lt;span style="font-size:20pt"&gt;&lt;b&gt;Table A.4.9-1: Key Performance for Distributed energy resources (DER): using SV (Sampled Values) message&lt;/b&gt;&lt;/span&gt;', '', '', '', 'Use case#', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bit rate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE ', 'speed', '', '&lt;b&gt;1&lt;/b&gt;', '', '&lt;b&gt;99,9999\xa0%&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;&amp;lt; 3 ms&lt;/b&gt;', '', '&lt;b&gt;4.5 Mbit/s&lt;/b&gt;', '', '&lt;b&gt;140&lt;/b&gt;', '', '&lt;b&gt;≤ 1 ms&lt;/b&gt;', '', '&lt;b&gt;transfer interval&lt;/b&gt;', '', '&lt;b&gt;stationary&lt;/b&gt;', '', '&lt;b&gt;2&lt;/b&gt;', '', '&lt;b&gt;99,9999\xa0%&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;&amp;lt; 3 ms&lt;/b&gt;', '', '&lt;b&gt;5.4 Mbit/s&lt;/b&gt;', '', '&lt;b&gt;140&lt;/b&gt;', '', '&lt;b&gt;≤ 1 ms&lt;/b&gt;', '', '&lt;b&gt;transfer interval&lt;/b&gt;', '', '&lt;b&gt;stationary&lt;/b&gt;', '', '&lt;b&gt;3&lt;/b&gt;', '', '&lt;b&gt;&amp;gt; 99.9999\xa0%&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;&amp;lt; 3 ms&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;160&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;–&lt;/b&gt;', '', '&lt;b&gt;stationary&lt;/b&gt;', '', 'NOTE:\tUE to UE communication is assumed.', '', '', '', '&lt;b&gt;&lt;i&gt;Use case#1:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; &lt;/b&gt;&lt;/span&gt;&lt;b&gt;Distributed energy resources and micro-grids: using SV(sample value) message with 50Hz&lt;/b&gt;', '', '&lt;b&gt;&lt;i&gt;Use case#2:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; &lt;/b&gt;&lt;/span&gt;&lt;b&gt;Distributed energy resources and micro-grids: using SV(sample value) message with 60Hz&lt;/b&gt;', '', '&lt;b&gt;&lt;i&gt;Use case#3:&lt;/i&gt;&lt;/b&gt;&lt;span style="font-size:18pt"&gt;&lt;b&gt; &lt;/b&gt;&lt;/span&gt;&lt;b&gt;Distributed energy resources and micro-grids: using GOOSE message&lt;/b&gt;', '', '', '', '', '']</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;C.4.2	Network latency requirement formulated by use of timeliness&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;A.5.2	Wind power plant network&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1268,17 +1473,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1.114539742469788</v>
+        <v>1.07606041431427</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>['', 'Table A&lt;b&gt;.&lt;/b&gt;5.2-1: Service performance requirements for wind power plant network', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Packet error ratio', '', 'UE speed', '', 'Service area', '', '1', '', '99.999\xa0999\xa09', '', '~ 10 years', '', '16 ms', '', '&amp;lt; 10&lt;sup&gt;-9&lt;/sup&gt;', '', 'stationary', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Communication in support of closed-loop cyber-physical control in a wind farm. The wind farm can be deployed offshore.', '', 'NOTE:\tThis type of communication service can be provided via a wired connection.', '']</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;C.4.3	Timeliness&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;A.5.2	Wind power plant network&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1292,13 +1502,18 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.118857264518738</v>
+        <v>1.117619752883911</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>['', 'Table A&lt;b&gt;.&lt;/b&gt;5.2-1: Service performance requirements for wind power plant network', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Packet error ratio', '', 'UE speed', '', 'Service area', '', '1', '', '99.999\xa0999\xa09', '', '~ 10 years', '', '16 ms', '', '&amp;lt; 10&lt;sup&gt;-9&lt;/sup&gt;', '', 'stationary', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Communication in support of closed-loop cyber-physical control in a wind farm. The wind farm can be deployed offshore.', '', 'NOTE:\tThis type of communication service can be provided via a wired connection.', '']</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;C.4.7	Conclusion&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;A.6.1	Overview&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1308,17 +1523,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.110623717308044</v>
+        <v>1.099989414215088</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>['', 'The traditional value chain for the medical device industry, which historically has been driven by innovation and research and development, is currently witnessing a shift in the landscape. As governments and health insurers worldwide implement measures to control costs, public hospitals are operating on tighter budgets, while private facilities are receiving lower reimbursements. In the developed world, decisions that used to be the sole preserve of doctors are now also made by regulators, hospital administrators, and other non-clinicians. This broader set of influencers comes with different objectives, e.g. the prioritization of cost effectiveness or even just costs. ', '', 'This shift in focus from volume-based healthcare to value-based healthcare has led medical devices companies to move to business models based on providing clinical value with cost efficiency.', '', 'Technological progress and better infrastructures, in particular high-quality wireless networks, have fed this business model transformation, allowing coordinated therapies, services, and health analytics and enabling efficient outcome measurement solutions. ', '', 'On this matter, 5G enables shifting care location from hospitals to homes and others lower cost facilities which mechanically translates into more savings. Additionally, another example showing that 5G can enable cost savings required by the medical industry can be found inside hospitals where wireless transmission of low latency data streams improves operating room planning, enable streamlining equipment usage and simplifies operating theater implementation.', '']</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>&lt;h1&gt;C.5	Communication service terminology w.r.t. 5G network and vertical applications&lt;/h1&gt;</t>
+          <t>&lt;h2&gt;A.6.1	Overview&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1332,13 +1552,18 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.062394022941589</v>
+        <v>1.147675514221191</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>['', 'The traditional value chain for the medical device industry, which historically has been driven by innovation and research and development, is currently witnessing a shift in the landscape. As governments and health insurers worldwide implement measures to control costs, public hospitals are operating on tighter budgets, while private facilities are receiving lower reimbursements. In the developed world, decisions that used to be the sole preserve of doctors are now also made by regulators, hospital administrators, and other non-clinicians. This broader set of influencers comes with different objectives, e.g. the prioritization of cost effectiveness or even just costs. ', '', 'This shift in focus from volume-based healthcare to value-based healthcare has led medical devices companies to move to business models based on providing clinical value with cost efficiency.', '', 'Technological progress and better infrastructures, in particular high-quality wireless networks, have fed this business model transformation, allowing coordinated therapies, services, and health analytics and enabling efficient outcome measurement solutions. ', '', 'On this matter, 5G enables shifting care location from hospitals to homes and others lower cost facilities which mechanically translates into more savings. Additionally, another example showing that 5G can enable cost savings required by the medical industry can be found inside hospitals where wireless transmission of low latency data streams improves operating room planning, enable streamlining equipment usage and simplifies operating theater implementation.', '']</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;E.1	Description&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;A.6.2	Robotic Aided Surgery&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1352,13 +1577,18 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.119961261749268</v>
+        <v>1.120053768157959</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>['', '&lt;span style="color:000000"&gt;Robotic aided surgery is particularly suitable to invasive surgical procedures that require delicate tissue manipulation and access to areas with difficult exposure. It is achieved through complex systems that translate the surgeon’s hand movements into smaller, precise movements of tiny instruments that can generally bend and rotate far more than a human hand is capable of doing inside the patient’s body. In addition, those systems are usually able to filter out hand tremor and therefore &lt;/span&gt;allow more consistent outcomes for existing procedures, and more importantly the development of new procedures currently made impractical by the accuracy limits of unaided manipulation&lt;span style="color:000000"&gt;.&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;A typical robotic setup for telesurgery can be depicted as follows.&lt;/span&gt;', '', '----media/image12.png----', '', 'Figure A.6.2-1: Typical Robotic Surgery System Setup', '', 'The robot and the surgeon’s console can be co-located in the same operating room in which case they communicate through a NPN, or, in another deployment option, when specialists and patients are far from each other (hundreds of kilometres) they can exchange data through communication services delivered by PLMNs. The depicted medical application can be instantiated at either side or in the Cloud. Its role consists in: ', '', '-\tGenerating appropriate haptic feedback based on instrument location, velocity, effort measurements data and images issued by surgical instruments and 3D pre-operative patient body model. This allows to provide tactile guidance by constraining where the instruments (scalpel, etc.) can go.', '', '-\tFiltering motion control commands for better closed loop stability', '', 'Typical surgery robotic systems can have around 40 actuators and the same number of sensors which allows to compute the data rate requires in each direction in order to execute a given movement. ', '', 'Human sensitivity of touch is very high, tactile sensing has about 400 Hz bandwidth, where bandwidth refers to the frequency of which the stimuli can be sensed. This is why, in general, haptic feedback systems operate at frequencies around 1,000 Hz. This rate naturally applies to the update of all information used in the generation of the haptic feedback, e.g. instruments velocity, position … Therefore, the robot control process involves:', '', '-\tThe surgeon console periodically sending a set of points to actuators', '', '-\tActuators executing a given process ', '', '-\tSensors sampling velocity, forces, positions, … at the very same time and returning that information to the surgeon console at the rate of 1 kHz', '', 'As opposed to machine to machine communication, robotic aided surgery implies there is a human being in the middle of the control loop, which means that the console generates new commands based on the system state collected in the previous 1 kHz cycle and also on surgeon’s hand movement.', '', 'Each equipment involved in a robotic telesurgery setup (endoscopes, image processing system, displays, motion controller and haptic feedback systems) is synchronized thanks to a common clock either external or provided by the 5G system. The synchronization is often achieved through dedicated protocols such as e.g. PTP version 2 and allows to e.g. guarantee the consistency of the haptic feedback and displayed images at the master console, or enable the recording and offline replay of the whole procedure.', '', '', '', '', '', 'Table A.6.2-1: Service performance requirements for motion control and haptic feedback', '', 'Use case # ', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: Mean Time Between Failure', '', 'End-to-end latency: maximum', '', 'Bit rate', '', 'Direction', '', 'Message', '', 'Size', '', '[byte]', '', 'Transfer Interval', '', 'Survival time', '', 'UE speed', '', '# of active UEs', '(note1)', '', 'Service Area', '', '1', '', '&amp;gt;\xa099.999\xa0999', '', '&amp;gt;\xa010 years', '', '&amp;lt;\xa02 ms', '', '2\xa0Mbit/s to 16\xa0Mbit/s', '', 'network to UE; UE to network', '', '250 to 2,000', '', '1 ms', '', 'transfer interval', '', 'stationary', '', '1', '', 'room', '', '2', '', '&amp;gt;\xa099.999\xa09', '', '&amp;gt;\xa01 year', '', '&amp;lt;\xa020 ms', '', '2\xa0Mbit/s to 16\xa0Mbit/s', '', 'network to UE; UE to network', '', '250 to 2,000', '', '1 ms', '', 'transfer interval', '', 'stationary', '', '&amp;lt;\xa02 per 1,000\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', 'national', '', 'Note 1: The upper limit of UEs’ density is provided for large service areas to address non-uniform distributions of UEs, while an absolute number of UEs is provided for small service areas.', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic communication for the support of precise cooperative robotic motion control and haptic feedback in case of robotic aided surgery where the surgeon console and the robot are collocated in the same operating room', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Periodic communication for the support of cooperative robotic motion control and haptic feedback in case of telesurgery. In this case, the surgeon console and the robot are not collocated and communicate with each other through a connection established over a PLMN possibly spanning an entire country. Relaxed requirements imply that much less complex surgical procedures are achievable in use case 2 than in use case 1. It shall be noted that this use case also involves more experienced and trained surgeons, who can cope with longer latencies in the communication system.', '', '', '', '', '']</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;E.2	Multiple source wireless studio&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;A.6.2	Robotic Aided Surgery&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1368,17 +1598,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.167621970176697</v>
+        <v>1.079488754272461</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>['', '&lt;span style="color:000000"&gt;Robotic aided surgery is particularly suitable to invasive surgical procedures that require delicate tissue manipulation and access to areas with difficult exposure. It is achieved through complex systems that translate the surgeon’s hand movements into smaller, precise movements of tiny instruments that can generally bend and rotate far more than a human hand is capable of doing inside the patient’s body. In addition, those systems are usually able to filter out hand tremor and therefore &lt;/span&gt;allow more consistent outcomes for existing procedures, and more importantly the development of new procedures currently made impractical by the accuracy limits of unaided manipulation&lt;span style="color:000000"&gt;.&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;A typical robotic setup for telesurgery can be depicted as follows.&lt;/span&gt;', '', '----media/image12.png----', '', 'Figure A.6.2-1: Typical Robotic Surgery System Setup', '', 'The robot and the surgeon’s console can be co-located in the same operating room in which case they communicate through a NPN, or, in another deployment option, when specialists and patients are far from each other (hundreds of kilometres) they can exchange data through communication services delivered by PLMNs. The depicted medical application can be instantiated at either side or in the Cloud. Its role consists in: ', '', '-\tGenerating appropriate haptic feedback based on instrument location, velocity, effort measurements data and images issued by surgical instruments and 3D pre-operative patient body model. This allows to provide tactile guidance by constraining where the instruments (scalpel, etc.) can go.', '', '-\tFiltering motion control commands for better closed loop stability', '', 'Typical surgery robotic systems can have around 40 actuators and the same number of sensors which allows to compute the data rate requires in each direction in order to execute a given movement. ', '', 'Human sensitivity of touch is very high, tactile sensing has about 400 Hz bandwidth, where bandwidth refers to the frequency of which the stimuli can be sensed. This is why, in general, haptic feedback systems operate at frequencies around 1,000 Hz. This rate naturally applies to the update of all information used in the generation of the haptic feedback, e.g. instruments velocity, position … Therefore, the robot control process involves:', '', '-\tThe surgeon console periodically sending a set of points to actuators', '', '-\tActuators executing a given process ', '', '-\tSensors sampling velocity, forces, positions, … at the very same time and returning that information to the surgeon console at the rate of 1 kHz', '', 'As opposed to machine to machine communication, robotic aided surgery implies there is a human being in the middle of the control loop, which means that the console generates new commands based on the system state collected in the previous 1 kHz cycle and also on surgeon’s hand movement.', '', 'Each equipment involved in a robotic telesurgery setup (endoscopes, image processing system, displays, motion controller and haptic feedback systems) is synchronized thanks to a common clock either external or provided by the 5G system. The synchronization is often achieved through dedicated protocols such as e.g. PTP version 2 and allows to e.g. guarantee the consistency of the haptic feedback and displayed images at the master console, or enable the recording and offline replay of the whole procedure.', '', '', '', '', '', 'Table A.6.2-1: Service performance requirements for motion control and haptic feedback', '', 'Use case # ', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: Mean Time Between Failure', '', 'End-to-end latency: maximum', '', 'Bit rate', '', 'Direction', '', 'Message', '', 'Size', '', '[byte]', '', 'Transfer Interval', '', 'Survival time', '', 'UE speed', '', '# of active UEs', '(note1)', '', 'Service Area', '', '1', '', '&amp;gt;\xa099.999\xa0999', '', '&amp;gt;\xa010 years', '', '&amp;lt;\xa02 ms', '', '2\xa0Mbit/s to 16\xa0Mbit/s', '', 'network to UE; UE to network', '', '250 to 2,000', '', '1 ms', '', 'transfer interval', '', 'stationary', '', '1', '', 'room', '', '2', '', '&amp;gt;\xa099.999\xa09', '', '&amp;gt;\xa01 year', '', '&amp;lt;\xa020 ms', '', '2\xa0Mbit/s to 16\xa0Mbit/s', '', 'network to UE; UE to network', '', '250 to 2,000', '', '1 ms', '', 'transfer interval', '', 'stationary', '', '&amp;lt;\xa02 per 1,000\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', 'national', '', 'Note 1: The upper limit of UEs’ density is provided for large service areas to address non-uniform distributions of UEs, while an absolute number of UEs is provided for small service areas.', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic communication for the support of precise cooperative robotic motion control and haptic feedback in case of robotic aided surgery where the surgeon console and the robot are collocated in the same operating room', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Periodic communication for the support of cooperative robotic motion control and haptic feedback in case of telesurgery. In this case, the surgeon console and the robot are not collocated and communicate with each other through a connection established over a PLMN possibly spanning an entire country. Relaxed requirements imply that much less complex surgical procedures are achievable in use case 2 than in use case 1. It shall be noted that this use case also involves more experienced and trained surgeons, who can cope with longer latencies in the communication system.', '', '', '', '', '']</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;E.3	Timing use in AV production applications&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;A.6.3	Robotic Aided Diagnosis&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1388,22 +1623,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.207367777824402</v>
+        <v>1.083568692207336</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>['', 'Robotic aided diagnosis involves a remote expert in a large central hospital who controls a diagnosis robotic system deployed in a local medical facility. Such robotic systems can be e.g.:', '', '-\tHaptic feedback tool used for palpating and deployed in e.g. a Mobile Specialist Practise facility', '', '-\tUltrasound probe deployed in an ambulance or a medical facility ', '', '&lt;span style="color:000000"&gt;A typical robotic setup for tele diagnosis can be depicted as follows:&lt;/span&gt;', '', '----media/image13.png----', '', 'Figure A.6.3-1: Typical Robotic Surgery System Setup', '', 'Specialists and patients are far from each other (typically dozens of kilometres) and can exchange data through communication services delivered by PLMNs. The depicted medical application can be instantiated at either side or in the Cloud. Its role consists in: ', '', '--\tGenerating appropriate haptic feedback based on instrument location, velocity, effort measurements data and images issued by instruments.', '', '--\tFiltering motion control commands for better closed loop stability', '', '', '', '', '', 'Table A.6.3-1: Service performance requirements for motion control and haptic feedback', '', 'Use case # ', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: Mean Time Between Failure', '', 'End-to-end latency: maximum', '', 'Bit rate', '', 'Direction', '', 'Message', '', 'Size', '', '[byte]', '', 'Transfer Interval', '', 'Survival time', '', 'UE speed', '', '# of active UEs', '', 'Service Area', '', '1', '', '&amp;gt;\xa099.999', '', '&lt;span style="color:000000"&gt;&amp;gt;&amp;gt; 1 month (&amp;lt; 1 year)&lt;/span&gt;', '', '&amp;lt;\xa020 ms', '', '2\xa0Mbit/s to 16\xa0Mbit/s', '', 'network to UE; UE to network', '', '~80', '', '&amp;lt;\xa020\xa0ms per 100\xa0km&lt;sup&gt;2&lt;/sup&gt; ', '', 'transfer interval', '', 'stationary', '', '&amp;lt; 20 per 100\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', 'regional', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic communication for the support of precise cooperative robotic motion control and haptic feedback in case of robotic aided diagnosis where the expert and the patient are not collocated and communicate with each other through a connection established over a PLMN.', '', '', '']</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.2.1	General&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;A.6.3	Robotic Aided Diagnosis&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TS_22_125.docx</t>
+          <t>TS_22_104.docx</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1412,38 +1652,48 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.111117959022522</v>
+        <v>1.125766634941101</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>['', 'Robotic aided diagnosis involves a remote expert in a large central hospital who controls a diagnosis robotic system deployed in a local medical facility. Such robotic systems can be e.g.:', '', '-\tHaptic feedback tool used for palpating and deployed in e.g. a Mobile Specialist Practise facility', '', '-\tUltrasound probe deployed in an ambulance or a medical facility ', '', '&lt;span style="color:000000"&gt;A typical robotic setup for tele diagnosis can be depicted as follows:&lt;/span&gt;', '', '----media/image13.png----', '', 'Figure A.6.3-1: Typical Robotic Surgery System Setup', '', 'Specialists and patients are far from each other (typically dozens of kilometres) and can exchange data through communication services delivered by PLMNs. The depicted medical application can be instantiated at either side or in the Cloud. Its role consists in: ', '', '--\tGenerating appropriate haptic feedback based on instrument location, velocity, effort measurements data and images issued by instruments.', '', '--\tFiltering motion control commands for better closed loop stability', '', '', '', '', '', 'Table A.6.3-1: Service performance requirements for motion control and haptic feedback', '', 'Use case # ', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: Mean Time Between Failure', '', 'End-to-end latency: maximum', '', 'Bit rate', '', 'Direction', '', 'Message', '', 'Size', '', '[byte]', '', 'Transfer Interval', '', 'Survival time', '', 'UE speed', '', '# of active UEs', '', 'Service Area', '', '1', '', '&amp;gt;\xa099.999', '', '&lt;span style="color:000000"&gt;&amp;gt;&amp;gt; 1 month (&amp;lt; 1 year)&lt;/span&gt;', '', '&amp;lt;\xa020 ms', '', '2\xa0Mbit/s to 16\xa0Mbit/s', '', 'network to UE; UE to network', '', '~80', '', '&amp;lt;\xa020\xa0ms per 100\xa0km&lt;sup&gt;2&lt;/sup&gt; ', '', 'transfer interval', '', 'stationary', '', '&amp;lt; 20 per 100\xa0km&lt;sup&gt;2&lt;/sup&gt;', '', 'regional', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic communication for the support of precise cooperative robotic motion control and haptic feedback in case of robotic aided diagnosis where the expert and the patient are not collocated and communicate with each other through a connection established over a PLMN.', '', '', '']</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.2.2	Decentralized UAS traffic management&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;C.1.1	Area of consideration&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TS_22_125.docx</t>
+          <t>TS_22_104.docx</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1.146703720092773</v>
+        <v>1.067391991615295</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>['', 'For our discussion of communication in automation we apply a definition of the area of consideration for industrial radio communication that is found elsewhere in the literature [4]. This definition is illustrated in Figure C.1.1-1. ', '', '----media/image14.emf----', '', 'NOTE:\tBlue objects: communication system; other objects: automation application system.', '', 'Figure\xa0C&lt;b&gt;.&lt;/b&gt;1.1-1: Abstract diagram of the area of consideration for industrial radio communication ', '', 'Here, a distributed automation application system is depicted. This system includes a distributed automation application, which is the aggregation of several automation functions. These can be functions in sensors, measurement devices, drives, switches, I/O devices, encoders etc. All of these functions contribute toward the control of physical objects. Field bus systems, industrial Ethernet systems, or wireless communication systems can be used for connecting the distributed functions. The essential function of these communication systems is the distribution of messages among the distributed automation functions. For cyber-physical control applications, the dependability of the entire communication system and/or of its devices or its links is essential. Communication functions are realised by the respective hardware and software implementation.', '', 'In order for the automation application system to operate, messages need to be exchanged between spatially distributed application functions. For that process, messages are exchanged at an interface between the automation application system and the communication system. This interface is termed the reference interface. Required and guaranteed values for characteristic parameters, which describe the behavioural properties of the radio communication system, as well as some influence quantities refer to that interface.', '', 'The conditions that influence the behaviour of wireless communication are framed by the communication requirements of the application (e.g., end-to-end latency), the characteristics of the communication system (e.g., output power of a transmitter), and the transmission conditions of the media (e.g., signal fluctuations caused by multipath propagation). ', '', 'General requirements from the application point of view for the time and failure behaviour of a communication system are mostly related to an end-to-end link. It is assumed in the present document that the behaviour of the link is representative of the communication system as a whole and of the entire scope of the application. ', '']</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;6.2	Network exposure for UAV services&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;C.1.1	Area of consideration&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TS_22_125.docx</t>
+          <t>TS_22_104.docx</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1452,38 +1702,48 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1.108289003372192</v>
+        <v>1.113209366798401</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>['', 'For our discussion of communication in automation we apply a definition of the area of consideration for industrial radio communication that is found elsewhere in the literature [4]. This definition is illustrated in Figure C.1.1-1. ', '', '----media/image14.emf----', '', 'NOTE:\tBlue objects: communication system; other objects: automation application system.', '', 'Figure\xa0C&lt;b&gt;.&lt;/b&gt;1.1-1: Abstract diagram of the area of consideration for industrial radio communication ', '', 'Here, a distributed automation application system is depicted. This system includes a distributed automation application, which is the aggregation of several automation functions. These can be functions in sensors, measurement devices, drives, switches, I/O devices, encoders etc. All of these functions contribute toward the control of physical objects. Field bus systems, industrial Ethernet systems, or wireless communication systems can be used for connecting the distributed functions. The essential function of these communication systems is the distribution of messages among the distributed automation functions. For cyber-physical control applications, the dependability of the entire communication system and/or of its devices or its links is essential. Communication functions are realised by the respective hardware and software implementation.', '', 'In order for the automation application system to operate, messages need to be exchanged between spatially distributed application functions. For that process, messages are exchanged at an interface between the automation application system and the communication system. This interface is termed the reference interface. Required and guaranteed values for characteristic parameters, which describe the behavioural properties of the radio communication system, as well as some influence quantities refer to that interface.', '', 'The conditions that influence the behaviour of wireless communication are framed by the communication requirements of the application (e.g., end-to-end latency), the characteristics of the communication system (e.g., output power of a transmitter), and the transmission conditions of the media (e.g., signal fluctuations caused by multipath propagation). ', '', 'General requirements from the application point of view for the time and failure behaviour of a communication system are mostly related to an end-to-end link. It is assumed in the present document that the behaviour of the link is representative of the communication system as a whole and of the entire scope of the application. ', '']</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;6.8	UTM assistance requirements&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;C.2.2	Characteristic parameters&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TS_22_125.docx</t>
+          <t>TS_22_104.docx</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1.083270311355591</v>
+        <v>1.086083054542542</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>['', 'Table C&lt;b&gt;.&lt;/b&gt;2.2-1: Candidate characteristic parameters for the dependable communication service interface', '', 'Parameter name', '', 'Typical metric (unit)', '', 'Traffic class (note)', '', '', '', '', '', 'Deterministic periodic communication', '', 'Deterministic aperiodic communication', '', 'Non-deterministic communication', '', 'Communication service availability', '', 'Minimum availability (dimensionless)', '', 'X', '', 'X', '', 'X', '', 'End-to-end latency', '', 'Target value and timeliness (ms)', '', 'X', '', 'X', '', 'X', '', 'Communication service reliability', '', 'Mean time between failures (days)', '', 'X', '', 'X', '', 'X', '', 'Service bit rate', '', 'Target value (bit/s); user experienced data rate (bit/s); time window (s)', '', '–', '', 'X', '', 'X', '', 'Update time', '', 'Target value and timeliness', '', 'X', '', '–', '', '–', '', 'NOTE:\t– application requirements (KPIs). X: applies; –: does not apply.', '', '', '', '&lt;b&gt;Parameter description&lt;/b&gt;', '', '&lt;i&gt;Communication service availability&lt;/i&gt;', '', 'This parameter indicates if the communication system works as contracted ("available"/"unavailable" state). The communication system is in the "available" state as long as the availability criteria for transmitted packets are met. The service is unavailable if the packets received at the target are impaired and/or untimely (e.g. update time &amp;gt; stipulated maximum). If the survival time (see Table C.2.3-1) is larger than zero, consecutive impairments and/or delays are ignored until the respective time has expired.', '', '&lt;i&gt;End-to-end latency&lt;/i&gt;', '', 'This parameter indicates the time allotted to the communication system for transmitting a message and the permitted timeliness.', '', '&lt;i&gt;Communication service reliability&lt;/i&gt;', '', 'Mean time between failures is one of the typical indicators for communication service reliability. This parameter states the mean value of how long the communication service is available before it becomes unavailable. For instance, a mean time between failures of one month indicates that a communication service runs error-free for one month on average before an error/errors make the communication service unavailable. Usually, an exponential distribution is assumed. This means, there will be several failures where the time between two subsequent errors is below the mean value (1 month in the example).', '', 'Communication service availability and communication service reliability (mean time between failures) give an indication on the time between failures and the length of the failures.', '', '&lt;i&gt;Service bit rate&lt;/i&gt;', '', '&lt;i&gt;a) deterministic communication&lt;/i&gt;', '', 'The target value indicates committed data rate in bit/s sought from the communication service. This is the minimum data rate the communication system guarantees to provide at any time, i.e. in this case target value = user experienced data rate. ', '', '&lt;i&gt;b) non-deterministic communication&lt;/i&gt;', '', 'The target value indicates the target data rate in bit/s. This is the information rate the communication system aims at providing on average during a given (moving) time window (unit: s). The user experienced data rate the lower data rate threshold for any of the time windows.', '', '&lt;i&gt;Update time&lt;/i&gt;', '', 'Applicable only to periodic communication, the update time indicates the time interval between any two consecutive messages delivered from the egress (of the communication system) to the application.', '', '&lt;b&gt;Traffic classes&lt;/b&gt;', '', 'In practice, vertical communication networks serve applications exhibiting a wide range of communication requirements. In order to facilitate efficient modelling of the communication network during engineering, and for reducing the complexity of network optimisation, disjoint QoS sets have been identified. These sets are referred to as traffic classes [6]. Typically, only three traffic classes are needed in industrial environments [6], i.e.', '', '-\tdeterministic periodic communication; ', '', '-\tdeterministic aperiodic communication; and ', '', '-\tnon-deterministic communication.', '', 'Deterministic periodic communication stands for periodic communication with stringent requirements on timeliness of the transmission.', '', 'Deterministic aperiodic communication stands for communication without a pre-set sending time. Typical activity patterns for which this kind of communication is suitable are event-driven actions.', '', 'Non-deterministic communication subsumes all other types of traffic. Periodic non-real time and aperiodic non-real time traffic are subsumed by the non-deterministic traffic class, since periodicity is irrelevant in case the communication is not time-critical.', '', '&lt;b&gt;Usage of the parameters in Table C.2.2-1&lt;/b&gt;', '', 'Control service request and response; monitoring service response and indication.', '']</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;7.1	KPIs for services provided to the UAV applications&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;C.2.2	Characteristic parameters&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TS_22_125.docx</t>
+          <t>TS_22_104.docx</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1492,38 +1752,48 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1.165401935577393</v>
+        <v>1.112982034683228</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>['', 'Table C&lt;b&gt;.&lt;/b&gt;2.2-1: Candidate characteristic parameters for the dependable communication service interface', '', 'Parameter name', '', 'Typical metric (unit)', '', 'Traffic class (note)', '', '', '', '', '', 'Deterministic periodic communication', '', 'Deterministic aperiodic communication', '', 'Non-deterministic communication', '', 'Communication service availability', '', 'Minimum availability (dimensionless)', '', 'X', '', 'X', '', 'X', '', 'End-to-end latency', '', 'Target value and timeliness (ms)', '', 'X', '', 'X', '', 'X', '', 'Communication service reliability', '', 'Mean time between failures (days)', '', 'X', '', 'X', '', 'X', '', 'Service bit rate', '', 'Target value (bit/s); user experienced data rate (bit/s); time window (s)', '', '–', '', 'X', '', 'X', '', 'Update time', '', 'Target value and timeliness', '', 'X', '', '–', '', '–', '', 'NOTE:\t– application requirements (KPIs). X: applies; –: does not apply.', '', '', '', '&lt;b&gt;Parameter description&lt;/b&gt;', '', '&lt;i&gt;Communication service availability&lt;/i&gt;', '', 'This parameter indicates if the communication system works as contracted ("available"/"unavailable" state). The communication system is in the "available" state as long as the availability criteria for transmitted packets are met. The service is unavailable if the packets received at the target are impaired and/or untimely (e.g. update time &amp;gt; stipulated maximum). If the survival time (see Table C.2.3-1) is larger than zero, consecutive impairments and/or delays are ignored until the respective time has expired.', '', '&lt;i&gt;End-to-end latency&lt;/i&gt;', '', 'This parameter indicates the time allotted to the communication system for transmitting a message and the permitted timeliness.', '', '&lt;i&gt;Communication service reliability&lt;/i&gt;', '', 'Mean time between failures is one of the typical indicators for communication service reliability. This parameter states the mean value of how long the communication service is available before it becomes unavailable. For instance, a mean time between failures of one month indicates that a communication service runs error-free for one month on average before an error/errors make the communication service unavailable. Usually, an exponential distribution is assumed. This means, there will be several failures where the time between two subsequent errors is below the mean value (1 month in the example).', '', 'Communication service availability and communication service reliability (mean time between failures) give an indication on the time between failures and the length of the failures.', '', '&lt;i&gt;Service bit rate&lt;/i&gt;', '', '&lt;i&gt;a) deterministic communication&lt;/i&gt;', '', 'The target value indicates committed data rate in bit/s sought from the communication service. This is the minimum data rate the communication system guarantees to provide at any time, i.e. in this case target value = user experienced data rate. ', '', '&lt;i&gt;b) non-deterministic communication&lt;/i&gt;', '', 'The target value indicates the target data rate in bit/s. This is the information rate the communication system aims at providing on average during a given (moving) time window (unit: s). The user experienced data rate the lower data rate threshold for any of the time windows.', '', '&lt;i&gt;Update time&lt;/i&gt;', '', 'Applicable only to periodic communication, the update time indicates the time interval between any two consecutive messages delivered from the egress (of the communication system) to the application.', '', '&lt;b&gt;Traffic classes&lt;/b&gt;', '', 'In practice, vertical communication networks serve applications exhibiting a wide range of communication requirements. In order to facilitate efficient modelling of the communication network during engineering, and for reducing the complexity of network optimisation, disjoint QoS sets have been identified. These sets are referred to as traffic classes [6]. Typically, only three traffic classes are needed in industrial environments [6], i.e.', '', '-\tdeterministic periodic communication; ', '', '-\tdeterministic aperiodic communication; and ', '', '-\tnon-deterministic communication.', '', 'Deterministic periodic communication stands for periodic communication with stringent requirements on timeliness of the transmission.', '', 'Deterministic aperiodic communication stands for communication without a pre-set sending time. Typical activity patterns for which this kind of communication is suitable are event-driven actions.', '', 'Non-deterministic communication subsumes all other types of traffic. Periodic non-real time and aperiodic non-real time traffic are subsumed by the non-deterministic traffic class, since periodicity is irrelevant in case the communication is not time-critical.', '', '&lt;b&gt;Usage of the parameters in Table C.2.2-1&lt;/b&gt;', '', 'Control service request and response; monitoring service response and indication.', '']</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;7.2	KPIs for UAV command and control&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;C.4.1	Overview&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TS_22_125.docx</t>
+          <t>TS_22_104.docx</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1.144551753997803</v>
+        <v>1.100376605987549</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>['', 'There are several time parameters in dependability assessment. A required value is specified for every time parameter. This value can be a maximum, mean, modal, minimum etc. Typically, there is a deviation from the desired value to the actual value. Jitter is often used to characterise this variation. Since jitter generally is used for characterising the behaviour of a measured parameter, for instance the scatter of measured end-to-end latencies ("the world as it is"), it can be quite confusing to use it for formulating service performance requirements ("the world as we want it to be"). What is needed is a concept and related parameters that allow for formulating and talking about the end-to-end latency requirements in Clause 5 and Annex A.', '', 'The most important attribute is timeliness. Timeliness can be formulated a permitted interval for the actual value of the time parameter. Accuracy, earliness and lateness describe the allowed deviation from a target value. Accuracy is the magnitude of deviation. It can be negative (early) or positive (tardy).', '']</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;7.3	Positioning performance requirements	&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;C.4.1	Overview&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TS_22_125.docx</t>
+          <t>TS_22_104.docx</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1532,33 +1802,43 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1.190701365470886</v>
+        <v>1.104259252548218</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>['', 'There are several time parameters in dependability assessment. A required value is specified for every time parameter. This value can be a maximum, mean, modal, minimum etc. Typically, there is a deviation from the desired value to the actual value. Jitter is often used to characterise this variation. Since jitter generally is used for characterising the behaviour of a measured parameter, for instance the scatter of measured end-to-end latencies ("the world as it is"), it can be quite confusing to use it for formulating service performance requirements ("the world as we want it to be"). What is needed is a concept and related parameters that allow for formulating and talking about the end-to-end latency requirements in Clause 5 and Annex A.', '', 'The most important attribute is timeliness. Timeliness can be formulated a permitted interval for the actual value of the time parameter. Accuracy, earliness and lateness describe the allowed deviation from a target value. Accuracy is the magnitude of deviation. It can be negative (early) or positive (tardy).', '']</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;7.4	Other requirements &lt;/h2&gt;</t>
+          <t>&lt;h2&gt;C.4.2	Network latency requirement formulated by use of timeliness&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TS_22_125.docx</t>
+          <t>TS_22_104.docx</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>LR1_signalling</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1.107107162475586</v>
+        <v>1.11702287197113</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>['', 'In 5G networks, the end-to-end latency KPI is a critical KPI in order to ensure that the network can deliver the packet within a time limit specified by an application: not too early and not too late. ', '', 'In cyber-physical automation, the arrival time of a specific packet should be strictly inside a prescribed time window. In other words, a strict time boundary applies: [minimum end-to-end latency, maximum end-to-end latency]. Otherwise, the transmission is erroneous. Although most use cases that require timely delivery only specify the maximum end-to-end latency, the minimum latency is also sometimes prescribed. In the latter case, a communication error occurs if the packet is delivered earlier than the minimum end-to-end latency. An example for a related application is putting labels at a specific location on moving objects, and the arrival of a message is interpreted as a trigger for this action. In other words, the application does not keep its own time, but interprets the message arrival as clock signal. Maximum and minimum end-to-end latency alone do not disclose which value is preferred, i.e. target value. The next three subclauses introduce concepts help with relating maximum end-to-end latency, minimum end-to-end latency, and target vale to each other. ', '']</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>&lt;h1&gt;</t>
+          <t>&lt;h2&gt;C.4.2	Network latency requirement formulated by use of timeliness&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1568,17 +1848,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1.058433771133423</v>
+        <v>1.114539742469788</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>['', 'In 5G networks, the end-to-end latency KPI is a critical KPI in order to ensure that the network can deliver the packet within a time limit specified by an application: not too early and not too late. ', '', 'In cyber-physical automation, the arrival time of a specific packet should be strictly inside a prescribed time window. In other words, a strict time boundary applies: [minimum end-to-end latency, maximum end-to-end latency]. Otherwise, the transmission is erroneous. Although most use cases that require timely delivery only specify the maximum end-to-end latency, the minimum latency is also sometimes prescribed. In the latter case, a communication error occurs if the packet is delivered earlier than the minimum end-to-end latency. An example for a related application is putting labels at a specific location on moving objects, and the arrival of a message is interpreted as a trigger for this action. In other words, the application does not keep its own time, but interprets the message arrival as clock signal. Maximum and minimum end-to-end latency alone do not disclose which value is preferred, i.e. target value. The next three subclauses introduce concepts help with relating maximum end-to-end latency, minimum end-to-end latency, and target vale to each other. ', '']</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;5.3	Aperiodic deterministic communication&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;C.4.3	Timeliness&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1588,17 +1873,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1.098932266235352</v>
+        <v>1.118857264518738</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>['', 'Timeliness is described by a time interval (see Figure C.4.3-1). The interval is restricted by a lower bound (&lt;i&gt;t&lt;/i&gt;&lt;sub&gt;LB&lt;/sub&gt;) and an upper bound (&lt;i&gt;t&lt;/i&gt;&lt;sub&gt;UB&lt;/sub&gt;). This interval contains all values &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;A&lt;/sub&gt; that are within an accepted "distance" to the target value &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;R&lt;/sub&gt;. ', '', '----media/image20.png----', '', 'Figure\xa0C.4.3-1: Timeliness function ', '', 'A message reception is considered in time, if it is received within the timeliness interval. If it is received outside the timeliness interval, the message reception is considered invalid. This is related to the communication error "unacceptable deviation from target end-to-end latency" (see Subclause B.6). In other words, maximum end-to-end latency = &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;UB&lt;/sub&gt; and minimum end-to-end latency = &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;LB&lt;/sub&gt;.', '', 'Timeliness is related to deviation (see Subclause C.4.4), the lower bound &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;LB&lt;/sub&gt; is related to earliness (see Subclause C.4.5), and the upper bound &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;UB&lt;/sub&gt; is related to lateness (see Subclause C.4.6).', '']</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;5.5	Mixed traffic&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;C.4.3	Timeliness&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1612,13 +1902,18 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1.083094716072083</v>
+        <v>1.115401268005371</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>['', 'Timeliness is described by a time interval (see Figure C.4.3-1). The interval is restricted by a lower bound (&lt;i&gt;t&lt;/i&gt;&lt;sub&gt;LB&lt;/sub&gt;) and an upper bound (&lt;i&gt;t&lt;/i&gt;&lt;sub&gt;UB&lt;/sub&gt;). This interval contains all values &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;A&lt;/sub&gt; that are within an accepted "distance" to the target value &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;R&lt;/sub&gt;. ', '', '----media/image20.png----', '', 'Figure\xa0C.4.3-1: Timeliness function ', '', 'A message reception is considered in time, if it is received within the timeliness interval. If it is received outside the timeliness interval, the message reception is considered invalid. This is related to the communication error "unacceptable deviation from target end-to-end latency" (see Subclause B.6). In other words, maximum end-to-end latency = &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;UB&lt;/sub&gt; and minimum end-to-end latency = &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;LB&lt;/sub&gt;.', '', 'Timeliness is related to deviation (see Subclause C.4.4), the lower bound &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;LB&lt;/sub&gt; is related to earliness (see Subclause C.4.5), and the upper bound &lt;i&gt;t&lt;/i&gt;&lt;sub&gt;UB&lt;/sub&gt; is related to lateness (see Subclause C.4.6).', '']</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.6C.1	Description&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;C.4.7	Conclusion&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1632,13 +1927,18 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1.15169632434845</v>
+        <v>1.098514318466187</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>['', 'Using the concepts of earliness and lateness (see Subclauses C.4.5 and C.4.6, respectively), the maximum and minimum end-to-end latency can be rewritten as follows.', '', '&lt;i&gt;Maximum end-to-end latency = target end-to-end latency + maximum lateness;&lt;/i&gt;', '', '&lt;i&gt;Minimum end-to-end latency = target end-to-end latency – maximum earliness.&lt;/i&gt;', '']</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.6C.2	Requirements&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;C.4.7	Conclusion&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1648,17 +1948,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1.102659106254578</v>
+        <v>1.110623717308044</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>['', 'Using the concepts of earliness and lateness (see Subclauses C.4.5 and C.4.6, respectively), the maximum and minimum end-to-end latency can be rewritten as follows.', '', '&lt;i&gt;Maximum end-to-end latency = target end-to-end latency + maximum lateness;&lt;/i&gt;', '', '&lt;i&gt;Minimum end-to-end latency = target end-to-end latency – maximum earliness.&lt;/i&gt;', '']</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.7.1	General requirements&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;E.1	Description&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1668,17 +1973,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1.080620169639587</v>
+        <v>1.119961261749268</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>['', 'AV production includes television and radio studios, outside and remotely controlled broadcasts, live newsgathering, sports events, music festivals, among others. All of these applications require a high degree of reliability, since they are related to the capturing and transmission of data at the beginning of a production chain. This differs drastically when compared to other multimedia services because the communication errors will be propagated to the entire audience that is consuming that content both live and recorded for later distribution. Furthermore, the transmitted data is often post-processed with nonlinear filters which could actually amplify defects that would be otherwise not noticed by humans. Therefore, these applications call for uncompressed or only slightly compressed data, and very low probability of errors. These devices will also be used alongside existing technologies which have a high level of performance and so any new technologies will need to match or improve upon the existing workflows to drive adoption of the technology.', '', 'The performance aspects that are covered by/in TS 22.263 [27] (Service requirements for Video, Imaging and Audio for professional applications) also target the latency that these services experience. ', '', 'In recent years, production facilities have moved from bespoke unidirectional highly specialised networks to IP based systems and software-based workflows. This migration is expected to continue, and wireless IP connectivity is key to a number of these workflows.', '', 'Typical set ups require multiple devices such as cameras, microphones and control surfaces that require extremely close synchronisation to maintain consistency of pictures and audio. Such clock synchronization requirements are captured in clause 5.6. Often devices need to communicate directly to each other for instance a camera to a monitor or a microphone to a PA system.', '', 'Video and audio applications also require extremely high quality of service metrics as the loss of a single packet can cause picture or sound breakup in the downstream processing or distribution. Often this is a legal, regulatory or contractual agreement to maintain a high quality, stable and clear video or audio signal.', '']</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.2.1	Overview&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;E.1	Description&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1692,13 +2002,18 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1.217380881309509</v>
+        <v>1.094972252845764</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>['', 'AV production includes television and radio studios, outside and remotely controlled broadcasts, live newsgathering, sports events, music festivals, among others. All of these applications require a high degree of reliability, since they are related to the capturing and transmission of data at the beginning of a production chain. This differs drastically when compared to other multimedia services because the communication errors will be propagated to the entire audience that is consuming that content both live and recorded for later distribution. Furthermore, the transmitted data is often post-processed with nonlinear filters which could actually amplify defects that would be otherwise not noticed by humans. Therefore, these applications call for uncompressed or only slightly compressed data, and very low probability of errors. These devices will also be used alongside existing technologies which have a high level of performance and so any new technologies will need to match or improve upon the existing workflows to drive adoption of the technology.', '', 'The performance aspects that are covered by/in TS 22.263 [27] (Service requirements for Video, Imaging and Audio for professional applications) also target the latency that these services experience. ', '', 'In recent years, production facilities have moved from bespoke unidirectional highly specialised networks to IP based systems and software-based workflows. This migration is expected to continue, and wireless IP connectivity is key to a number of these workflows.', '', 'Typical set ups require multiple devices such as cameras, microphones and control surfaces that require extremely close synchronisation to maintain consistency of pictures and audio. Such clock synchronization requirements are captured in clause 5.6. Often devices need to communicate directly to each other for instance a camera to a monitor or a microphone to a PA system.', '', 'Video and audio applications also require extremely high quality of service metrics as the loss of a single packet can cause picture or sound breakup in the downstream processing or distribution. Often this is a legal, regulatory or contractual agreement to maintain a high quality, stable and clear video or audio signal.', '']</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.2.2.1	Motion control&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;E.2	Multiple source wireless studio&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1708,17 +2023,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1.075054407119751</v>
+        <v>1.167621970176697</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>['', 'This use case will deploy a multiple camera studio of approximately 1,000 m&lt;sup&gt;2&lt;/sup&gt; (~5 cameras) where wired and wireless functionalities currently provided by traditional infrastructure technologies are likely to be deployed using a standalone non-public network. A combination of IP enabled wired and wireless cameras working at both HD and UHD resolutions will be deployed in a studio. Associated equipment such as video monitors,\xa0prompting systems, camera control will be provided over the 5G network. Camera timing and synchronisation will be provided over the 5G system. As well as video, audio will be sourced from both wired and wireless microphones incl. control/monitoring and combined with the video to produce high quality synchronised AV content. 5G will also be deployed to control lighting and camera robotics. Talkback intercom systems will be deployed using low latency multicast links.', '', '&lt;b&gt;Today’s digital AV network transport is typically handled separately for wireless and wired transfers (see &lt;/b&gt;&lt;span style="color:000000"&gt;&lt;b&gt;figure E.1.2-1&lt;/b&gt;&lt;/span&gt;&lt;b&gt;). Wireless AV transmissions are implemented with application specific solutions that allow deterministic data transport of a single isolated audio or video link. Wired AV transmissions are Ethernet / IP based. Quality of service in AV IP networks is mainly achieved with IP DiffServ / DSCP based prioritization of packets in network switches. This method is sufficient for most AV use cases since jitter resulting from packet collisions is small, for example in the order of 10 µs per concurring data stream in Gbit Ethernet.&lt;/b&gt;', '', '', '', '', '', '        ----media/image29.jpeg----', '', 'Figure E.2-1: Typical AVPROD setup', '', 'The microphones and cameras can be co-located in a broadcast centre in which case they would communicate through a LAN or NPN. For remote production operations the mixing and production console may be separated by some distance (existing examples are cross continental. In this instance they may communicate via a PLMN or combination of PLMN and WAN networks.', '', 'Some approaches may also deploy main (leader) equipment at the broadcast centre with secondary (follower) equipment at the location site to reduce latency. ', '', 'Other aspects of this workflow may also include robotic control where both the physical position (height, direction and tilt) and the technical control (focus, zoom, iris, colour) of a device of a camera, microphone or light may be controlled remotely. In this instance round trip latency of &amp;lt; 20ms is required in order for an operator to see a move reflected at his control position as it is made.', '', 'It is important to note that these are a combination of automated robotics (pre-programmed moves) and manually controlled robotics (following an unpredictable event such a sport).', '']</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.2.2.2	Control-to-control communication&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;E.2	Multiple source wireless studio&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1732,13 +2052,18 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1.075143218040466</v>
+        <v>1.131373524665833</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>['', 'This use case will deploy a multiple camera studio of approximately 1,000 m&lt;sup&gt;2&lt;/sup&gt; (~5 cameras) where wired and wireless functionalities currently provided by traditional infrastructure technologies are likely to be deployed using a standalone non-public network. A combination of IP enabled wired and wireless cameras working at both HD and UHD resolutions will be deployed in a studio. Associated equipment such as video monitors,\xa0prompting systems, camera control will be provided over the 5G network. Camera timing and synchronisation will be provided over the 5G system. As well as video, audio will be sourced from both wired and wireless microphones incl. control/monitoring and combined with the video to produce high quality synchronised AV content. 5G will also be deployed to control lighting and camera robotics. Talkback intercom systems will be deployed using low latency multicast links.', '', '&lt;b&gt;Today’s digital AV network transport is typically handled separately for wireless and wired transfers (see &lt;/b&gt;&lt;span style="color:000000"&gt;&lt;b&gt;figure E.1.2-1&lt;/b&gt;&lt;/span&gt;&lt;b&gt;). Wireless AV transmissions are implemented with application specific solutions that allow deterministic data transport of a single isolated audio or video link. Wired AV transmissions are Ethernet / IP based. Quality of service in AV IP networks is mainly achieved with IP DiffServ / DSCP based prioritization of packets in network switches. This method is sufficient for most AV use cases since jitter resulting from packet collisions is small, for example in the order of 10 µs per concurring data stream in Gbit Ethernet.&lt;/b&gt;', '', '', '', '', '', '        ----media/image29.jpeg----', '', 'Figure E.2-1: Typical AVPROD setup', '', 'The microphones and cameras can be co-located in a broadcast centre in which case they would communicate through a LAN or NPN. For remote production operations the mixing and production console may be separated by some distance (existing examples are cross continental. In this instance they may communicate via a PLMN or combination of PLMN and WAN networks.', '', 'Some approaches may also deploy main (leader) equipment at the broadcast centre with secondary (follower) equipment at the location site to reduce latency. ', '', 'Other aspects of this workflow may also include robotic control where both the physical position (height, direction and tilt) and the technical control (focus, zoom, iris, colour) of a device of a camera, microphone or light may be controlled remotely. In this instance round trip latency of &amp;lt; 20ms is required in order for an operator to see a move reflected at his control position as it is made.', '', 'It is important to note that these are a combination of automated robotics (pre-programmed moves) and manually controlled robotics (following an unpredictable event such a sport).', '']</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.2.2.3	Mobile robots&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;E.3	Timing use in AV production applications&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1752,13 +2077,18 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1.057597637176514</v>
+        <v>1.173835039138794</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>['', 'Timing of multiple devices such as microphones and camera is also critical. Timing signals are used in 2 separate ways. ', '', '-\tTo maintain synchronisation between devices so that electronic shutters on cameras operate at the same time and frequency and that when cutting between any two cameras pointed at the same source no discernible jumps can be seen. This requires accuracy within the frame boundary of a given video signal. A single frame of video at 120 Hz would require a clock accurate to within 8\xa0ms. ', '', '-\tTo timestamp an IP packet carrying a video or audio sample. Existing standards and workflows for AVPROD rely on IEEE 1588 PTP timing with a SMPTE media profile applied. This requires a clock accurate to within 1\xa0µs', '', '', '', '', '', '----media/image30.jpeg----', '', 'Figure E.3-1 Typical IP based timing set up for AVPROD', '', '', '', '', '', 'Annex F (informative):', 'Relation of reliability and communication service availability', '', 'Availability and reliability are used both in 3GPP and vertical industries, but with different meanings. Communication service availability addresses the availability of a communication service. This definition follows the vertical standard IEC 61907 [7]. On the other hand, reliability is a 3GPP term and addresses the availability of a communication network. The relation of both terms is depicted in figure F-1 for a mobile network.', '', '----media/image31.emf----', '', '&lt;b&gt;Figure F-1: Illustration of the concepts reliability and communication service availability.&lt;/b&gt;', '', 'As depicted, reliability covers the communication-related aspects between two nodes (here: end nodes), while communication service availability addresses the communication-related aspects between two communication service interfaces. This might seem to be a small difference, but this difference can lead to situations, where reliability and communication service availability have different values.', '', '&lt;b&gt;Example: traffic gets "stuck"&lt;/b&gt;', '', 'The related scenario is depicted in figure F-2.', '', '----media/image32.emf----', '', '&lt;b&gt;Figure F-2: Example in which reliability and communication service availability have different values. Packets are reliably transmitted from the communication service interface A to end node B, but they are not exposed at the communication service interface B.&lt;/b&gt;', '', 'This scenario addresses unicast communication from application A to B. The packets are handed over at the communication service interface A from the application to the communication network, and the packets are then transmitted to the end node B. In this example, the packets received by end node B are not exposed at the communication service interface B. So, even if all packets that are handed over to end node A are successfully delivered to end node B within the time constraint required by the targeted service (reliability = 100 %), the communication service availability is 0% since no packets arrive at the "end", namely the communication service interface B.', '', '&lt;b&gt;Example: packets dropped at the communication service interface&lt;/b&gt;', '', 'The related scenario is depicted in figure F-3.', '', '&lt;span style="color:000000;font-size:0pt"&gt;&lt;b&gt;&lt;u&gt; &lt;/u&gt;&lt;/b&gt;&lt;/span&gt;----media/image33.emf----', '', '&lt;b&gt;Figure F-3: Example in which reliability and communication service availability have different values. Only half of the packets handed over to the end node A are actually transmitted to end node B and then handed over to application B at the communication service interface B.&lt;/b&gt;', '', 'This scenario describes unicast communication of evenly interspersed packets from application A to B. The packets are handed over at the communication service interface A from the application to the communication network, and the packets are then transmitted to the end node B. However, only every second packet is actually successfully handed over to end node A and then transmitted to end node B. Thus, only half of the packets arrive at application B. Note though that the reliability of the mobile network is 100%, since all packets transmitted by end node A are delivered to end node B within the time constraint required by the targeted service. However, depending on the agreed QoS, the communication service availability can be of the same value as the reliability or much lower. For instance, if the agreed survival time is equal to or larger than the end-to-end latency, reliability and communication service availability are equal. However, if the survival time is smaller, the reliability is two times the communication service availability. ', '', 'Note that the shortest time interval over which the communication service availability should be calculated is the sum of maximum allowed end-to-end latency and survival time.', '', 'Annex G (informative):', 'Change history', '', '', '', '&lt;b&gt;Change history&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Date&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Meeting&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TDoc&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;CR&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rev&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Cat&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Subject/Comment&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;New version&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-05&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA1#82&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;S1-181551&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Skeleton for TS 22.104 ("Service requirements for cyber-physical control applications in vertical domains")&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-05&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA1#82&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;S1-181552&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Includes agreements at SA1#82, Dubrovnik, Croatia&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-08&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA1#83&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;S1-182344&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Includes agreements at SA1#83, West Palm Beach, Florida&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-11&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA1#84&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;S1-183276&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Includes agreements at SA1#83, Spokane, WA, USA, rapporteur’s clean-up&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#82&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-181006&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Presentation to SA for one-step approval&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#82&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-181006&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Raised to v.16.0.0 following SA approval&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#83&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190081&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0003&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifying UE-to-UE versus UE-to-network&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#83&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190081&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0002&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Moving rail-bound mass transit requirements – shift from cyberCAV&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#83&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190081&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0001&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clean-up and corrections of TS 22.104 cyberCAV&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#84&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190299&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0008&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to TS 22.104 v16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#84&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190299&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0006&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Add missing abbreviations to TS 22.104&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#84&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190299&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0005&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Adding edge computing aspect&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#84&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190311&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0009&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Adding vertical positioning requirements to TS 22.104 v16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190807&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0012&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Addition of a new synchronisation performance requirement&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190807&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0011&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Addition of robotic aided surgery and diagnosis performance requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190800&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0023&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of a figure number in Annex D.2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190812&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0010&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Add one more case for control-to-control communication&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190812&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0013&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Network operation requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190812&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0015&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;eCAV – Further 5G service requirements for Positioning&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190812&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;eCAV – Service performance requirements for Industrial Wireless Sensors&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190812&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0016&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;eCAV – further 5G service requirements for wired to wireless link replacement for smart manufacturing / Industry 4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190812&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0020&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;eCAV – further 5G service requirements for network performance&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190857&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0021&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;ECAV - further 5G service requirements for ProSe communication for CAV&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190856&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0019&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;ECAV - further 5G service requirements for industrial Ethernet integration (clock synchronization, time-sensitive communication)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191016&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0027&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Addition of informative annex for AV Prod&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191020&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0026&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of CMED KPIs tables&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0034&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of clock synchronicity requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Addition of transmission directions and movement characteristics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0030&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on communication service reliability&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0035&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Derivation of communication service availability and reliability from network performance metrics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0037&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Editorial and minor corrections to TR 22.104&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0032&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Network performance requirements for mobile operation panel&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0038&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TS 22104 - Annex A for cooperative carrying&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#88e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200568&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0050&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of service performance requirements in tables of annex A.6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#88e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200567&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0049&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;22.104 Miscellaneous editorial corrections&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#88e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200562&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0041&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications to communication service performance requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#88e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200567&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0048&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Miscellaneous values for further study&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#88e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200562&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0045&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correcting description of communication service status in Clause C.3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#88e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200562&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0047&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clock synchronicity budget for the 5G system&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#89e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200790&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0055&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Quality improvement – burst definition&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#89e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200790&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0058&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;CR 22.104 R17 - Editorial Improvements – Decimal Separator&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#91e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210200&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0063&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Non-inclusive language replacement 22.104&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.5.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#91e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210217&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Adding energy efficiency use cases for positioning to the ANNEX A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.5.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210564&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0075&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Quality improvement - update of definition of communication service availability &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210565&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0066&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Quality improvement - addition of new annex (relationship between reliability and communication service availability) &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210565&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0068&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;22.104 - V18.0.0 - quality improvement - update of mobile-robots use case description  &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210565&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0069&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of mobile-robot use cases (UE number)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210565&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Quality improvement - service duration &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210517&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0065&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5G timing resiliency &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210524&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0073&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignment of positioning power consumption aspects between 22.261 and 22.104&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210524&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0072&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Adding LPHAP requirements for Industrial IoT&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#93e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211038&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0077&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Quality improvement: update of reference to IEEE 802.1AS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#93e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0078&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Introduction of Smart Energy Infrastructure Requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#93e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0080&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Annex for smart grid&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#93e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0082&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Introduction of SEI KPIs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#93e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0083&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Adjusting scope clause in TS 22.104 to the specification s content&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#93e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211039&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0084&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of requirements for clock synchronization with direct device connection and indirect network connection communication&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#93e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0087&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Inclusion of Smart Energy Infrastructure Requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-94&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211497&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0089&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of references for clause 2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-94&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211497&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0090&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Remove editor note for Figure A.4.4.3-1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-94&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211497&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update to Smart Grid normative requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230230&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Additional clarification on security, privacy for mobile robots using edge cloud&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;19.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230230&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0094&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;An additional u</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.2.2.4	Wired to wireless link replacement&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;E.3	Timing use in AV production applications&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1768,22 +2098,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1.142407417297363</v>
+        <v>1.207367777824402</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>['', 'Timing of multiple devices such as microphones and camera is also critical. Timing signals are used in 2 separate ways. ', '', '-\tTo maintain synchronisation between devices so that electronic shutters on cameras operate at the same time and frequency and that when cutting between any two cameras pointed at the same source no discernible jumps can be seen. This requires accuracy within the frame boundary of a given video signal. A single frame of video at 120 Hz would require a clock accurate to within 8\xa0ms. ', '', '-\tTo timestamp an IP packet carrying a video or audio sample. Existing standards and workflows for AVPROD rely on IEEE 1588 PTP timing with a SMPTE media profile applied. This requires a clock accurate to within 1\xa0µs', '', '', '', '', '', '----media/image30.jpeg----', '', 'Figure E.3-1 Typical IP based timing set up for AVPROD', '', '', '', '', '', 'Annex F (informative):', 'Relation of reliability and communication service availability', '', 'Availability and reliability are used both in 3GPP and vertical industries, but with different meanings. Communication service availability addresses the availability of a communication service. This definition follows the vertical standard IEC 61907 [7]. On the other hand, reliability is a 3GPP term and addresses the availability of a communication network. The relation of both terms is depicted in figure F-1 for a mobile network.', '', '----media/image31.emf----', '', '&lt;b&gt;Figure F-1: Illustration of the concepts reliability and communication service availability.&lt;/b&gt;', '', 'As depicted, reliability covers the communication-related aspects between two nodes (here: end nodes), while communication service availability addresses the communication-related aspects between two communication service interfaces. This might seem to be a small difference, but this difference can lead to situations, where reliability and communication service availability have different values.', '', '&lt;b&gt;Example: traffic gets "stuck"&lt;/b&gt;', '', 'The related scenario is depicted in figure F-2.', '', '----media/image32.emf----', '', '&lt;b&gt;Figure F-2: Example in which reliability and communication service availability have different values. Packets are reliably transmitted from the communication service interface A to end node B, but they are not exposed at the communication service interface B.&lt;/b&gt;', '', 'This scenario addresses unicast communication from application A to B. The packets are handed over at the communication service interface A from the application to the communication network, and the packets are then transmitted to the end node B. In this example, the packets received by end node B are not exposed at the communication service interface B. So, even if all packets that are handed over to end node A are successfully delivered to end node B within the time constraint required by the targeted service (reliability = 100 %), the communication service availability is 0% since no packets arrive at the "end", namely the communication service interface B.', '', '&lt;b&gt;Example: packets dropped at the communication service interface&lt;/b&gt;', '', 'The related scenario is depicted in figure F-3.', '', '&lt;span style="color:000000;font-size:0pt"&gt;&lt;b&gt;&lt;u&gt; &lt;/u&gt;&lt;/b&gt;&lt;/span&gt;----media/image33.emf----', '', '&lt;b&gt;Figure F-3: Example in which reliability and communication service availability have different values. Only half of the packets handed over to the end node A are actually transmitted to end node B and then handed over to application B at the communication service interface B.&lt;/b&gt;', '', 'This scenario describes unicast communication of evenly interspersed packets from application A to B. The packets are handed over at the communication service interface A from the application to the communication network, and the packets are then transmitted to the end node B. However, only every second packet is actually successfully handed over to end node A and then transmitted to end node B. Thus, only half of the packets arrive at application B. Note though that the reliability of the mobile network is 100%, since all packets transmitted by end node A are delivered to end node B within the time constraint required by the targeted service. However, depending on the agreed QoS, the communication service availability can be of the same value as the reliability or much lower. For instance, if the agreed survival time is equal to or larger than the end-to-end latency, reliability and communication service availability are equal. However, if the survival time is smaller, the reliability is two times the communication service availability. ', '', 'Note that the shortest time interval over which the communication service availability should be calculated is the sum of maximum allowed end-to-end latency and survival time.', '', 'Annex G (informative):', 'Change history', '', '', '', '&lt;b&gt;Change history&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Date&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Meeting&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TDoc&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;CR&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rev&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Cat&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Subject/Comment&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;New version&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-05&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA1#82&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;S1-181551&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Skeleton for TS 22.104 ("Service requirements for cyber-physical control applications in vertical domains")&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-05&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA1#82&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;S1-181552&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Includes agreements at SA1#82, Dubrovnik, Croatia&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-08&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA1#83&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;S1-182344&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Includes agreements at SA1#83, West Palm Beach, Florida&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-11&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA1#84&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;S1-183276&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;–&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Includes agreements at SA1#83, Spokane, WA, USA, rapporteur’s clean-up&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#82&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-181006&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Presentation to SA for one-step approval&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#82&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-181006&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Raised to v.16.0.0 following SA approval&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#83&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190081&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0003&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifying UE-to-UE versus UE-to-network&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#83&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190081&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0002&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Moving rail-bound mass transit requirements – shift from cyberCAV&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#83&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190081&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0001&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clean-up and corrections of TS 22.104 cyberCAV&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#84&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190299&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0008&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to TS 22.104 v16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#84&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190299&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0006&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Add missing abbreviations to TS 22.104&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#84&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190299&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0005&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Adding edge computing aspect&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#84&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190311&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0009&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Adding vertical positioning requirements to TS 22.104 v16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190807&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0012&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Addition of a new synchronisation performance requirement&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190807&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0011&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Addition of robotic aided surgery and diagnosis performance requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190800&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0023&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of a figure number in Annex D.2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190812&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0010&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Add one more case for control-to-control communication&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190812&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0013&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Network operation requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190812&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0015&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;eCAV – Further 5G service requirements for Positioning&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190812&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;eCAV – Service performance requirements for Industrial Wireless Sensors&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190812&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0016&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;eCAV – further 5G service requirements for wired to wireless link replacement for smart manufacturing / Industry 4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190812&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0020&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;eCAV – further 5G service requirements for network performance&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190857&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0021&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;ECAV - further 5G service requirements for ProSe communication for CAV&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190856&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0019&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;ECAV - further 5G service requirements for industrial Ethernet integration (clock synchronization, time-sensitive communication)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191016&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0027&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Addition of informative annex for AV Prod&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191020&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0026&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of CMED KPIs tables&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0034&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of clock synchronicity requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Addition of transmission directions and movement characteristics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0030&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on communication service reliability&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0035&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Derivation of communication service availability and reliability from network performance metrics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0037&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Editorial and minor corrections to TR 22.104&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0032&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Network performance requirements for mobile operation panel&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0038&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TS 22104 - Annex A for cooperative carrying&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#88e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200568&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0050&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of service performance requirements in tables of annex A.6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#88e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200567&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0049&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;22.104 Miscellaneous editorial corrections&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#88e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200562&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0041&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications to communication service performance requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#88e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200567&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0048&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Miscellaneous values for further study&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#88e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200562&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0045&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correcting description of communication service status in Clause C.3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#88e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200562&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0047&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clock synchronicity budget for the 5G system&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#89e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200790&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0055&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Quality improvement – burst definition&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#89e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200790&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0058&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;CR 22.104 R17 - Editorial Improvements – Decimal Separator&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#91e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210200&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0063&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Non-inclusive language replacement 22.104&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.5.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#91e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210217&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Adding energy efficiency use cases for positioning to the ANNEX A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.5.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210564&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0075&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Quality improvement - update of definition of communication service availability &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210565&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0066&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Quality improvement - addition of new annex (relationship between reliability and communication service availability) &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210565&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0068&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;22.104 - V18.0.0 - quality improvement - update of mobile-robots use case description  &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210565&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0069&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of mobile-robot use cases (UE number)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210565&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Quality improvement - service duration &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210517&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0065&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5G timing resiliency &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210524&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0073&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignment of positioning power consumption aspects between 22.261 and 22.104&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#92e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210524&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0072&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Adding LPHAP requirements for Industrial IoT&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#93e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211038&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0077&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Quality improvement: update of reference to IEEE 802.1AS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#93e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0078&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Introduction of Smart Energy Infrastructure Requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#93e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0080&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Annex for smart grid&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#93e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0082&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Introduction of SEI KPIs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#93e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0083&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Adjusting scope clause in TS 22.104 to the specification s content&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#93e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211039&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0084&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of requirements for clock synchronization with direct device connection and indirect network connection communication&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#93e&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0087&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Inclusion of Smart Energy Infrastructure Requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-94&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211497&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0089&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of references for clause 2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-94&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211497&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0090&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;\xa0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Remove editor note for Figure A.4.4.3-1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-94&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211497&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update to Smart Grid normative requirements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230230&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Additional clarification on security, privacy for mobile robots using edge cloud&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;19.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230230&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0094&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;An additional u</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.2.2.5	Cooperative carrying&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.2.1	General&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TS_22_104.docx</t>
+          <t>TS_22_125.docx</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1792,58 +2127,73 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1.056676268577576</v>
+        <v>1.079438328742981</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>['', 'NOTE: \tThe following requirements are valid for both centralized and decentralized UTM.', '', '[R-5.2.1-001] The 3GPP system shall provide a mechanism for a UTM to provide route data, along with flight clearance, to a UAV.', '', '[R-5.2.1-002] The 3GPP system shall be able to deliver route modification information received from a UTM to a UAS with a latency of less than 500ms.', '', '[R-5.2.1-003] The 3GPP system shall be able to deliver the notifications received from a UTM to a UAV controller with a latency of less than 500ms.', '', '[R-5.2.1-004] Based on MNO policies and/or regulatory requirements, the 3GPP system shall enable the UTM to take over the communication used to control the UAV.', '']</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.2.3.1	Closed-loop control&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.2.1	General&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TS_22_104.docx</t>
+          <t>TS_22_125.docx</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1.051235198974609</v>
+        <v>1.111117959022522</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>['', 'NOTE: \tThe following requirements are valid for both centralized and decentralized UTM.', '', '[R-5.2.1-001] The 3GPP system shall provide a mechanism for a UTM to provide route data, along with flight clearance, to a UAV.', '', '[R-5.2.1-002] The 3GPP system shall be able to deliver route modification information received from a UTM to a UAS with a latency of less than 500ms.', '', '[R-5.2.1-003] The 3GPP system shall be able to deliver the notifications received from a UTM to a UAV controller with a latency of less than 500ms.', '', '[R-5.2.1-004] Based on MNO policies and/or regulatory requirements, the 3GPP system shall enable the UTM to take over the communication used to control the UAV.', '']</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.2.3.2	Process and asset monitoring&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.2.2	Decentralized UAS traffic management&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TS_22_104.docx</t>
+          <t>TS_22_125.docx</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1.070376634597778</v>
+        <v>1.146703720092773</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>['', '[R-5.2.2-001] The 3GPP system shall enable a UAV to broadcast the following data for identifying UAV(s) in a short-range area for collision avoidance: e.g. UAV identities if needed based on different regulation requirements, UAV type, current location and time, flight route information, current speed, operating status.', '', '[R-5.2.2-002] The 3GPP system shall be able to support a UAV to transmit a message via network connection for identifying itself as an UAV to the other UAV(s).', '', '[R-5.2.2-003] The 3GPP system shall enable UAV to preserve the privacy of the owner of the UAV, UAV pilot, and the UAV operator in its broadcast of identity information.', '', '[R-5.2.2-004] The 3GPP system shall enable a UAV to receive local broadcast communication transport service from other UAV in short range.', '', '[R-5.2.2-005] A UAV shall be able to use a direct UAV to UAV local broadcast communication transport service in the coverage or out of coverage of a 3GPP network.', '', '[R-5.2.2-006] A UAV shall be able to use a direct UAV to UAV local broadcast communication transport service when the sending and receiving UAVs are served by the same or different PLMNs.', '', '[R-5.2.2-007] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service at relative speeds of up to 320kmph.', '', '[R-5.2.2-008] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service with variable message payloads of 50-1500 bytes, not including security-related message component(s).', '', '[R-5.2.2-009] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service which supports a range of up to 600m.', '', '[R-5.2.2-010] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service which can transmit messages at a frequency of at least 10 messages per second.', '', '[R-5.2.2-011] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service which can transmit messages with an end-to-end latency of at most 100ms.', '']</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.2.3.3	Plant asset management&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.2.2	Decentralized UAS traffic management&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TS_22_104.docx</t>
+          <t>TS_22_125.docx</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1852,13 +2202,18 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1.065897583961487</v>
+        <v>1.0990971326828</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>['', '[R-5.2.2-001] The 3GPP system shall enable a UAV to broadcast the following data for identifying UAV(s) in a short-range area for collision avoidance: e.g. UAV identities if needed based on different regulation requirements, UAV type, current location and time, flight route information, current speed, operating status.', '', '[R-5.2.2-002] The 3GPP system shall be able to support a UAV to transmit a message via network connection for identifying itself as an UAV to the other UAV(s).', '', '[R-5.2.2-003] The 3GPP system shall enable UAV to preserve the privacy of the owner of the UAV, UAV pilot, and the UAV operator in its broadcast of identity information.', '', '[R-5.2.2-004] The 3GPP system shall enable a UAV to receive local broadcast communication transport service from other UAV in short range.', '', '[R-5.2.2-005] A UAV shall be able to use a direct UAV to UAV local broadcast communication transport service in the coverage or out of coverage of a 3GPP network.', '', '[R-5.2.2-006] A UAV shall be able to use a direct UAV to UAV local broadcast communication transport service when the sending and receiving UAVs are served by the same or different PLMNs.', '', '[R-5.2.2-007] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service at relative speeds of up to 320kmph.', '', '[R-5.2.2-008] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service with variable message payloads of 50-1500 bytes, not including security-related message component(s).', '', '[R-5.2.2-009] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service which supports a range of up to 600m.', '', '[R-5.2.2-010] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service which can transmit messages at a frequency of at least 10 messages per second.', '', '[R-5.2.2-011] The 3GPP system shall support a direct UAV to UAV local broadcast communication transport service which can transmit messages with an end-to-end latency of at most 100ms.', '']</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.2.3.4	Inspection in production systems&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.6C.1	Description&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1868,17 +2223,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1.076881408691406</v>
+        <v>1.17250669002533</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>['', 'Transmission infrastructure is a key component of the energy system. Communication enables protection of this infrastructure. The algorithms involved depend on certain constraints must be met, particularly concerning the end-to-end latency.', '']</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.2.4.1	Mobile control panels&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.6C.1	Description&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1892,13 +2252,18 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1.062623858451843</v>
+        <v>1.15169632434845</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>['', 'Transmission infrastructure is a key component of the energy system. Communication enables protection of this infrastructure. The algorithms involved depend on certain constraints must be met, particularly concerning the end-to-end latency.', '']</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.2.4.1A	Mobile operation panels&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.6C.2	Requirements&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1912,13 +2277,18 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1.079602837562561</v>
+        <v>1.102659106254578</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>['', 'The 5G system shall support an end-to-end latency of less than 5 ms or 10 ms, as requested by the UE initiating the communication.', '', 'NOTE 1: Whether the end-to-end latency is 5 ms or 10 ms depends on the applied voltage level. ', '', 'NOTE 2: The end-to-end latency is between two UEs, including two wireless links.', '', 'The 5G system shall support communication channel symmetry in terms of end-to-end latency (latency from UE1 to UE2, and end-to-end latency from UE2 to UE1), with an asymmetry of &amp;lt; 2ms. ', '']</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.2.4.2	Augmented reality&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.6C.2	Requirements&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1928,17 +2298,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1.083056926727295</v>
+        <v>1.093493938446045</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>['', 'The 5G system shall support an end-to-end latency of less than 5 ms or 10 ms, as requested by the UE initiating the communication.', '', 'NOTE 1: Whether the end-to-end latency is 5 ms or 10 ms depends on the applied voltage level. ', '', 'NOTE 2: The end-to-end latency is between two UEs, including two wireless links.', '', 'The 5G system shall support communication channel symmetry in terms of end-to-end latency (latency from UE1 to UE2, and end-to-end latency from UE2 to UE1), with an asymmetry of &amp;lt; 2ms. ', '']</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.2.5.1	Remote access and maintenance&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.7.1	General requirements&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1952,13 +2327,18 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1.096679210662842</v>
+        <v>1.080620169639587</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>['', 'High accuracy positioning is becoming essential for Factories of the Future. The reason for this is that tracking of mobile devices as well as mobile assets is becoming increasingly important in improving processes and increasing flexibility in industrial environments.', '', 'The 5G system shall provide positioning information for a UE that is out of coverage of the network, with accuracy of &amp;lt;\xa0[1 m] relative to other UEs that are in proximity and in coverage of the network.', '', 'Table 5.7.1-1 below lists typical scenarios and the corresponding high positioning requirements for horizontal and vertical accuracy, availability, heading, latency, and UE speed.', '', 'NOTE:\tThe column on "Corresponding Positioning Service Level in TS 22.261" maps the scenarios listed in Table 5.7.1-1 to the service levels defined in TS 22.261 [2].', '', 'Table 5.7.1-1: Positioning performance requirements', '', 'Scenario', '', 'Horizontal accuracy', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Vertical accuracy&lt;/b&gt;&lt;/span&gt;', '', 'Availability', '', 'Heading', '', 'Latency for position estimation of UE', '', 'UE speed', '', 'Corresponding Positioning Service Level in TS 22.261', '', 'Mobile control panels with safety functions (non-danger zones)', '', '&amp;lt; 5 m ', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; 3 m&lt;/span&gt;', '', '90\xa0%', '', 'n/a', '', '&amp;lt; 5 s', '', 'n/a', '', 'Service Level 2', '', 'Process automation – plant asset management', '', '&amp;lt; 1 m', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; 3 m&lt;/span&gt;', '', '90\xa0%', '', 'n/a', '', '&amp;lt; 2 s', '', '&amp;lt; 30 km/h', '', 'Service Level 3', '', 'Flexible, modular assembly area in smart factories (for tracking of tools at the work-place location)', '', '&amp;lt; 1\xa0m (relative positioning)', '', 'n/a', '', '99\xa0%', '', 'n/a', '', '1 s', '', '&amp;lt; 30 km/h', '', 'Service Level 3', '', 'Augmented reality in smart factories', '', '&amp;lt; 1 m', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; 3 m&lt;/span&gt;', '', '99\xa0%', '', '&amp;lt;\xa00.17\xa0rad ', '', '&amp;lt; 15 ms', '', '&amp;lt; 10 km/h', '', 'Service Level 4', '', 'Mobile control panels with safety functions in smart factories (within factory danger zones)', '', '&amp;lt; 1 m', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; 3 m&lt;/span&gt;', '', '99.9\xa0% ', '', '&amp;lt;\xa00.54\xa0rad', '', '&amp;lt; 1 s', '', 'n/a', '', 'Service Level 4', '', 'Flexible, modular assembly area in smart factories (for autonomous vehicles, only for monitoring purposes)', '', '&amp;lt; 50 cm', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; 3 m&lt;/span&gt;', '', '99\xa0%', '', 'n/a', '', '1 s', '', '&amp;lt; 30 km/h', '', 'Service Level 5', '', 'Inbound logistics for manufacturing (for driving trajectories (if supported by further sensors like camera, GNSS, IMU) of indoor autonomous driving systems))', '', '&amp;lt; 30 cm (if supported by further sensors like camera, GNSS, IMU) ', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; 3 m&lt;/span&gt;', '', '99.9\xa0%', '', 'n/a', '', '10 ms', '', '&amp;lt; 30 km/h', '', 'Service Level 6', '', 'Inbound logistics for manufacturing (for storage of goods)', '', '&amp;lt; 20 cm', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; 20 cm&lt;/span&gt;', '', '99\xa0%', '', 'n/a', '', '&amp;lt; 1 s', '', '&amp;lt; 30 km/h', '', 'Service Level 7', '', '', '']</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.4.2	Primary frequency control&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;5.7.1	General requirements&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1968,17 +2348,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1.067105174064636</v>
+        <v>1.123344779014587</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>['', 'High accuracy positioning is becoming essential for Factories of the Future. The reason for this is that tracking of mobile devices as well as mobile assets is becoming increasingly important in improving processes and increasing flexibility in industrial environments.', '', 'The 5G system shall provide positioning information for a UE that is out of coverage of the network, with accuracy of &amp;lt;\xa0[1 m] relative to other UEs that are in proximity and in coverage of the network.', '', 'Table 5.7.1-1 below lists typical scenarios and the corresponding high positioning requirements for horizontal and vertical accuracy, availability, heading, latency, and UE speed.', '', 'NOTE:\tThe column on "Corresponding Positioning Service Level in TS 22.261" maps the scenarios listed in Table 5.7.1-1 to the service levels defined in TS 22.261 [2].', '', 'Table 5.7.1-1: Positioning performance requirements', '', 'Scenario', '', 'Horizontal accuracy', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Vertical accuracy&lt;/b&gt;&lt;/span&gt;', '', 'Availability', '', 'Heading', '', 'Latency for position estimation of UE', '', 'UE speed', '', 'Corresponding Positioning Service Level in TS 22.261', '', 'Mobile control panels with safety functions (non-danger zones)', '', '&amp;lt; 5 m ', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; 3 m&lt;/span&gt;', '', '90\xa0%', '', 'n/a', '', '&amp;lt; 5 s', '', 'n/a', '', 'Service Level 2', '', 'Process automation – plant asset management', '', '&amp;lt; 1 m', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; 3 m&lt;/span&gt;', '', '90\xa0%', '', 'n/a', '', '&amp;lt; 2 s', '', '&amp;lt; 30 km/h', '', 'Service Level 3', '', 'Flexible, modular assembly area in smart factories (for tracking of tools at the work-place location)', '', '&amp;lt; 1\xa0m (relative positioning)', '', 'n/a', '', '99\xa0%', '', 'n/a', '', '1 s', '', '&amp;lt; 30 km/h', '', 'Service Level 3', '', 'Augmented reality in smart factories', '', '&amp;lt; 1 m', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; 3 m&lt;/span&gt;', '', '99\xa0%', '', '&amp;lt;\xa00.17\xa0rad ', '', '&amp;lt; 15 ms', '', '&amp;lt; 10 km/h', '', 'Service Level 4', '', 'Mobile control panels with safety functions in smart factories (within factory danger zones)', '', '&amp;lt; 1 m', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; 3 m&lt;/span&gt;', '', '99.9\xa0% ', '', '&amp;lt;\xa00.54\xa0rad', '', '&amp;lt; 1 s', '', 'n/a', '', 'Service Level 4', '', 'Flexible, modular assembly area in smart factories (for autonomous vehicles, only for monitoring purposes)', '', '&amp;lt; 50 cm', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; 3 m&lt;/span&gt;', '', '99\xa0%', '', 'n/a', '', '1 s', '', '&amp;lt; 30 km/h', '', 'Service Level 5', '', 'Inbound logistics for manufacturing (for driving trajectories (if supported by further sensors like camera, GNSS, IMU) of indoor autonomous driving systems))', '', '&amp;lt; 30 cm (if supported by further sensors like camera, GNSS, IMU) ', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; 3 m&lt;/span&gt;', '', '99.9\xa0%', '', 'n/a', '', '10 ms', '', '&amp;lt; 30 km/h', '', 'Service Level 6', '', 'Inbound logistics for manufacturing (for storage of goods)', '', '&amp;lt; 20 cm', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; 20 cm&lt;/span&gt;', '', '99\xa0%', '', 'n/a', '', '&amp;lt; 1 s', '', '&amp;lt; 30 km/h', '', 'Service Level 7', '', '', '']</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.4.3	Distributed voltage control&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;A.2.2.1	Motion control&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1992,13 +2377,18 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1.079986572265625</v>
+        <v>1.075054407119751</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>['', 'A motion control system is responsible for controlling moving and/or rotating parts of machines in a well-defined manner, for example in printing machines, machine tools or packaging machines.', '', 'A schematic representation of a motion control system is depicted in Figure A.2.2.1-1. A motion controller periodically sends desired set points to one or several actuators (e.g., a linear actuator or a drive) which thereupon perform a corresponding action on one or several processes (in this case usually a movement or rotation of a certain component). At the same time, sensors determine the current state of the process(es), e.g. the current position and/or rotation of one or multiple components, and send the actual values back to the motion controller. This is done in a strictly cyclic and deterministic manner, such that during one application cycle the motion controller sends updated set points to all actuators, and all sensors send their actual values back to the motion controller. Nowadays, typically Industrial Ethernet technologies are used for motion control systems. ', '', '', '', '----media/image4.emf----', '', 'Figure A.2.2.1-1: Schematic representation of a motion control system', '', 'Table A.2.2.1-1: Service performance requirements for motion control', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: lower bound', '', 'Transfer interval: upper bound', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note)', '', '1', '', '99.999 to 99.999\xa099', '', '~ 10 years', '', '', '', '&amp;lt; transfer interval value', '', '–', '', '50', '', '500\xa0μs – 500\xa0ns', '', '500\xa0μs + 500\xa0ns', '', '500\xa0μs', '', '≤ 72\xa0km/h', '', '≤ 20', '', '50 m x 10 m x 10 m', '', '2', '', '99.999\xa09 to 99.999\xa0999', '', '~ 10 years', '', '&amp;lt; transfer interval value', '', '–', '', '40', '', '1 ms – 500\xa0ns', '', '1 ms + 500\xa0ns', '', '1 ms', '', '≤ 72\xa0km/h', '', '≤ 50', '', '50 m x 10 m x 10 m', '', '3', '', '99.999\xa09 to 99.999\xa0999', '', '~ 10 years', '', '&amp;lt; transfer interval value', '', '–', '', '&lt;span style="color:000000;font-size:22pt"&gt;20&lt;/span&gt;', '', '', '', '2 ms – 500\xa0ns', '', '2 ms + 500\xa0ns', '', '2 ms', '', '≤ 72\xa0km/h', '', '≤\xa0100', '', '50 m x 10 m x 10 m', '', 'NOTE:\tLength x width x height.', '', '', '', '&lt;i&gt;Use cases one to three&lt;/i&gt;', '', 'Characteristic parameters and influence quantities for a communication service supporting the cyclic interaction described above.', '']</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.4.4.1	Distributed automated switching for isolation and service restoration&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;A.2.2.1	Motion control&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2008,17 +2398,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1.071926951408386</v>
+        <v>1.119012951850891</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>['', 'A motion control system is responsible for controlling moving and/or rotating parts of machines in a well-defined manner, for example in printing machines, machine tools or packaging machines.', '', 'A schematic representation of a motion control system is depicted in Figure A.2.2.1-1. A motion controller periodically sends desired set points to one or several actuators (e.g., a linear actuator or a drive) which thereupon perform a corresponding action on one or several processes (in this case usually a movement or rotation of a certain component). At the same time, sensors determine the current state of the process(es), e.g. the current position and/or rotation of one or multiple components, and send the actual values back to the motion controller. This is done in a strictly cyclic and deterministic manner, such that during one application cycle the motion controller sends updated set points to all actuators, and all sensors send their actual values back to the motion controller. Nowadays, typically Industrial Ethernet technologies are used for motion control systems. ', '', '', '', '----media/image4.emf----', '', 'Figure A.2.2.1-1: Schematic representation of a motion control system', '', 'Table A.2.2.1-1: Service performance requirements for motion control', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: lower bound', '', 'Transfer interval: upper bound', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note)', '', '1', '', '99.999 to 99.999\xa099', '', '~ 10 years', '', '', '', '&amp;lt; transfer interval value', '', '–', '', '50', '', '500\xa0μs – 500\xa0ns', '', '500\xa0μs + 500\xa0ns', '', '500\xa0μs', '', '≤ 72\xa0km/h', '', '≤ 20', '', '50 m x 10 m x 10 m', '', '2', '', '99.999\xa09 to 99.999\xa0999', '', '~ 10 years', '', '&amp;lt; transfer interval value', '', '–', '', '40', '', '1 ms – 500\xa0ns', '', '1 ms + 500\xa0ns', '', '1 ms', '', '≤ 72\xa0km/h', '', '≤ 50', '', '50 m x 10 m x 10 m', '', '3', '', '99.999\xa09 to 99.999\xa0999', '', '~ 10 years', '', '&amp;lt; transfer interval value', '', '–', '', '&lt;span style="color:000000;font-size:22pt"&gt;20&lt;/span&gt;', '', '', '', '2 ms – 500\xa0ns', '', '2 ms + 500\xa0ns', '', '2 ms', '', '≤ 72\xa0km/h', '', '≤\xa0100', '', '50 m x 10 m x 10 m', '', 'NOTE:\tLength x width x height.', '', '', '', '&lt;i&gt;Use cases one to three&lt;/i&gt;', '', 'Characteristic parameters and influence quantities for a communication service supporting the cyclic interaction described above.', '']</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.4.4.2	Distributed automation without GOOSE&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;A.2.2.2	Control-to-control communication&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2032,13 +2427,18 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1.089218735694885</v>
+        <v>1.075143218040466</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>['', 'Control-to-control communication, i.e., the communication between different industrial controllers is already used today for different use cases, such as:', '', '- \tlarge machines (e.g., newspaper printing machines), where several controls are used to cluster machine functions, which need to communicate with each other; these controls typically need to be synchronised and exchange real-time data;', '', '-\tindividual machines that are used for fulfilling a common task (e.g., machines in an assembly line) often need to communicate, for example for controlling and coordinating the handover of work pieces from one machine to another.', '', 'Typically, a control-to-control network has no fixed configuration of certain controls that need to be present. The control nodes present in the network often vary with the status of machines and the manufacturing plant. Therefore, hot-plugging support for different control nodes is important and often used.', '', 'Table A.2.2.2-1: Service performance requirements for control-to control communication in motion control', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Message size [byte]', '', 'Transfer interval', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note 1)', '', '1', '', '(note 2)', '', '99.999\xa09 to 99.999\xa0999', '', '~ 10 years', '', '&amp;lt; transfer interval value', '', '1 k', '', '≤\xa010\xa0ms', '', '10 ms', '', 'stationary', '', '5 to 10', '', '100 m x 30\xa0m x 10 m', '', '2', '', '(note 2)', '', '99.999\xa09 to 99.999\xa0999', '', '~ 10 years', '', '&amp;lt; transfer interval value', '', '1 k', '', '≤\xa050\xa0ms', '', '50 ms', '', 'stationary', '', '5 to 10', '', '1,000\xa0m x 30\xa0m x 10 m', '', 'NOTE 1:\tLength x width x height.', '', 'NOTE 2:\tCommunication may include two wireless links (UE to UE)', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Control-to-control communication between different motion (control) subsystems, as addressed in Subclause A.2.2.1. An exemplary application for this is large printing machines, where it is not possible or desired to control all actuators and sensors by one motion controller only. ', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Control-to-control communication between different motion (control) subsystems. Exemplary application for this are extra-large machines or individual machines used for fulfilling a common task (e.g., machines in an assembly line).', '', '', '']</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.4.4.3	Intelligent distributed feeder automation&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;A.2.2.2	Control-to-control communication&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2048,17 +2448,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1.093906879425049</v>
+        <v>1.113874554634094</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>['', 'Control-to-control communication, i.e., the communication between different industrial controllers is already used today for different use cases, such as:', '', '- \tlarge machines (e.g., newspaper printing machines), where several controls are used to cluster machine functions, which need to communicate with each other; these controls typically need to be synchronised and exchange real-time data;', '', '-\tindividual machines that are used for fulfilling a common task (e.g., machines in an assembly line) often need to communicate, for example for controlling and coordinating the handover of work pieces from one machine to another.', '', 'Typically, a control-to-control network has no fixed configuration of certain controls that need to be present. The control nodes present in the network often vary with the status of machines and the manufacturing plant. Therefore, hot-plugging support for different control nodes is important and often used.', '', 'Table A.2.2.2-1: Service performance requirements for control-to control communication in motion control', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Message size [byte]', '', 'Transfer interval', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note 1)', '', '1', '', '(note 2)', '', '99.999\xa09 to 99.999\xa0999', '', '~ 10 years', '', '&amp;lt; transfer interval value', '', '1 k', '', '≤\xa010\xa0ms', '', '10 ms', '', 'stationary', '', '5 to 10', '', '100 m x 30\xa0m x 10 m', '', '2', '', '(note 2)', '', '99.999\xa09 to 99.999\xa0999', '', '~ 10 years', '', '&amp;lt; transfer interval value', '', '1 k', '', '≤\xa050\xa0ms', '', '50 ms', '', 'stationary', '', '5 to 10', '', '1,000\xa0m x 30\xa0m x 10 m', '', 'NOTE 1:\tLength x width x height.', '', 'NOTE 2:\tCommunication may include two wireless links (UE to UE)', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Control-to-control communication between different motion (control) subsystems, as addressed in Subclause A.2.2.1. An exemplary application for this is large printing machines, where it is not possible or desired to control all actuators and sensors by one motion controller only. ', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Control-to-control communication between different motion (control) subsystems. Exemplary application for this are extra-large machines or individual machines used for fulfilling a common task (e.g., machines in an assembly line).', '', '', '']</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;A.4.4.4	High-speed current differential protection&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;A.2.2.3	Mobile robots&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2072,13 +2477,18 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1.052699208259583</v>
+        <v>1.057597637176514</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>['', 'Mobile robots and mobile platforms, such as automated guided vehicles, have numerous applications in industrial and intra-logistics environments and will play an increasingly important role in the Factory of the Future. A mobile robot essentially is a programmable machine able to execute multiple operations, following programmed paths to fulfil a large variety of tasks. This means, a mobile robot can perform activities like assistance in work steps, collaboration with other robots, e.g. for car assembly, and transport of goods, materials and other objects. Mobile robot systems are characterised by a maximum flexibility in mobility relative to the environment, with a certain level of autonomy and perception ability, i.e., they can sense and react with their environment. ', '', 'Autonomous guided vehicles (AGVs) are a sub-group of mobile robots. AGVs are driverless and used for moving materials efficiently within a facility. A detailed overview of the state of the art of autonomous-guided-vehicle systems is provided elsewhere in the literature [16]. All mobile robots incorporate all functionalities needed for an AGV.', '', 'Today, the AGV’s control intelligence is hosted inside the AGV. In the future, centralised fleet control will be hosted in the edge cloud, which will require reliable wireless communication between the control entity and all AGVs. Also, the current paradigm of pre-describing a route for the AGV will be replaced with target-based navigation. This paradigm change will make AGV routes more flexible.', '', 'Mobile robots are monitored and controlled from a guidance control system. Radio-controlled guidance control is necessary to get up-to-date process information, to avoid collisions between mobile robots, to assign driving jobs to the mobile robots, and to manage the traffic of mobile robots. The mobile robots are track-guided by the infrastructure with markers or wires in the floor or guided by own surround sensors, like cameras and laser scanners. ', '', 'Mobile robot systems can be divided in operation in indoor, outdoor and both indoor and outdoor areas. These environmental conditions have an impact on the requirements of the communication system, e.g., the handover process, to guarantee the required cycle times. ', '', 'Where this document does not explicitly refer to AGVs, the term &lt;i&gt;mobile robots&lt;/i&gt; applies to AGVs as well as to mobile robots.', '', '', '', 'Table A&lt;b&gt;.&lt;/b&gt;2.2.3-1: Service performance requirements for mobile robots', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: lower bound', '', 'Transfer interval: target value (note)', '', 'Transfer interval: upper bound', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area', '', '1', '', '&amp;gt; 99.999\xa09', '', '~ 10 years', '', '&amp;lt; target transfer interval value', '', '–', '', '40 to 250', '', ' – &amp;lt; 25\xa0% of target transfer interval value', '', '1\xa0ms to 50\xa0ms', '', '+ &amp;lt; 25\xa0% of target transfer interval value', '', 'target transfer interval value', '', '≤ 50 km/h', '', '≤\xa02,000', '', '≤ 1 km&lt;sup&gt;2&lt;/sup&gt;', '', '2', '', '&amp;gt; 99.999\xa09', '', '~ 1 year', '', '&amp;lt; target transfer interval value', '', '–', '', '15 k to 250\xa0k', '', '– &amp;lt; 25\xa0% of target transfer interval value', '', '10\xa0ms to 100\xa0ms', '', '+ &amp;lt; 25\xa0% of target transfer interval value', '', 'target transfer interval value', '', '≤ 50 km/h', '', '≤\xa02,000', '', '≤ 1 km&lt;sup&gt;2&lt;/sup&gt;', '', '3', '', '&amp;gt; 99.999\xa09', '', '~ 1 year', '', '&amp;lt; target transfer interval value', '', '–', '', '40 to 250', '', '– &amp;lt; 25\xa0% of target transfer interval value', '', '40 ms to 500 ms', '', '+ &amp;lt; 25\xa0% of target transfer interval value', '', 'target transfer interval value', '', '≤ 50 km/h', '', '≤\xa02,000', '', '≤ 1 km&lt;sup&gt;2&lt;/sup&gt;', '', '4', '', '&amp;gt; 99.999\xa09', '', '~ 1 week', '', '10 ms', '', '&amp;gt; 10 Mbit/s', '', '–', '', '–', '', '', '', '–', '', '–', '', '≤ 50 km/h', '', '≤\xa02,000', '', '≤ 1 km&lt;sup&gt;2&lt;/sup&gt;', '', 'NOTE:\tThe transfer interval is not so strictly periodic in these use cases. The transfer interval deviates around its target value within bounds. The mean of the transfer interval is close to the target value.', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic communication for the support of precise cooperative robotic motion control (transfer interval: 1 ms), machine control (transfer interval: 1 ms to 10 ms), co-operative driving (10 ms to 50 ms).', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Periodic communication for video-operated remote control.', '', '&lt;i&gt;Use case three&lt;/i&gt;', '', 'Periodic communication for standard mobile robot operation and traffic management.', '', '&lt;i&gt;Use case four&lt;/i&gt;', '', 'Real-time streaming data transmission (video data) from a mobile robot to the guidance control system.', '', '&lt;b&gt;Additional information&lt;/b&gt;', '', 'AGVs have the following needs.', '', '–\tThe direct-device control is time-critical since the communication involves safety-relevant functions such as emergency stop and the avoidance of obstacles.\xa0', '', '–\tFor the implementation of swarm intelligence, position and availability information are needed. A possible route change due to a blocked route affects the routes of all other AGVs that will follow. The communication is less time-critical than for safety-relevant functions.', '', '–\tCamera-based\xa0navigation requires high data rates. Examples for camera-based navigation are the positioning of boxes/containers, detection of persons and obstacles, as well as creation and administration of a map for flexible navigation. Note that sensor-based navigation requires lower data rates than camera-based navigation.', '', '–\tAGV route control and emergency safety related time critical latency and response can be achieved with an edge cloud where the edge infrastructure is located close to the AGVs', '', 'Mobile robots have additional needs.', '', '–\tThe mobile robot provides an additional service during transport (for instance quality inspection, scanning of surroundings, asset identification, carrying of work pieces). In order to reduce the uplink data rate, pre-compression of data is possible directly on the device. The communication is not or at least less time-critical than the motion control of the mobile robot.', '', '–\tThe mobile robot needs to interact with the periphery (for instance intelligent storage racks, stationary robots, and moving machines). This communication is time-critical. Interaction with the periphery can be relevant at the start point, end point, and also at several intermediate stations (for instance the collection of parts from intelligent storage racks). The exact position and orientation can be determined by a centering station and the AGV sensors. Additional scanning by the robot with a video camera may be necessary.', '', '–\tFor some mobile robots, their control intelligence might be centralized and hosted in an edge cloud. They require secure communication towards the edge cloud. If the path layout such a mobile robot follows (e.g., including indoor and outdoor) causes it to switch the communication between a private network and a public network, consideration should be given to provide the required level of security for communication.', '', '–\tMobile robots whose control intelligence is centralized and hosted in the edge cloud needs privacy protection of data stored in the edge cloud.', '', '–\tIn order to be able to process time-sensitive data from local sensors and devices (AGVs, robots etc.) in an edge cloud, the edge infrastructure needs to be on-premise or close to the factory', '']</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.4.5	Smart grid millisecond-level precise load control&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;A.2.2.3	Mobile robots&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2088,17 +2498,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1.081424474716187</v>
+        <v>1.099619150161743</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>['', 'Mobile robots and mobile platforms, such as automated guided vehicles, have numerous applications in industrial and intra-logistics environments and will play an increasingly important role in the Factory of the Future. A mobile robot essentially is a programmable machine able to execute multiple operations, following programmed paths to fulfil a large variety of tasks. This means, a mobile robot can perform activities like assistance in work steps, collaboration with other robots, e.g. for car assembly, and transport of goods, materials and other objects. Mobile robot systems are characterised by a maximum flexibility in mobility relative to the environment, with a certain level of autonomy and perception ability, i.e., they can sense and react with their environment. ', '', 'Autonomous guided vehicles (AGVs) are a sub-group of mobile robots. AGVs are driverless and used for moving materials efficiently within a facility. A detailed overview of the state of the art of autonomous-guided-vehicle systems is provided elsewhere in the literature [16]. All mobile robots incorporate all functionalities needed for an AGV.', '', 'Today, the AGV’s control intelligence is hosted inside the AGV. In the future, centralised fleet control will be hosted in the edge cloud, which will require reliable wireless communication between the control entity and all AGVs. Also, the current paradigm of pre-describing a route for the AGV will be replaced with target-based navigation. This paradigm change will make AGV routes more flexible.', '', 'Mobile robots are monitored and controlled from a guidance control system. Radio-controlled guidance control is necessary to get up-to-date process information, to avoid collisions between mobile robots, to assign driving jobs to the mobile robots, and to manage the traffic of mobile robots. The mobile robots are track-guided by the infrastructure with markers or wires in the floor or guided by own surround sensors, like cameras and laser scanners. ', '', 'Mobile robot systems can be divided in operation in indoor, outdoor and both indoor and outdoor areas. These environmental conditions have an impact on the requirements of the communication system, e.g., the handover process, to guarantee the required cycle times. ', '', 'Where this document does not explicitly refer to AGVs, the term &lt;i&gt;mobile robots&lt;/i&gt; applies to AGVs as well as to mobile robots.', '', '', '', 'Table A&lt;b&gt;.&lt;/b&gt;2.2.3-1: Service performance requirements for mobile robots', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: lower bound', '', 'Transfer interval: target value (note)', '', 'Transfer interval: upper bound', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area', '', '1', '', '&amp;gt; 99.999\xa09', '', '~ 10 years', '', '&amp;lt; target transfer interval value', '', '–', '', '40 to 250', '', ' – &amp;lt; 25\xa0% of target transfer interval value', '', '1\xa0ms to 50\xa0ms', '', '+ &amp;lt; 25\xa0% of target transfer interval value', '', 'target transfer interval value', '', '≤ 50 km/h', '', '≤\xa02,000', '', '≤ 1 km&lt;sup&gt;2&lt;/sup&gt;', '', '2', '', '&amp;gt; 99.999\xa09', '', '~ 1 year', '', '&amp;lt; target transfer interval value', '', '–', '', '15 k to 250\xa0k', '', '– &amp;lt; 25\xa0% of target transfer interval value', '', '10\xa0ms to 100\xa0ms', '', '+ &amp;lt; 25\xa0% of target transfer interval value', '', 'target transfer interval value', '', '≤ 50 km/h', '', '≤\xa02,000', '', '≤ 1 km&lt;sup&gt;2&lt;/sup&gt;', '', '3', '', '&amp;gt; 99.999\xa09', '', '~ 1 year', '', '&amp;lt; target transfer interval value', '', '–', '', '40 to 250', '', '– &amp;lt; 25\xa0% of target transfer interval value', '', '40 ms to 500 ms', '', '+ &amp;lt; 25\xa0% of target transfer interval value', '', 'target transfer interval value', '', '≤ 50 km/h', '', '≤\xa02,000', '', '≤ 1 km&lt;sup&gt;2&lt;/sup&gt;', '', '4', '', '&amp;gt; 99.999\xa09', '', '~ 1 week', '', '10 ms', '', '&amp;gt; 10 Mbit/s', '', '–', '', '–', '', '', '', '–', '', '–', '', '≤ 50 km/h', '', '≤\xa02,000', '', '≤ 1 km&lt;sup&gt;2&lt;/sup&gt;', '', 'NOTE:\tThe transfer interval is not so strictly periodic in these use cases. The transfer interval deviates around its target value within bounds. The mean of the transfer interval is close to the target value.', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic communication for the support of precise cooperative robotic motion control (transfer interval: 1 ms), machine control (transfer interval: 1 ms to 10 ms), co-operative driving (10 ms to 50 ms).', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Periodic communication for video-operated remote control.', '', '&lt;i&gt;Use case three&lt;/i&gt;', '', 'Periodic communication for standard mobile robot operation and traffic management.', '', '&lt;i&gt;Use case four&lt;/i&gt;', '', 'Real-time streaming data transmission (video data) from a mobile robot to the guidance control system.', '', '&lt;b&gt;Additional information&lt;/b&gt;', '', 'AGVs have the following needs.', '', '–\tThe direct-device control is time-critical since the communication involves safety-relevant functions such as emergency stop and the avoidance of obstacles.\xa0', '', '–\tFor the implementation of swarm intelligence, position and availability information are needed. A possible route change due to a blocked route affects the routes of all other AGVs that will follow. The communication is less time-critical than for safety-relevant functions.', '', '–\tCamera-based\xa0navigation requires high data rates. Examples for camera-based navigation are the positioning of boxes/containers, detection of persons and obstacles, as well as creation and administration of a map for flexible navigation. Note that sensor-based navigation requires lower data rates than camera-based navigation.', '', '–\tAGV route control and emergency safety related time critical latency and response can be achieved with an edge cloud where the edge infrastructure is located close to the AGVs', '', 'Mobile robots have additional needs.', '', '–\tThe mobile robot provides an additional service during transport (for instance quality inspection, scanning of surroundings, asset identification, carrying of work pieces). In order to reduce the uplink data rate, pre-compression of data is possible directly on the device. The communication is not or at least less time-critical than the motion control of the mobile robot.', '', '–\tThe mobile robot needs to interact with the periphery (for instance intelligent storage racks, stationary robots, and moving machines). This communication is time-critical. Interaction with the periphery can be relevant at the start point, end point, and also at several intermediate stations (for instance the collection of parts from intelligent storage racks). The exact position and orientation can be determined by a centering station and the AGV sensors. Additional scanning by the robot with a video camera may be necessary.', '', '–\tFor some mobile robots, their control intelligence might be centralized and hosted in an edge cloud. They require secure communication towards the edge cloud. If the path layout such a mobile robot follows (e.g., including indoor and outdoor) causes it to switch the communication between a private network and a public network, consideration should be given to provide the required level of security for communication.', '', '–\tMobile robots whose control intelligence is centralized and hosted in the edge cloud needs privacy protection of data stored in the edge cloud.', '', '–\tIn order to be able to process time-sensitive data from local sensors and devices (AGVs, robots etc.) in an edge cloud, the edge infrastructure needs to be on-premise or close to the factory', '']</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.4.6	Distributed energy storage&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;A.2.2.4	Wired to wireless link replacement&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2112,13 +2527,18 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1.08225417137146</v>
+        <v>1.142407417297363</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>['', 'In a traditional factory, the production environment is fixed. Machines that are cooperating are connected via cable, typically using an industrial ethernet technology like PROFINET. In order to increase flexibility in the production setup, the wired links are replaced with wireless links. ', '', '----media/image5.emf---- ', '', 'Figure A.2.2.4-1: Example of four cooperating machines with wireless connections (based on [26])', '', 'We assume two or more machines (typically 4 or 5) to be cooperating with each other during production. In order to replace the cables, each machine is equipped with one UE, connected to the controller (shown in Figure A.2.2.4-1). The cooperating machine’s communication can be divided into two types. Periodic traffic and a-periodic traffic. Both types are scheduled, therefore the a-periodic traffic is also adhering to the transfer interval. The traffic requirements are from the point of view of the UE and give the maximum aggregate traffic of all links. Meaning, the traffic per link may change according to the number of cooperating machines but the total traffic at the UE cannot exceed the given values. ', '', 'Table A.2.2.4-1: Service performance requirements for wired to wireless link replacement', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Use case #&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Characteristic parameter&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Influence quantity&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Communication service availability: target value [%]&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Communication service reliability: mean time between failures&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;End-to-end latency: maximum&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Data rate [Mbit/s]&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Transfer interval&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Survival time&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;UE speed&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;# of UEs&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Service area (note\xa01)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;(periodic traffic)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;99.999\xa09 to 99.999\xa0999&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;~ 10 years&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; transfer interval value&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;50&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;≤\xa01\xa0ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;3 x transfer interval&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;stationary&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;2 to 5&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;100 m x 30\xa0m x 10 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;(aperiodic traffic)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;99.999\xa09 to 99.999\xa0999&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;~ 10 years&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; transfer interval value&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;25&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;≤\xa01\xa0ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;(note 2) &lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;stationary&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;2 to 5&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;100 m x&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;30 m x 10 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;(periodic traffic)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;99.999\xa09 to 99.999\xa0999&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;~ 10 years&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; transfer interval value&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;250&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;≤\xa01\xa0ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;3 x transfer interval&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;stationary&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;2 to 5&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;100 m x&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;30 m x 10 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;(aperiodic traffic)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;99.999\xa09 to 99.999\xa0999&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;~ 10 years&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; transfer interval value&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;500&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;≤\xa01\xa0ms &lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;(note 2)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;stationary&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;2 to 5&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;100 m x&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;30 m x 10 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;NOTE 1:&lt;/span&gt;\t&lt;span style="font-size:18pt"&gt;Length x width x height.&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;NOTE 2:&lt;/span&gt;\t&lt;span style="font-size:18pt"&gt;Transfer interval also applies for scheduled aperiodic traffic&lt;/span&gt;', '', '', '', '&lt;i&gt;Use case one &lt;/i&gt;', '', 'In the case of the 100 Mbit/s link replacement, 50\xa0% periodic traffic and 25\xa0% a-periodic traffic are assumed. ', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'In the case of the 1 Gbit/s link replacement, 25\xa0% periodic traffic and 50\xa0% a-periodic traffic are assumed. ', '']</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.4.7	Advanced metering&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;A.2.2.4	Wired to wireless link replacement&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2128,17 +2548,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1.091674208641052</v>
+        <v>1.171492338180542</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>['', 'In a traditional factory, the production environment is fixed. Machines that are cooperating are connected via cable, typically using an industrial ethernet technology like PROFINET. In order to increase flexibility in the production setup, the wired links are replaced with wireless links. ', '', '----media/image5.emf---- ', '', 'Figure A.2.2.4-1: Example of four cooperating machines with wireless connections (based on [26])', '', 'We assume two or more machines (typically 4 or 5) to be cooperating with each other during production. In order to replace the cables, each machine is equipped with one UE, connected to the controller (shown in Figure A.2.2.4-1). The cooperating machine’s communication can be divided into two types. Periodic traffic and a-periodic traffic. Both types are scheduled, therefore the a-periodic traffic is also adhering to the transfer interval. The traffic requirements are from the point of view of the UE and give the maximum aggregate traffic of all links. Meaning, the traffic per link may change according to the number of cooperating machines but the total traffic at the UE cannot exceed the given values. ', '', 'Table A.2.2.4-1: Service performance requirements for wired to wireless link replacement', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Use case #&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Characteristic parameter&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Influence quantity&lt;/b&gt;&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Communication service availability: target value [%]&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Communication service reliability: mean time between failures&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;End-to-end latency: maximum&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Data rate [Mbit/s]&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Transfer interval&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Survival time&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;UE speed&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;# of UEs&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Service area (note\xa01)&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;(periodic traffic)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;99.999\xa09 to 99.999\xa0999&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;~ 10 years&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; transfer interval value&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;50&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;≤\xa01\xa0ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;3 x transfer interval&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;stationary&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;2 to 5&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;100 m x 30\xa0m x 10 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;(aperiodic traffic)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;99.999\xa09 to 99.999\xa0999&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;~ 10 years&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; transfer interval value&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;25&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;≤\xa01\xa0ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;(note 2) &lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;stationary&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;2 to 5&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;100 m x&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;30 m x 10 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;(periodic traffic)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;99.999\xa09 to 99.999\xa0999&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;~ 10 years&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; transfer interval value&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;250&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;≤\xa01\xa0ms&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;3 x transfer interval&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;stationary&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;2 to 5&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;100 m x&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;30 m x 10 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;(aperiodic traffic)&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;99.999\xa09 to 99.999\xa0999&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;~ 10 years&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&amp;lt; transfer interval value&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;500&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;≤\xa01\xa0ms &lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;(note 2)&lt;/span&gt;', '', '', '', '&lt;span style="font-size:18pt"&gt;stationary&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;2 to 5&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;100 m x&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;30 m x 10 m&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;NOTE 1:&lt;/span&gt;\t&lt;span style="font-size:18pt"&gt;Length x width x height.&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;NOTE 2:&lt;/span&gt;\t&lt;span style="font-size:18pt"&gt;Transfer interval also applies for scheduled aperiodic traffic&lt;/span&gt;', '', '', '', '&lt;i&gt;Use case one &lt;/i&gt;', '', 'In the case of the 100 Mbit/s link replacement, 50\xa0% periodic traffic and 25\xa0% a-periodic traffic are assumed. ', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'In the case of the 1 Gbit/s link replacement, 25\xa0% periodic traffic and 50\xa0% a-periodic traffic are assumed. ', '']</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.4.8	Smart distribution transformer terminal&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;A.2.2.5	Cooperative carrying&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2152,13 +2577,18 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1.082614898681641</v>
+        <v>1.056676268577576</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>['', 'In a smart factory, large or heavy work pieces will be carried from one place to another by multiple mobile robots or AGVs. These mobile robots / AGVs need to work together in order to carry the large or heavy work piece safely. This cooperation is achieved with a cyber-physical control application that controls the drives and movements of the mobile robots / AGVs in a coordinated way, so that large or heavy work pieces are carried smoothly and safely from one place to another (see Figure 5.11.1-1).', '', '----media/image6.emf----', '', 'Figure A.2.2.5-1: Mobile robots / AGVs carrying a large work piece cooperatively', '', 'The communication between the collaborating mobile robots / AGVs requires high communication service availability and ultra-low latency. The exchange of control commands and control feedback is done with periodic deterministic communication and using time-sensitive networking.', '', 'There are two distinct use case variants of cooperative carrying: (1) carrying of rigid or fragile work pieces that require very precise coordination between the collaborating mobile robots, and (2) carrying of more flexible or elastic work pieces that allow some tolerance in the coordinated movements of the collaborative mobile robots. The higher tolerance in the coordinated movements allows for either faster movement of the work piece or longer transfer intervals (trade-off between UE speed and transfer interval).', '', 'Table A&lt;b&gt;.&lt;/b&gt;2.2.5-1: Service performance requirements for cooperative carrying', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', '(note 1)', '', 'Survival time', '', '(note 1)', '', 'UE ', '', 'speed', '', '# of UEs', '', 'Service area', '', '(note 2)', '', '1', '', '99.999\xa09 to 99.999\xa0999', '', '~ 10 years', '', '&amp;lt; 0.5 x transfer interval', '', '2.5 Mbit/s', '', '250;', '', '500 with localisation information', '', '&amp;gt; 5\xa0ms', '', '&amp;gt; 2.5\xa0ms', '', '&amp;gt; 1.7\xa0ms', '', '0', '', 'transfer interval', '', '2 x transfer interval', '', '≤\xa06\xa0km/h', '', '2 to 8', '', '10\xa0m x 10\xa0m x 5\xa0m;', '50\xa0m x 5\xa0m x 5\xa0m', '', '2', '', '99.999\xa09 to 99.999\xa0999', '', '~ 10 years', '', '&amp;lt; 0.5 x transfer interval', '', '2.5 Mbit/s', '', '250;', '', '500 with localisation information', '', '&amp;gt; 5\xa0ms', '', '&amp;gt; 2.5\xa0ms', '', '&amp;gt; 1.7\xa0ms', '', '0', '', 'transfer interval', '', '2 x transfer interval', '', '≤\xa012\xa0km/h', '', '2 to 8', '', '10\xa0m x 10\xa0m x 5\xa0m;', '50\xa0m x 5\xa0m x 5\xa0m', '', 'NOTE 1:\tThe first value is the application requirement, the other values are the requirement with multiple transmission of the same information (two or three times respectively).', '', 'NOTE 2:\tService Area for direct communication between UEs (length x width x height). The group of UEs with direct communication might move throughout the whole factory site (up to several km²)', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic deterministic communication for cooperative carrying of fragile work pieces (UE to UE / ProSe communication).', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Periodic deterministic communication for cooperative carrying of elastic work pieces (UE to UE / ProSe communication).', '']</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.4.9	Distributed energy resources and micro-grids&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;A.2.2.5	Cooperative carrying&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2168,17 +2598,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1.095664143562317</v>
+        <v>1.092858910560608</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>['', 'In a smart factory, large or heavy work pieces will be carried from one place to another by multiple mobile robots or AGVs. These mobile robots / AGVs need to work together in order to carry the large or heavy work piece safely. This cooperation is achieved with a cyber-physical control application that controls the drives and movements of the mobile robots / AGVs in a coordinated way, so that large or heavy work pieces are carried smoothly and safely from one place to another (see Figure 5.11.1-1).', '', '----media/image6.emf----', '', 'Figure A.2.2.5-1: Mobile robots / AGVs carrying a large work piece cooperatively', '', 'The communication between the collaborating mobile robots / AGVs requires high communication service availability and ultra-low latency. The exchange of control commands and control feedback is done with periodic deterministic communication and using time-sensitive networking.', '', 'There are two distinct use case variants of cooperative carrying: (1) carrying of rigid or fragile work pieces that require very precise coordination between the collaborating mobile robots, and (2) carrying of more flexible or elastic work pieces that allow some tolerance in the coordinated movements of the collaborative mobile robots. The higher tolerance in the coordinated movements allows for either faster movement of the work piece or longer transfer intervals (trade-off between UE speed and transfer interval).', '', 'Table A&lt;b&gt;.&lt;/b&gt;2.2.5-1: Service performance requirements for cooperative carrying', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', '(note 1)', '', 'Survival time', '', '(note 1)', '', 'UE ', '', 'speed', '', '# of UEs', '', 'Service area', '', '(note 2)', '', '1', '', '99.999\xa09 to 99.999\xa0999', '', '~ 10 years', '', '&amp;lt; 0.5 x transfer interval', '', '2.5 Mbit/s', '', '250;', '', '500 with localisation information', '', '&amp;gt; 5\xa0ms', '', '&amp;gt; 2.5\xa0ms', '', '&amp;gt; 1.7\xa0ms', '', '0', '', 'transfer interval', '', '2 x transfer interval', '', '≤\xa06\xa0km/h', '', '2 to 8', '', '10\xa0m x 10\xa0m x 5\xa0m;', '50\xa0m x 5\xa0m x 5\xa0m', '', '2', '', '99.999\xa09 to 99.999\xa0999', '', '~ 10 years', '', '&amp;lt; 0.5 x transfer interval', '', '2.5 Mbit/s', '', '250;', '', '500 with localisation information', '', '&amp;gt; 5\xa0ms', '', '&amp;gt; 2.5\xa0ms', '', '&amp;gt; 1.7\xa0ms', '', '0', '', 'transfer interval', '', '2 x transfer interval', '', '≤\xa012\xa0km/h', '', '2 to 8', '', '10\xa0m x 10\xa0m x 5\xa0m;', '50\xa0m x 5\xa0m x 5\xa0m', '', 'NOTE 1:\tThe first value is the application requirement, the other values are the requirement with multiple transmission of the same information (two or three times respectively).', '', 'NOTE 2:\tService Area for direct communication between UEs (length x width x height). The group of UEs with direct communication might move throughout the whole factory site (up to several km²)', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic deterministic communication for cooperative carrying of fragile work pieces (UE to UE / ProSe communication).', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Periodic deterministic communication for cooperative carrying of elastic work pieces (UE to UE / ProSe communication).', '']</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.4.10	Ensuring uninterrupted communication service availability during emergencies&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;A.2.3.1	Closed-loop control&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2188,17 +2623,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1.089239358901978</v>
+        <v>1.093109607696533</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>['', 'In the closed-loop control use case for process automation, several sensors are installed in a plant and each sensor performs continuous measurements. The measurement data are transported to a controller, which takes decision to set actuators. The latency and determinism in this use case are crucial. This use case has very stringent requirements in terms of latency and service availability. The required service area is usually bigger than for motion control use cases. Interaction with the public network (e.g., service continuity, roaming) is not required.', '', 'Table A.2.3.1-1: Service performance requirements for closed-loop control in process automation', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Message size [byte]', '', 'Transfer interval: lower bound', '', 'Transfer interval: target value', '', 'Transfer interval: upper bound', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note)', '', '1', '', '99.999\xa09 to 99.999\xa0999', '', '≥ 1 year', '', '&amp;lt; target transfer interval value', '', '20', '', '-5\xa0% of target transfer interval value', '', '≥\xa010\xa0ms', '', '+5\xa0% of target transfer interval value', '', '0', '', 'typically stationary', '', 'typically 10 to 20', '', 'typically ≤\xa0100 m x 100 m x 50 m', '', 'NOTE:\tLength x width x height.', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Several sensors are installed in a plant and each sensor performs continuous measurements. The measurement data are transported to a controller, which takes decision to set actuators. ', '']</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.5.2	Wind power plant network&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;A.2.3.1	Closed-loop control&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2212,13 +2652,18 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1.07606041431427</v>
+        <v>1.051235198974609</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>['', 'In the closed-loop control use case for process automation, several sensors are installed in a plant and each sensor performs continuous measurements. The measurement data are transported to a controller, which takes decision to set actuators. The latency and determinism in this use case are crucial. This use case has very stringent requirements in terms of latency and service availability. The required service area is usually bigger than for motion control use cases. Interaction with the public network (e.g., service continuity, roaming) is not required.', '', 'Table A.2.3.1-1: Service performance requirements for closed-loop control in process automation', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Message size [byte]', '', 'Transfer interval: lower bound', '', 'Transfer interval: target value', '', 'Transfer interval: upper bound', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note)', '', '1', '', '99.999\xa09 to 99.999\xa0999', '', '≥ 1 year', '', '&amp;lt; target transfer interval value', '', '20', '', '-5\xa0% of target transfer interval value', '', '≥\xa010\xa0ms', '', '+5\xa0% of target transfer interval value', '', '0', '', 'typically stationary', '', 'typically 10 to 20', '', 'typically ≤\xa0100 m x 100 m x 50 m', '', 'NOTE:\tLength x width x height.', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Several sensors are installed in a plant and each sensor performs continuous measurements. The measurement data are transported to a controller, which takes decision to set actuators. ', '']</t>
+        </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.6.1	Overview&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;A.2.3.2	Process and asset monitoring&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2228,17 +2673,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1.099989414215088</v>
+        <v>1.116275310516357</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>['', 'For process and asset monitoring in the area of process automation, a large number of industrial wireless sensors are installed in the plant to give insight into process and environmental conditions, asset health and inventory of material. The data are transported to displays for observation and/or to databases for registration and data analysis Examples of sensors are temperature, pressure or flow rate sensors for process monitoring, vibration sensors for health monitoring of e.g. motors, or thermal cameras to detect leakages. Industrial wireless sensors are typically constrained in terms of size, complexity and/or power consumption. The operation for this use case can be in a wide service area, and interaction with the public network (e.g., service continuity, roaming) may be required.', '', 'Table A.2.3.2-1: Service performance requirements for process and asset monitoring', '', '', '', 'Characteristic parameter', '', 'Influence quantity', '', 'Use case', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failure', '', 'End-to-end latency', '', 'Transfer interval', '', '(note 1)', '', 'Bit rate', '', '[bits/s]', '', 'Battery lifetime [year]', '', '(note 2)', '', 'Message', '', 'Size', '', '[byte]', '', 'Survival time', '', 'UE speed', '', 'UE density [UE / m²]', '', 'Range', '', '[m]', '', '(note 4)', '', 'Service area', '', '(note 5)', '', '1', '', '99.99', '', '≥ 1 week', '', '&amp;lt; 100 ms', '', '100 ms to 60 s', '', '≤ 1\xa0M', '', '≥\xa05', '', '20', '', '(note 3)', '', '3 x transfer interval', '', 'Stationary', '', 'Up to 1', '', '&amp;lt;\xa0500', '', '≤\xa010\xa0km x 10\xa0km x 50\xa0m', '', '2', '', '99.99', '', '≥ 1 week', '', '&amp;lt; 100 ms', '', '≤ 1 s', '', '≤ 200\xa0k', '', '≥\xa05', '', '25 k', '', '3 x transfer interval', '', 'Stationary', '', 'Up to 0.05', '', '&amp;lt;\xa0500', '', '≤\xa010\xa0km x 10\xa0km x 50\xa0m', '', '3', '', '99.99', '', '≥ 1 week', '', '&amp;lt; 100 ms', '', '≤ 1 s', '', '≤ 2 M', '', '≥\xa05', '', '250 k', '', '3 x transfer interval', '', 'Stationary', '', 'Up to 0.05', '', '&amp;lt;\xa0500', '', '≤\xa010\xa0km x 10\xa0km x 50\xa0m', '', 'NOTE 1:\tThe transfer interval deviates around its target value by &amp;lt; ± 25 %.', '', 'NOTE 2:\tIndustrial sensors can use a wide variety of batteries depending on the use case, but in general they are highly constrained in terms of battery size.', '', 'NOTE 3:\tThe application-level messages in this use case are typically transferred over Ethernet, in which case the minimum Ethernet frame size of 64 bytes applies and dictates the minimum size of the PDU sent over the air interface.', '', 'NOTE 4:\tDistance between the gNB and the UE.', '', 'NOTE 5:\tLength x width x height.', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Sensors generating periodic measurements of a continuous value (e.g. temperature, pressure, flow rate sensors). The traffic is predominantly mobile originated. ', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Sensors generating waveform measurements (e.g. vibration sensors). Even though the waveform measurement is continuous, it is expected that this type of sensors will buffer and transmit the data periodically (e.g. every second) to save battery by enabling discontinuous transmission. The traffic is predominantly mobile originated.', '', '&lt;i&gt;Use case three&lt;/i&gt;', '', 'Cameras (regular or thermal) for asset monitoring (e.g. for leakage detection). Even though the video recording is continuous, it is expected that this type of sensors will buffer and transmit the data periodically (e.g. every second) to save battery by enabling discontinuous transmission. The traffic is predominantly mobile originated.', '']</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.6.2	Robotic Aided Surgery&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;A.2.3.2	Process and asset monitoring&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2252,13 +2702,18 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1.079488754272461</v>
+        <v>1.070376634597778</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>['', 'For process and asset monitoring in the area of process automation, a large number of industrial wireless sensors are installed in the plant to give insight into process and environmental conditions, asset health and inventory of material. The data are transported to displays for observation and/or to databases for registration and data analysis Examples of sensors are temperature, pressure or flow rate sensors for process monitoring, vibration sensors for health monitoring of e.g. motors, or thermal cameras to detect leakages. Industrial wireless sensors are typically constrained in terms of size, complexity and/or power consumption. The operation for this use case can be in a wide service area, and interaction with the public network (e.g., service continuity, roaming) may be required.', '', 'Table A.2.3.2-1: Service performance requirements for process and asset monitoring', '', '', '', 'Characteristic parameter', '', 'Influence quantity', '', 'Use case', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failure', '', 'End-to-end latency', '', 'Transfer interval', '', '(note 1)', '', 'Bit rate', '', '[bits/s]', '', 'Battery lifetime [year]', '', '(note 2)', '', 'Message', '', 'Size', '', '[byte]', '', 'Survival time', '', 'UE speed', '', 'UE density [UE / m²]', '', 'Range', '', '[m]', '', '(note 4)', '', 'Service area', '', '(note 5)', '', '1', '', '99.99', '', '≥ 1 week', '', '&amp;lt; 100 ms', '', '100 ms to 60 s', '', '≤ 1\xa0M', '', '≥\xa05', '', '20', '', '(note 3)', '', '3 x transfer interval', '', 'Stationary', '', 'Up to 1', '', '&amp;lt;\xa0500', '', '≤\xa010\xa0km x 10\xa0km x 50\xa0m', '', '2', '', '99.99', '', '≥ 1 week', '', '&amp;lt; 100 ms', '', '≤ 1 s', '', '≤ 200\xa0k', '', '≥\xa05', '', '25 k', '', '3 x transfer interval', '', 'Stationary', '', 'Up to 0.05', '', '&amp;lt;\xa0500', '', '≤\xa010\xa0km x 10\xa0km x 50\xa0m', '', '3', '', '99.99', '', '≥ 1 week', '', '&amp;lt; 100 ms', '', '≤ 1 s', '', '≤ 2 M', '', '≥\xa05', '', '250 k', '', '3 x transfer interval', '', 'Stationary', '', 'Up to 0.05', '', '&amp;lt;\xa0500', '', '≤\xa010\xa0km x 10\xa0km x 50\xa0m', '', 'NOTE 1:\tThe transfer interval deviates around its target value by &amp;lt; ± 25 %.', '', 'NOTE 2:\tIndustrial sensors can use a wide variety of batteries depending on the use case, but in general they are highly constrained in terms of battery size.', '', 'NOTE 3:\tThe application-level messages in this use case are typically transferred over Ethernet, in which case the minimum Ethernet frame size of 64 bytes applies and dictates the minimum size of the PDU sent over the air interface.', '', 'NOTE 4:\tDistance between the gNB and the UE.', '', 'NOTE 5:\tLength x width x height.', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Sensors generating periodic measurements of a continuous value (e.g. temperature, pressure, flow rate sensors). The traffic is predominantly mobile originated. ', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Sensors generating waveform measurements (e.g. vibration sensors). Even though the waveform measurement is continuous, it is expected that this type of sensors will buffer and transmit the data periodically (e.g. every second) to save battery by enabling discontinuous transmission. The traffic is predominantly mobile originated.', '', '&lt;i&gt;Use case three&lt;/i&gt;', '', 'Cameras (regular or thermal) for asset monitoring (e.g. for leakage detection). Even though the video recording is continuous, it is expected that this type of sensors will buffer and transmit the data periodically (e.g. every second) to save battery by enabling discontinuous transmission. The traffic is predominantly mobile originated.', '']</t>
+        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;A.6.3	Robotic Aided Diagnosis&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;A.2.3.3	Plant asset management&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2268,17 +2723,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1.083568692207336</v>
+        <v>1.107444643974304</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>['', 'To keep a plant running, it is essential that the assets, such as pumps, valves, heaters, instruments, etc., are maintained. Timely recognition of any degradation and continuous self-diagnosis of components are used to support and plan maintenance. Remote software updates enhance and adapt the components to changing conditions and advances in technology. The operation for this use case can be in a wide service area, and interaction with the public network (e.g., service continuity, roaming) may be required. In this use case, the assets themselves are assumed to be connected to the 5G system. The use case where sensors are used to monitor assets is covered in clause A.2.3.2.', '', 'Table A.2.3.3-1: Service performance requirements for plant asset management', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Message size [byte]', '', 'Transfer interval', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note)', '', '1', '', '99.99', '', 'TBD', '', '&amp;lt; transfer interval value', '', '20 to 255', '', 'several seconds', '', 'matter of convenience; typically ≥\xa03 x transfer interval value', '', 'typically stationary', '', '≤\xa0100,000', '', 'typically ≤\xa010\xa0km x 10\xa0km x 50\xa0m', '', 'NOTE:\tLength x width x height.', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'To keep a plant running, it is essential that the assets, such as pumps, valves, heaters, and instruments are maintained. Timely recognition of any degradation and continuous self-diagnosis of components are used to support and plan maintenance. Remote software updates enhance and adapt the components to changing conditions and advances in technology. ', '']</t>
+        </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>&lt;h1&gt;B.6	Unacceptable deviation from target end-to-end latency&lt;/h1&gt;</t>
+          <t>&lt;h3&gt;A.2.3.3	Plant asset management&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2292,13 +2752,18 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1.072807192802429</v>
+        <v>1.065897583961487</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>['', 'To keep a plant running, it is essential that the assets, such as pumps, valves, heaters, instruments, etc., are maintained. Timely recognition of any degradation and continuous self-diagnosis of components are used to support and plan maintenance. Remote software updates enhance and adapt the components to changing conditions and advances in technology. The operation for this use case can be in a wide service area, and interaction with the public network (e.g., service continuity, roaming) may be required. In this use case, the assets themselves are assumed to be connected to the 5G system. The use case where sensors are used to monitor assets is covered in clause A.2.3.2.', '', 'Table A.2.3.3-1: Service performance requirements for plant asset management', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Message size [byte]', '', 'Transfer interval', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note)', '', '1', '', '99.99', '', 'TBD', '', '&amp;lt; transfer interval value', '', '20 to 255', '', 'several seconds', '', 'matter of convenience; typically ≥\xa03 x transfer interval value', '', 'typically stationary', '', '≤\xa0100,000', '', 'typically ≤\xa010\xa0km x 10\xa0km x 50\xa0m', '', 'NOTE:\tLength x width x height.', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'To keep a plant running, it is essential that the assets, such as pumps, valves, heaters, and instruments are maintained. Timely recognition of any degradation and continuous self-diagnosis of components are used to support and plan maintenance. Remote software updates enhance and adapt the components to changing conditions and advances in technology. ', '']</t>
+        </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;C.1.1	Area of consideration&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;A.2.3.4	Inspection in production systems&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2312,13 +2777,18 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1.067391991615295</v>
+        <v>1.076881408691406</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>['', 'An Edge Computing use case example: Digital twin based production quality maintenance:', '', 'A digital twin is a virtual representation of a product or production systems. Digital twins are used to simulate, predict and optimize products and production systems. In future, digital twin production control system based on augmented reality based will be used in the factories.  In this usecase,  a digital twin’s  digital and virtual model of a function combined with other physical data to simulate real-time aspects of how a system operates.  A digital twin production control system can  be automated using machine data and the AI/ML trained data after applying the AI/ML algorithm  and further processing. The processed output can be translated to a control command  back to the device by a control function running on the edge cloud. ', '', 'In another case, using telemetry data as input, the digital twin model’s output may be fed to an AR server for sending low latency AR streams toward the manual operator in the factory production area. At the same time, it can further be utilized as input by an AI/ML model.  A process control function can compare the machine data (example:position, rotation level, speed, sensor data, high-speed photography etc.) and perhaps a high-resolution video from the manufacturing line and  if necessary, it can send commands for corrective measure. In this example, the process control functions reside at the edge infrastructure and the inspection related corrective input is sent back to the production system control function.', '', 'Corrective actions/commands for misalignments from the processed output can be sent in two ways:', '', '1)\tManual process with AR server: In this case the service performance requirements should follow the table A&lt;b&gt;.&lt;/b&gt;2.4.2-1.', '', '2)\tAutomatic process with AI/ML: This usecase and service performance requirements are described below in table A.2.3.4', '', 'The general high-level service requirements of the edge computing usecase for the digital twin based production inspection:', '', '--\tHigh bandwidth wireless data for both uplink and downlink', '', '\t--\texact number depends on video encoding, frame rate and video-resolution requirements', '', '--\tTiming accuracy and low latency ( &amp;lt;=20ms) ', '', '--\tHigh availability of the communication network  ', '', '--\tSecurity requirements: Data encryption, connection authentication, user authorization', '', '--\tQoS methods to ensure quality of service performance over different UE to Application connection sessions (video streaming, sensor data, control data)', '', '--\tUE Mobility and session continuity (optional)', '', '', '', 'Table A.2.3.4: Service performance requirements for automated inspection', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Message size [byte]', '', 'Transfer interval: lower bound', '', 'Transfer interval: target value', '', 'Transfer interval: upper bound', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note)', '', '1', '', '99.999\xa0', '', '≥ 1 year', '', '&amp;lt; target transfer interval value', '', '20 – large packets', '', '-20\xa0% of target transfer interval value', '', '&amp;lt;=20\xa0ms', '', '+20% of target transfer interval value', '', 'Variable depending upon vertical industry', '', 'typically stationary', '', '&amp;lt; 5 typically', '', '', '', 'typically ≤100\xa0m x 100\xa0m x 50\xa0m', '', 'NOTE:\tLength x width x height.', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'The periodic telemetry data and video images are used from the digital twin in the production system for analysis and then the processed outcome is sent back to the system for any adjustment of  the machine components.', '', '', '', 'The following diagram explains the above digital twin usecase steps to manage the production in a factory (both manual and automated operations)', '', '', '', '----media/image7.png----', '', ' ', '', '', '', '', '', '--\tLow-latency AR overlays and incorporation of AI/ML techniques to identify manufacturing issues and improve product quality as well as to enable offline adjustments for optimization, adaptations, and preventive operations on the machines', '', '', '']</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;C.2.2	Characteristic parameters&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;A.2.3.4	Inspection in production systems&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2328,17 +2798,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1.086083054542542</v>
+        <v>1.117323994636536</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>['', 'An Edge Computing use case example: Digital twin based production quality maintenance:', '', 'A digital twin is a virtual representation of a product or production systems. Digital twins are used to simulate, predict and optimize products and production systems. In future, digital twin production control system based on augmented reality based will be used in the factories.  In this usecase,  a digital twin’s  digital and virtual model of a function combined with other physical data to simulate real-time aspects of how a system operates.  A digital twin production control system can  be automated using machine data and the AI/ML trained data after applying the AI/ML algorithm  and further processing. The processed output can be translated to a control command  back to the device by a control function running on the edge cloud. ', '', 'In another case, using telemetry data as input, the digital twin model’s output may be fed to an AR server for sending low latency AR streams toward the manual operator in the factory production area. At the same time, it can further be utilized as input by an AI/ML model.  A process control function can compare the machine data (example:position, rotation level, speed, sensor data, high-speed photography etc.) and perhaps a high-resolution video from the manufacturing line and  if necessary, it can send commands for corrective measure. In this example, the process control functions reside at the edge infrastructure and the inspection related corrective input is sent back to the production system control function.', '', 'Corrective actions/commands for misalignments from the processed output can be sent in two ways:', '', '1)\tManual process with AR server: In this case the service performance requirements should follow the table A&lt;b&gt;.&lt;/b&gt;2.4.2-1.', '', '2)\tAutomatic process with AI/ML: This usecase and service performance requirements are described below in table A.2.3.4', '', 'The general high-level service requirements of the edge computing usecase for the digital twin based production inspection:', '', '--\tHigh bandwidth wireless data for both uplink and downlink', '', '\t--\texact number depends on video encoding, frame rate and video-resolution requirements', '', '--\tTiming accuracy and low latency ( &amp;lt;=20ms) ', '', '--\tHigh availability of the communication network  ', '', '--\tSecurity requirements: Data encryption, connection authentication, user authorization', '', '--\tQoS methods to ensure quality of service performance over different UE to Application connection sessions (video streaming, sensor data, control data)', '', '--\tUE Mobility and session continuity (optional)', '', '', '', 'Table A.2.3.4: Service performance requirements for automated inspection', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Message size [byte]', '', 'Transfer interval: lower bound', '', 'Transfer interval: target value', '', 'Transfer interval: upper bound', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note)', '', '1', '', '99.999\xa0', '', '≥ 1 year', '', '&amp;lt; target transfer interval value', '', '20 – large packets', '', '-20\xa0% of target transfer interval value', '', '&amp;lt;=20\xa0ms', '', '+20% of target transfer interval value', '', 'Variable depending upon vertical industry', '', 'typically stationary', '', '&amp;lt; 5 typically', '', '', '', 'typically ≤100\xa0m x 100\xa0m x 50\xa0m', '', 'NOTE:\tLength x width x height.', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'The periodic telemetry data and video images are used from the digital twin in the production system for analysis and then the processed outcome is sent back to the system for any adjustment of  the machine components.', '', '', '', 'The following diagram explains the above digital twin usecase steps to manage the production in a factory (both manual and automated operations)', '', '', '', '----media/image7.png----', '', ' ', '', '', '', '', '', '--\tLow-latency AR overlays and incorporation of AI/ML techniques to identify manufacturing issues and improve product quality as well as to enable offline adjustments for optimization, adaptations, and preventive operations on the machines', '', '', '']</t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;C.4.1	Overview&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;A.2.4.1	Mobile control panels&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2352,13 +2827,18 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1.100376605987549</v>
+        <v>1.062623858451843</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>['', 'Control panels are crucial devices for the interaction between people and production machinery as well as for the interaction with moving devices. These panels are mainly used for configuring, monitoring, debugging, controlling and maintaining machines, robots, cranes or complete production lines. In addition to that, (safety) control panels are typically equipped with an emergency stop button and an enabling device, which an operator can use in case of a safety event in order to avoid damage to humans or machinery. When the emergency stop button is pushed, the controlled equipment immediately comes to a safe stationary position. Likewise, if a machine, robot, etc. is operated in the so-called special ‘enabling device mode’, the operator manually keeps the enabling device switch in a special stationary position. If the operator pushes this switch too much or releases it, the controlled equipment immediately comes to a safe stationary position as well. This way, it can be ensured that the hand(s) of the operator are on the panel (and not under a moulding press, for example), and that the operator does―for instance―not suffer from any electric shock or the like. A common use case for this ‘enabling device mode’ is the installation, testing or maintenance of a machine, during which other safety mechanisms (such as a safety fence) are deactivated.', '', 'Due to the criticality of these safety functions, safety control panels currently have mostly a wire-bound connection to the equipment they control. In consequence, there tend to be many such panels for the many machines and production units that typically can be found in a factory. With an ultra-reliable low-latency wireless link, it would be possible to connect such mobile control panels with safety functions wirelessly. This would lead to a higher usability and would allow for the flexible and easy re-use of panels for controlling different machines. ', '', 'The cycle times of the control application depends on the process/machinery/equipment whose safety has to be ensured. For a fast-moving robot, for example, end-to-end latencies are lower than for slowly moving linear actuators. ', '', 'Table A&lt;b&gt;.&lt;/b&gt;2.4.1-1: Service performance requirements for mobile control panels', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: lower bound', '', 'Transfer interval: target value', '', 'Transfer interval: upper bound', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note\xa01)', '', '1', '', '(note 3)', '', '99.999\xa09 to 99.999\xa0999', '', '~ 1 month', '', '&amp;lt; target transfer interval value', '', '–', '', '40 to 250', '', '– &amp;lt;\xa025\xa0% of target transfer interval value', '', '4 ms to 8\xa0ms', '', '+ 25\xa0% of target transfer interval value', '', 'target transfer interval value', '', '&amp;lt; 7.2 km/h', '', 'TBD', '', '50 m x 10\xa0m x 4\xa0m', '', '2', '', '(note 3)', '', '99.999\xa09 to 99.999\xa0999', '', '~ 1 month', '', '&amp;lt; target transfer interval value', '', '&amp;gt; 5 Mbit/s', '', '–', '', '–\xa0&amp;lt;\xa025\xa0% of target transfer interval value', '', '&amp;lt; 30\xa0ms', '', '+\xa025\xa0% of target transfer interval value', '', 'TBD', '', '&amp;lt; 7.2 km/h', '', 'TBD', '', 'TBD', '', '3', '', '(note 3)', '', '99.999\xa09 to 99.999\xa0999', '', '~ 1 year', '', '&amp;lt; target transfer interval', '', '–', '', '40 to 250', '', '', '', '–\xa0&amp;lt;\xa025\xa0% of target transfer interval value', '', '&amp;lt; 12 ms', '', '+\xa025\xa0% of target transfer interval value', '', '12 ms', '', '&amp;lt; 7.2 km/h', '', 'TBD', '', 'typically 40\xa0m x 60\xa0m; maximum 200 m x 300\xa0m', '', 'NOTE 1:\tLength x width (x height).', '', 'NOTE 2:\tThe transfer interval is not so strictly periodic in these use cases. The transfer interval deviates around its target value within bounds. The mean of the transfer interval is close to the target value. ', '', 'NOTE 3: \tCommunication may include two wireless links (UE to UE)', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic, bi-directional communication for remote control. Examples for controlled units: assembly robots; milling machines.', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Aperiodic data transmission in parallel to remote control (use case one).', '', '&lt;i&gt;Use case three&lt;/i&gt;', '', 'Periodic, bi-directional communication for remote control. Examples for controlled units: mobile cranes, mobile pumps, fixed portal cranes.', '']</t>
+        </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;C.4.2	Network latency requirement formulated by use of timeliness&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;A.2.4.1	Mobile control panels&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2368,17 +2848,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1.11702287197113</v>
+        <v>1.102161526679993</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>['', 'Control panels are crucial devices for the interaction between people and production machinery as well as for the interaction with moving devices. These panels are mainly used for configuring, monitoring, debugging, controlling and maintaining machines, robots, cranes or complete production lines. In addition to that, (safety) control panels are typically equipped with an emergency stop button and an enabling device, which an operator can use in case of a safety event in order to avoid damage to humans or machinery. When the emergency stop button is pushed, the controlled equipment immediately comes to a safe stationary position. Likewise, if a machine, robot, etc. is operated in the so-called special ‘enabling device mode’, the operator manually keeps the enabling device switch in a special stationary position. If the operator pushes this switch too much or releases it, the controlled equipment immediately comes to a safe stationary position as well. This way, it can be ensured that the hand(s) of the operator are on the panel (and not under a moulding press, for example), and that the operator does―for instance―not suffer from any electric shock or the like. A common use case for this ‘enabling device mode’ is the installation, testing or maintenance of a machine, during which other safety mechanisms (such as a safety fence) are deactivated.', '', 'Due to the criticality of these safety functions, safety control panels currently have mostly a wire-bound connection to the equipment they control. In consequence, there tend to be many such panels for the many machines and production units that typically can be found in a factory. With an ultra-reliable low-latency wireless link, it would be possible to connect such mobile control panels with safety functions wirelessly. This would lead to a higher usability and would allow for the flexible and easy re-use of panels for controlling different machines. ', '', 'The cycle times of the control application depends on the process/machinery/equipment whose safety has to be ensured. For a fast-moving robot, for example, end-to-end latencies are lower than for slowly moving linear actuators. ', '', 'Table A&lt;b&gt;.&lt;/b&gt;2.4.1-1: Service performance requirements for mobile control panels', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: lower bound', '', 'Transfer interval: target value', '', 'Transfer interval: upper bound', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note\xa01)', '', '1', '', '(note 3)', '', '99.999\xa09 to 99.999\xa0999', '', '~ 1 month', '', '&amp;lt; target transfer interval value', '', '–', '', '40 to 250', '', '– &amp;lt;\xa025\xa0% of target transfer interval value', '', '4 ms to 8\xa0ms', '', '+ 25\xa0% of target transfer interval value', '', 'target transfer interval value', '', '&amp;lt; 7.2 km/h', '', 'TBD', '', '50 m x 10\xa0m x 4\xa0m', '', '2', '', '(note 3)', '', '99.999\xa09 to 99.999\xa0999', '', '~ 1 month', '', '&amp;lt; target transfer interval value', '', '&amp;gt; 5 Mbit/s', '', '–', '', '–\xa0&amp;lt;\xa025\xa0% of target transfer interval value', '', '&amp;lt; 30\xa0ms', '', '+\xa025\xa0% of target transfer interval value', '', 'TBD', '', '&amp;lt; 7.2 km/h', '', 'TBD', '', 'TBD', '', '3', '', '(note 3)', '', '99.999\xa09 to 99.999\xa0999', '', '~ 1 year', '', '&amp;lt; target transfer interval', '', '–', '', '40 to 250', '', '', '', '–\xa0&amp;lt;\xa025\xa0% of target transfer interval value', '', '&amp;lt; 12 ms', '', '+\xa025\xa0% of target transfer interval value', '', '12 ms', '', '&amp;lt; 7.2 km/h', '', 'TBD', '', 'typically 40\xa0m x 60\xa0m; maximum 200 m x 300\xa0m', '', 'NOTE 1:\tLength x width (x height).', '', 'NOTE 2:\tThe transfer interval is not so strictly periodic in these use cases. The transfer interval deviates around its target value within bounds. The mean of the transfer interval is close to the target value. ', '', 'NOTE 3: \tCommunication may include two wireless links (UE to UE)', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Periodic, bi-directional communication for remote control. Examples for controlled units: assembly robots; milling machines.', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Aperiodic data transmission in parallel to remote control (use case one).', '', '&lt;i&gt;Use case three&lt;/i&gt;', '', 'Periodic, bi-directional communication for remote control. Examples for controlled units: mobile cranes, mobile pumps, fixed portal cranes.', '']</t>
+        </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;C.4.3	Timeliness&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;A.2.4.1A	Mobile operation panels&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2388,17 +2873,22 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1.115401268005371</v>
+        <v>1.122668266296387</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>['', 'Operation and monitoring of machines, mobile robots, or production units via a mobile operation panel provides higher flexibility and comfort for human operators. A single mobile operation panel can be used to manage more than one production system due to its mobility in the factory. The mobile operation panel provides relevant information for configuration, control of industrial machines as well as monitoring of relevant data generated during the construction of a product. The monitoring data is generally considered to be less time-critical subsequently requiring non-real-time communication. On the other hand, the mobile operation panel supports safety-critical functions such as emergency stops or enabling or changing the position of robots and other machines. These functions are generally considered to have strict ultra-low latencies and reliable transmission requirements that must follow strict safety standards making them time-critical (real-time communication).', '', 'Table A&lt;b&gt;.&lt;/b&gt;2.4.1A-1: Service performance requirements for mobile operation panels', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Direction', '', '(note\xa02)', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note\xa01)', '', '1', '', '99.999\xa0999', '', '1 day', '', '&amp;lt;\xa08\xa0ms', '', '250 kbit/s', '', 'Uplink', '', 'Downlink', '', '40 to 250', '', '8\xa0ms', '', '16\xa0ms', '', 'quasi-static; up to 10\xa0km/h', '', '2 or more', '', '30\xa0m x 30\xa0m', '', '2', '', '99.999\xa099', '', '1 day', '', '&amp;lt;\xa010 ms', '', '&amp;lt; 1 Mbit/s', '', 'Uplink', '', '&amp;lt;\xa01,024', '', '10 ms', '', '~10 ms', '', 'quasi-static; up to 10 km/h', '', '2 or more', '', '30\xa0m x 30\xa0m', '', '3', '', '99.999\xa0999', '', '1 day', '', '10\xa0ms to 100\xa0ms', '', '10\xa0kbit/s', '', 'Uplink', '', 'Downlink', '', '10-100', '', '10-100\xa0ms', '', 'transfer interval', '', 'stationary', '', '2 or more', '', '100\xa0m² to 2,000\xa0m²', '', '4', '', '99.999\xa0999', '', '1 day', '', '&amp;lt;\xa01 ms', '', '12\xa0Mbit/s to 16\xa0Mbit/s', '', 'Downlink', '', '10-100', '', '1 ms', '', '~1 ms', '', 'stationary', '', '2 or more', '', '100\xa0m²', '', '5', '', '99.999\xa0999', '', '1 day', '', '&amp;lt;\xa02 ms', '', '16 kbit/s (UL)', '', '2 Mbit/s (DL)', '', 'Uplink', '', 'Downlink', '', '50', '', '2 ms', '', '~2 ms', '', 'stationary', '', '2 or more', '', '100\xa0m²', '', '6', '', '99.999\xa09 to 99.999\xa099', '', '1 day', '', 'up to [x]', '', '12\xa0Mbit/s', '', 'Uplink', '', 'Downlink', '', '250 to 1,500', '', '', '', '', '', 'quasi-static; up to 10\xa0km/h', '', '2 or more', '', '30\xa0m x 30\xa0m', '', 'NOTE 1:\tLength x width.', '', 'NOTE 2: \tThe mobile operation panel is connected wirelessly to the 5G system. If the mobile robot/production line is also connected wirelessly to the 5G system, the communication includes two wireless links.', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Emergency Stop with periodic-deterministic communication for connectivity availability and aperiodic-deterministic communication for emergency stop events.', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Safety data stream with periodic deterministic communication.', '', '&lt;i&gt;Use case three&lt;/i&gt;', '', 'Visualization of Control with periodic deterministic communication.', '', '&lt;i&gt;Use case four&lt;/i&gt;', '', 'Motion Control with periodic deterministic communication.', '', '&lt;i&gt;Use case five&lt;/i&gt;', '', 'Haptic feedback data stream with periodic deterministic communication.', '', '&lt;i&gt;Use case six&lt;/i&gt;', '', 'Manufacturing data stream with mixed traffic.', '', '', '']</t>
+        </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;C.4.7	Conclusion&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;A.2.4.1A	Mobile operation panels&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2412,13 +2902,18 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1.098514318466187</v>
+        <v>1.079602837562561</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>['', 'Operation and monitoring of machines, mobile robots, or production units via a mobile operation panel provides higher flexibility and comfort for human operators. A single mobile operation panel can be used to manage more than one production system due to its mobility in the factory. The mobile operation panel provides relevant information for configuration, control of industrial machines as well as monitoring of relevant data generated during the construction of a product. The monitoring data is generally considered to be less time-critical subsequently requiring non-real-time communication. On the other hand, the mobile operation panel supports safety-critical functions such as emergency stops or enabling or changing the position of robots and other machines. These functions are generally considered to have strict ultra-low latencies and reliable transmission requirements that must follow strict safety standards making them time-critical (real-time communication).', '', 'Table A&lt;b&gt;.&lt;/b&gt;2.4.1A-1: Service performance requirements for mobile operation panels', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Direction', '', '(note\xa02)', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note\xa01)', '', '1', '', '99.999\xa0999', '', '1 day', '', '&amp;lt;\xa08\xa0ms', '', '250 kbit/s', '', 'Uplink', '', 'Downlink', '', '40 to 250', '', '8\xa0ms', '', '16\xa0ms', '', 'quasi-static; up to 10\xa0km/h', '', '2 or more', '', '30\xa0m x 30\xa0m', '', '2', '', '99.999\xa099', '', '1 day', '', '&amp;lt;\xa010 ms', '', '&amp;lt; 1 Mbit/s', '', 'Uplink', '', '&amp;lt;\xa01,024', '', '10 ms', '', '~10 ms', '', 'quasi-static; up to 10 km/h', '', '2 or more', '', '30\xa0m x 30\xa0m', '', '3', '', '99.999\xa0999', '', '1 day', '', '10\xa0ms to 100\xa0ms', '', '10\xa0kbit/s', '', 'Uplink', '', 'Downlink', '', '10-100', '', '10-100\xa0ms', '', 'transfer interval', '', 'stationary', '', '2 or more', '', '100\xa0m² to 2,000\xa0m²', '', '4', '', '99.999\xa0999', '', '1 day', '', '&amp;lt;\xa01 ms', '', '12\xa0Mbit/s to 16\xa0Mbit/s', '', 'Downlink', '', '10-100', '', '1 ms', '', '~1 ms', '', 'stationary', '', '2 or more', '', '100\xa0m²', '', '5', '', '99.999\xa0999', '', '1 day', '', '&amp;lt;\xa02 ms', '', '16 kbit/s (UL)', '', '2 Mbit/s (DL)', '', 'Uplink', '', 'Downlink', '', '50', '', '2 ms', '', '~2 ms', '', 'stationary', '', '2 or more', '', '100\xa0m²', '', '6', '', '99.999\xa09 to 99.999\xa099', '', '1 day', '', 'up to [x]', '', '12\xa0Mbit/s', '', 'Uplink', '', 'Downlink', '', '250 to 1,500', '', '', '', '', '', 'quasi-static; up to 10\xa0km/h', '', '2 or more', '', '30\xa0m x 30\xa0m', '', 'NOTE 1:\tLength x width.', '', 'NOTE 2: \tThe mobile operation panel is connected wirelessly to the 5G system. If the mobile robot/production line is also connected wirelessly to the 5G system, the communication includes two wireless links.', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Emergency Stop with periodic-deterministic communication for connectivity availability and aperiodic-deterministic communication for emergency stop events.', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Safety data stream with periodic deterministic communication.', '', '&lt;i&gt;Use case three&lt;/i&gt;', '', 'Visualization of Control with periodic deterministic communication.', '', '&lt;i&gt;Use case four&lt;/i&gt;', '', 'Motion Control with periodic deterministic communication.', '', '&lt;i&gt;Use case five&lt;/i&gt;', '', 'Haptic feedback data stream with periodic deterministic communication.', '', '&lt;i&gt;Use case six&lt;/i&gt;', '', 'Manufacturing data stream with mixed traffic.', '', '', '']</t>
+        </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>&lt;h1&gt;C.5	Communication service terminology w.r.t. 5G network and vertical applications&lt;/h1&gt;</t>
+          <t>&lt;h3&gt;A.2.4.2	Augmented reality&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2432,13 +2927,18 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1.039144515991211</v>
+        <v>1.083056926727295</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>['', 'It is envisioned that in future smart factories and production facilities, people will continue to play an important and substantial role. However, due to the envisaged high flexibility and versatility of the Factories of the Future, shop floor workers should be optimally supported in getting quickly prepared for new tasks and activities and in ensuring smooth operations in an efficient and ergonomic manner. To this end, augmented reality may play a crucial role, for example for the following applications:', '', '-\tmonitoring of processes and production flows;', '', '-\tstep-by-step instructions for specific tasks, for example in manual assembly workplaces;', '', '-\tad hoc support from a remote expert, for example for maintenance or service tasks.', '', 'In this respect, especially head-mounted augmented-reality devices with see-through display are very attractive since they allow for a maximum degree of ergonomics, flexibility and mobility and leave the hands of workers free for other tasks. However, if such augmented-reality devices are worn for a longer period (e.g., one work shift), these devices have to be lightweight and highly energy-efficient while at the same time they should not become very warm. A very promising approach is to offload complex (e.g., video) processing tasks to the network (e.g., an edge cloud) and to reduce the augmented-reality head-mounted device’s functionality. This has the additional benefit that the augmented-reality application may have easy access to different context information (e.g., information about the environment, production machinery, the current link state, etc.) if executed in the network. ', '', 'Table A&lt;b&gt;.&lt;/b&gt;2.4.2-1: Service performance requirements for augmented reality in human-machine interfaces', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'UE ', 'speed', '', 'Service area (note)', '', '1', '', '&amp;gt; 99.9', '', '~ 1 month', '', '&amp;lt; 10 ms', '', '&amp;lt; 8 km/h', '', '20 m x 20 m x 4\xa0m', '', 'NOTE:\tLength x width x height.', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Bi-directional message transmission between an augmented-reality device and an image processing server.', '']</t>
+        </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;E.1	Description&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;A.2.4.2	Augmented reality&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2448,17 +2948,22 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1.094972252845764</v>
+        <v>1.121581315994263</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>['', 'It is envisioned that in future smart factories and production facilities, people will continue to play an important and substantial role. However, due to the envisaged high flexibility and versatility of the Factories of the Future, shop floor workers should be optimally supported in getting quickly prepared for new tasks and activities and in ensuring smooth operations in an efficient and ergonomic manner. To this end, augmented reality may play a crucial role, for example for the following applications:', '', '-\tmonitoring of processes and production flows;', '', '-\tstep-by-step instructions for specific tasks, for example in manual assembly workplaces;', '', '-\tad hoc support from a remote expert, for example for maintenance or service tasks.', '', 'In this respect, especially head-mounted augmented-reality devices with see-through display are very attractive since they allow for a maximum degree of ergonomics, flexibility and mobility and leave the hands of workers free for other tasks. However, if such augmented-reality devices are worn for a longer period (e.g., one work shift), these devices have to be lightweight and highly energy-efficient while at the same time they should not become very warm. A very promising approach is to offload complex (e.g., video) processing tasks to the network (e.g., an edge cloud) and to reduce the augmented-reality head-mounted device’s functionality. This has the additional benefit that the augmented-reality application may have easy access to different context information (e.g., information about the environment, production machinery, the current link state, etc.) if executed in the network. ', '', 'Table A&lt;b&gt;.&lt;/b&gt;2.4.2-1: Service performance requirements for augmented reality in human-machine interfaces', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'UE ', 'speed', '', 'Service area (note)', '', '1', '', '&amp;gt; 99.9', '', '~ 1 month', '', '&amp;lt; 10 ms', '', '&amp;lt; 8 km/h', '', '20 m x 20 m x 4\xa0m', '', 'NOTE:\tLength x width x height.', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Bi-directional message transmission between an augmented-reality device and an image processing server.', '']</t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;E.2	Multiple source wireless studio&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;A.2.5.1	Remote access and maintenance&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2472,13 +2977,18 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1.131373524665833</v>
+        <v>1.096679210662842</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>['', 'In factories of the future, there are needs to perform remote access and maintenance to devices and entities, for instance, by remote control centres. The devices and entities might be installed at geographically distributed locations. These devices typically have firmware/software which needs to be updated occasionally. Maintenance information also needs to be collected and distributed from/to these devices periodically. The devices can be both stationary and mobile. Device maintenance may happen in parallel to the actual production process and other communication services performed at the device side without any negative impact on these production communication services. ', '', '', '', 'Table A.2.5.1-1: Service performance requirements for remote access and maintenance', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: lower bound', '', 'Transfer interval: upper bound', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note)', '', '1', '', '–', '', '~ 1 month', '', '–', '', '≥ 1 Mbit/s', '', '&lt;span style="color:000000;font-size:22pt"&gt;–&lt;/span&gt;', '', '–', '', '–', '', '–', '', '≤ 72 km/h', '', '≤ 100', '', '50 m x 10 m x 10 m', '', 'NOTE:\tLength x width x height.', '', '', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Transmission of non-deterministic messages in parallel to other interactions. Example applications: software/firmware updates and exchange of maintenance information.', '']</t>
+        </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;E.3	Timing use in AV production applications&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;A.2.5.1	Remote access and maintenance&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2488,42 +2998,52 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1.173835039138794</v>
+        <v>1.139143466949463</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>['', 'In factories of the future, there are needs to perform remote access and maintenance to devices and entities, for instance, by remote control centres. The devices and entities might be installed at geographically distributed locations. These devices typically have firmware/software which needs to be updated occasionally. Maintenance information also needs to be collected and distributed from/to these devices periodically. The devices can be both stationary and mobile. Device maintenance may happen in parallel to the actual production process and other communication services performed at the device side without any negative impact on these production communication services. ', '', '', '', 'Table A.2.5.1-1: Service performance requirements for remote access and maintenance', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: lower bound', '', 'Transfer interval: upper bound', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note)', '', '1', '', '–', '', '~ 1 month', '', '–', '', '≥ 1 Mbit/s', '', '&lt;span style="color:000000;font-size:22pt"&gt;–&lt;/span&gt;', '', '–', '', '–', '', '–', '', '≤ 72 km/h', '', '≤ 100', '', '50 m x 10 m x 10 m', '', 'NOTE:\tLength x width x height.', '', '', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Transmission of non-deterministic messages in parallel to other interactions. Example applications: software/firmware updates and exchange of maintenance information.', '']</t>
+        </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.2.1	General&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;A.4.4.1	Distributed automated switching for isolation and service restoration&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TS_22_125.docx</t>
+          <t>TS_22_104.docx</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1.079438328742981</v>
+        <v>1.112600088119507</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>['', 'A power distribution grid fault is a stressful situation. There are self-healing solutions for automated switching, fault isolation, and service restoration. Furthermore, these solutions are ideally suited to handle outages that affect critical power consumers, such as industrial plants or data centres. Supply interruptions must be fixed within less than a second for critical power consumers. Automated solutions are able to restore power supply within a few hundred milliseconds.', '', '----media/image8.png----', '', 'Figure A&lt;b&gt;.&lt;/b&gt;4.4.1-1: Depiction of a distribution ring and a failure (flash of lighting) ', '', 'The FLISR (Fault Location, Isolation &amp;amp; Service Restoration) solution consists of switch controller devices which are especially designed for feeder automation applications that support the self-healing of power distribution grids with overhead lines. They serve as control units for reclosers and disconnectors in overhead line distribution grids.', '', 'The system is designed for using fully distributed, independent automated devices. The logic resides in each individual feeder automation controller located at the poles in the feeder level. Each feeder section has a controller device. Using peer-to-peer communication among the controller devices, the system operates autonomously without the need of a regional controller or control centre. However, all self-healing steps carried out will be reported immediately to the control centre to keep the grid status up to date. The controllers conduct self-healing of the distribution line in typically 500 ms by isolating the faults.', '', 'Peer-to-peer communication via IEC 61850 GOOSE (Generic Object Oriented Substation Event) messages provides data as fast as possible (Layer 2 multicast message). They are sent periodically (in steady state, with changing interval time in fault case) by each controller to several or all other controllers of the same feeder and are not acknowledged. ', '', 'The service bit rate per controller is low in steady state, but GOOSE bursts with high service bit rate do occur, especially during fault situations. GOOSE messages are sent by several or all controller units of the feeder nearly at the same point in time during the fault location, isolation and service restoration procedure with a low end-to-end latency. ', '', 'The associated (a)periodic communication KPIs are provided in Table A4.4.1-1. ', '', 'Table A&lt;b&gt;.&lt;/b&gt;4.4-1.1: Service performance requirements for distributed automated switching for isolation and service restoration ', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note 1)', '', '1 (note\xa02)', '', '99.999\xa09', '', '–', '', '&amp;lt; 5 ms', '', '1 kbit/s (steady state)', '1.5 Mbit/s (fault case)', '', '&amp;lt; 1,500', '', '&amp;lt; 60 s (steady state)', '≥ 1 ms (fault case)', '', ' transfer interval (one frame loss)', '', 'stationary', '', '20', '', '30 km x 20\xa0km', '', '2', '', '&amp;gt; 99.999\xa0%', '', '-', '', '20 ms (note\xa02)', '', '-', '', '&amp;lt; 100', '', '-', '', '-', '', 'stationary', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', 'NOTE 1:\tLength x width', '', 'NOTE 2:\tUE to UE communication (two wireless links)', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'GOOSE (a)periodic deterministic communication service supporting bursty message exchange for fault location, isolation, and service restoration.', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Typically event-driven, aperiodic deterministic communication service supporting fault detection and isolation.', '']</t>
+        </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.2.2	Decentralized UAS traffic management&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;A.4.4.1	Distributed automated switching for isolation and service restoration&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TS_22_125.docx</t>
+          <t>TS_22_104.docx</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2532,38 +3052,48 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1.0990971326828</v>
+        <v>1.071926951408386</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>['', 'A power distribution grid fault is a stressful situation. There are self-healing solutions for automated switching, fault isolation, and service restoration. Furthermore, these solutions are ideally suited to handle outages that affect critical power consumers, such as industrial plants or data centres. Supply interruptions must be fixed within less than a second for critical power consumers. Automated solutions are able to restore power supply within a few hundred milliseconds.', '', '----media/image8.png----', '', 'Figure A&lt;b&gt;.&lt;/b&gt;4.4.1-1: Depiction of a distribution ring and a failure (flash of lighting) ', '', 'The FLISR (Fault Location, Isolation &amp;amp; Service Restoration) solution consists of switch controller devices which are especially designed for feeder automation applications that support the self-healing of power distribution grids with overhead lines. They serve as control units for reclosers and disconnectors in overhead line distribution grids.', '', 'The system is designed for using fully distributed, independent automated devices. The logic resides in each individual feeder automation controller located at the poles in the feeder level. Each feeder section has a controller device. Using peer-to-peer communication among the controller devices, the system operates autonomously without the need of a regional controller or control centre. However, all self-healing steps carried out will be reported immediately to the control centre to keep the grid status up to date. The controllers conduct self-healing of the distribution line in typically 500 ms by isolating the faults.', '', 'Peer-to-peer communication via IEC 61850 GOOSE (Generic Object Oriented Substation Event) messages provides data as fast as possible (Layer 2 multicast message). They are sent periodically (in steady state, with changing interval time in fault case) by each controller to several or all other controllers of the same feeder and are not acknowledged. ', '', 'The service bit rate per controller is low in steady state, but GOOSE bursts with high service bit rate do occur, especially during fault situations. GOOSE messages are sent by several or all controller units of the feeder nearly at the same point in time during the fault location, isolation and service restoration procedure with a low end-to-end latency. ', '', 'The associated (a)periodic communication KPIs are provided in Table A4.4.1-1. ', '', 'Table A&lt;b&gt;.&lt;/b&gt;4.4-1.1: Service performance requirements for distributed automated switching for isolation and service restoration ', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area (note 1)', '', '1 (note\xa02)', '', '99.999\xa09', '', '–', '', '&amp;lt; 5 ms', '', '1 kbit/s (steady state)', '1.5 Mbit/s (fault case)', '', '&amp;lt; 1,500', '', '&amp;lt; 60 s (steady state)', '≥ 1 ms (fault case)', '', ' transfer interval (one frame loss)', '', 'stationary', '', '20', '', '30 km x 20\xa0km', '', '2', '', '&amp;gt; 99.999\xa0%', '', '-', '', '20 ms (note\xa02)', '', '-', '', '&amp;lt; 100', '', '-', '', '-', '', 'stationary', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', 'NOTE 1:\tLength x width', '', 'NOTE 2:\tUE to UE communication (two wireless links)', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'GOOSE (a)periodic deterministic communication service supporting bursty message exchange for fault location, isolation, and service restoration.', '', '&lt;i&gt;Use case two&lt;/i&gt;', '', 'Typically event-driven, aperiodic deterministic communication service supporting fault detection and isolation.', '']</t>
+        </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;6.2	Network exposure for UAV services&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;A.4.4.2	Distributed automation without GOOSE&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TS_22_125.docx</t>
+          <t>TS_22_104.docx</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1.068327069282532</v>
+        <v>1.133356928825378</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>['', 'If the control of electrical power distribution components is performed from a central system entity, the controlled entities can be operated in a way that a controlled service restoration is possible without the use of GOOSE. Though this is not as effective as the communication has less strict requirements, this form of distribution automation is nevertheless effective, and it is also compliant with IEC standards and widely deployed in energy systems. The associated KPI is provided in Table A.4.4.2-1.', '', 'Table A.4.4.2-1: KPI for distributed automation without use of GOOSE', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area ', '', '1', '', '99.999', '', '–', '', '100 ms to 2\xa0s', '', '9.6 to100', '', '–', '', '–', '', '–', '', '–', '', 'Concentrated rural: 70.8;', '', 'Dispersed rural and semi-urban: 7.6;', '', 'rural support: 0.048;', '', 'urban: 11.0', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Distributed automation without use of GOOSE using a centralized architecture.', '']</t>
+        </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;6.8	UTM assistance requirements&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;A.4.4.2	Distributed automation without GOOSE&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TS_22_125.docx</t>
+          <t>TS_22_104.docx</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2572,38 +3102,48 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1.063575267791748</v>
+        <v>1.089218735694885</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>['', 'If the control of electrical power distribution components is performed from a central system entity, the controlled entities can be operated in a way that a controlled service restoration is possible without the use of GOOSE. Though this is not as effective as the communication has less strict requirements, this form of distribution automation is nevertheless effective, and it is also compliant with IEC standards and widely deployed in energy systems. The associated KPI is provided in Table A.4.4.2-1.', '', 'Table A.4.4.2-1: KPI for distributed automation without use of GOOSE', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area ', '', '1', '', '99.999', '', '–', '', '100 ms to 2\xa0s', '', '9.6 to100', '', '–', '', '–', '', '–', '', '–', '', 'Concentrated rural: 70.8;', '', 'Dispersed rural and semi-urban: 7.6;', '', 'rural support: 0.048;', '', 'urban: 11.0', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '', '', '&lt;i&gt;Use case one&lt;/i&gt;', '', 'Distributed automation without use of GOOSE using a centralized architecture.', '']</t>
+        </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;7.1	KPIs for services provided to the UAV applications&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;A.4.4.3	Intelligent distributed feeder automation&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TS_22_125.docx</t>
+          <t>TS_22_104.docx</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1.120516777038574</v>
+        <v>1.135296940803528</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>['', 'Intelligent distributed feeder automation system which supported by 5G connections is designed to realize intelligent judgment, analysis, fault location, fault isolation and non-fault area power supply restoration operations. As illustrated in the Figure A.4.4.3-1, the distributed feeder automation system is mainly composed of a distribution master station, a distribution terminal, switch stations, and the communication system (UEs in the substations, 5G network, plus the data network). The distribution master station is mainly used for information gathering and human-computer interaction, and the distributed terminals are used for the collection of feeder status information and judgment, fault location, isolation, as well as power supply restoration based on this information. Distributed terminal actions are reported to the distribution master station. The 5G communication system enables communication among the distribution terminals. The distribution master station is usually connected to the 5G system via a data network, which is out of 3GPP scope. ', '', '', '', '', '', '', '', '----media/image9.png----', '', 'Figure A.4.4.3-1: Example of intelligent distributed feeder automation', '', 'The distribution master station manages multiple distributed terminals. Each distributed terminal is served by a 5G UE to exchange the collected data with other distributed terminals. From an application perspective, the communication between distributed terminals is peer-to-peer. The 5G communication service availability needs to be very high. Therefore, at least two communication links are usually deployed for hot standby or for transmitting data synchronously between two distributed terminals. The associated KPI is provided in Table A.4.4.3-1.', '', 'Table A.4.4.3-1: KPI for intelligent distributed feeder automation ', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area ', '', '1', '', '99.999', '', '–', '', '&lt;span style="font-size:18pt"&gt;Normal: 1\xa0s;&lt;/span&gt;', '', 'Fault: 2\xa0ms', '', '(note 2)', '', '2 M to10 M', '', '(note 1)', '', '–', '', '&lt;span style="font-size:18pt"&gt;Normal: 1\xa0s;&lt;/span&gt;', '', 'Fault: 2\xa0ms', '', '(note 2)', '', '–', '', '–', '', '&lt;span style="font-size:18pt"&gt;54/km&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:18pt"&gt; (note 3)&lt;/span&gt;', '', '78/km&lt;sup&gt;2&lt;/sup&gt; (note 4)', '', '&lt;span style="font-size:18pt"&gt;several km&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', 'NOTE 1:\tThe KPI values are sourced from [29].', '', 'NOTE 2:\tIt is the one-way delay from a distributed terminal to 5G network.', '', 'NOTE 3:\t\tWhen the distributed terminals are deployed along overhead line, about 54 terminals will be distributed along overhead lines in one square kilometre.', '', 'NOTE 4:\t\tWhen the distributed terminals are deployed in power distribution cabinets, there are about 78 terminals in one square kilometre.', '', '', '', '&lt;i&gt;Use cases #1: &lt;/i&gt;Intelligent distributed feeder automation', '']</t>
+        </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;7.2	KPIs for UAV command and control&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;A.4.4.3	Intelligent distributed feeder automation&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TS_22_125.docx</t>
+          <t>TS_22_104.docx</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2612,38 +3152,48 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1.097088217735291</v>
+        <v>1.093906879425049</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>['', 'Intelligent distributed feeder automation system which supported by 5G connections is designed to realize intelligent judgment, analysis, fault location, fault isolation and non-fault area power supply restoration operations. As illustrated in the Figure A.4.4.3-1, the distributed feeder automation system is mainly composed of a distribution master station, a distribution terminal, switch stations, and the communication system (UEs in the substations, 5G network, plus the data network). The distribution master station is mainly used for information gathering and human-computer interaction, and the distributed terminals are used for the collection of feeder status information and judgment, fault location, isolation, as well as power supply restoration based on this information. Distributed terminal actions are reported to the distribution master station. The 5G communication system enables communication among the distribution terminals. The distribution master station is usually connected to the 5G system via a data network, which is out of 3GPP scope. ', '', '', '', '', '', '', '', '----media/image9.png----', '', 'Figure A.4.4.3-1: Example of intelligent distributed feeder automation', '', 'The distribution master station manages multiple distributed terminals. Each distributed terminal is served by a 5G UE to exchange the collected data with other distributed terminals. From an application perspective, the communication between distributed terminals is peer-to-peer. The 5G communication service availability needs to be very high. Therefore, at least two communication links are usually deployed for hot standby or for transmitting data synchronously between two distributed terminals. The associated KPI is provided in Table A.4.4.3-1.', '', 'Table A.4.4.3-1: KPI for intelligent distributed feeder automation ', '', 'Use case #', '', 'Characteristic parameter', '', 'Influence quantity', '', '', '', 'Communication service availability: target value [%]', '', 'Communication service reliability: mean time between failures', '', 'End-to-end latency: maximum', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE speed', '', '# of UEs', '', 'Service area ', '', '1', '', '99.999', '', '–', '', '&lt;span style="font-size:18pt"&gt;Normal: 1\xa0s;&lt;/span&gt;', '', 'Fault: 2\xa0ms', '', '(note 2)', '', '2 M to10 M', '', '(note 1)', '', '–', '', '&lt;span style="font-size:18pt"&gt;Normal: 1\xa0s;&lt;/span&gt;', '', 'Fault: 2\xa0ms', '', '(note 2)', '', '–', '', '–', '', '&lt;span style="font-size:18pt"&gt;54/km&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;span style="font-size:18pt"&gt; (note 3)&lt;/span&gt;', '', '78/km&lt;sup&gt;2&lt;/sup&gt; (note 4)', '', '&lt;span style="font-size:18pt"&gt;several km&lt;/span&gt;&lt;span style="font-size:18pt"&gt;&lt;sup&gt;2&lt;/sup&gt;&lt;/span&gt;', '', 'NOTE 1:\tThe KPI values are sourced from [29].', '', 'NOTE 2:\tIt is the one-way delay from a distributed terminal to 5G network.', '', 'NOTE 3:\t\tWhen the distributed terminals are deployed along overhead line, about 54 terminals will be distributed along overhead lines in one square kilometre.', '', 'NOTE 4:\t\tWhen the distributed terminals are deployed in power distribution cabinets, there are about 78 terminals in one square kilometre.', '', '', '', '&lt;i&gt;Use cases #1: &lt;/i&gt;Intelligent distributed feeder automation', '']</t>
+        </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;7.3	Positioning performance requirements	&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;A.4.4.4	High-speed current differential protection&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TS_22_125.docx</t>
+          <t>TS_22_104.docx</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1.144670963287354</v>
+        <v>1.094331741333008</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>['', 'High-speed current differential protection, which is required for sub-millisecond fault detection, is another typical use case of power distribution automation. The approach utilises differential current measurements to significantly reduce fault detection time. The protection relays exchange the current samples via the 5G system. Each relay then compares the sent and received samples to determine if a fault has occurred in a protected area. This is done in order to identify and isolate a fault in the grid. The sampling rate varies and is dependent on the algorithms designed by the manufacturers. A protection relay collects the current samples (with the typical message size of up to 245 bytes) at a frequency of 600 Hz, 1200 Hz, 1600 Hz, or 3000 Hz. The exchange of measurement samples is done in a strictly cyclic and deterministic manner. With the sampling rate of 600 Hz, the transfer interval is 1.7 ms and the required bandwidth 1.2 Mbit/s; for 1200 Hz, the transfer interval is 0.83 ms and the required bandwidth 2.4 Mbit/s. The maximum allowed end-to-end delay between two protection relays is between 5 ms and 10 ms, depending on the voltage (see  IEC 61850-90-1 for more details [28]). For some legacy systems, the latency usually is set to 15 ms. The associated KPIs are provided in Table A.4.4.4-1.', '', 'Table A.4.4.4-1: KPIs for high speed current differential protection', '', 'Use case #', '', 'Communication service availability', '', 'End-to-end latency: maximum', '', '(note)', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE speed', '', 'UE density [#/km&lt;sup&gt;2&lt;/sup&gt;)]', '', 'Service area', '', '1', '', '&amp;gt; 99.999\xa0%', '', '15 ms', '', '2.5 Mbit/s', '', '&amp;lt; 245', '', '≤ 1 ms', '', ' transfer interval (one frame loss)', '', 'stationary', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '2', '', '&amp;gt; 99.999\xa0%', '', '15 ms', '', '1.2 Mbit/s', '', '&amp;lt; 245', '', '≤ 2 ms', '', ' transfer interval (one frame loss)', '', 'stationary', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '3', '', '&amp;gt; 99.999\xa0%', '', '10 ms', '', '2.5 Mbit/s', '', '&amp;lt; 245', '', '≤ 1 ms', '', ' transfer interval (one frame loss)', '', 'stationary', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '4', '', '&amp;gt; 99.999\xa0%', '', '10 ms', '', '1.2 Mbit/s', '', '&amp;lt; 245', '', '≤ 2 ms', '', ' transfer interval (one frame loss)', '', 'stationary', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '5', '', '&amp;gt; 99.999\xa0%', '', '5 ms', '', '2.5 Mbit/s', '', '&amp;lt; 245', '', '≤ 1 ms', '', ' transfer interval (one frame loss)', '', 'stationary', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '6', '', '&amp;gt; 99.999\xa0%', '', '5 ms', '', '1.2 Mbit/s', '', '&amp;lt; 245', '', '≤ 2 ms', '', ' transfer interval (one frame loss)', '', 'stationary', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', 'NOTE :\tUE-to-UE communication.', '', '', '', '&lt;i&gt;Use case #1: &lt;/i&gt;High-speed current differential protection with a sampling rate of 1200 Hz for legacy systems.', '', '&lt;i&gt;Use case #2: &lt;/i&gt;High-speed current differential protection with a sampling rate of 600 Hz for legacy systems.', '', '&lt;i&gt;Use case #3: &lt;/i&gt;High-speed current differential protection with a sampling rate of 1200 Hz under voltage condition 1 (see  IEC 61850-90-1[28] for more details).', '', '&lt;i&gt;Use case #4: &lt;/i&gt;High-speed current differential protection with a sampling rate of 600 Hz under voltage condition 1 (see  IEC 61850-90-1[28] for more details).', '', '&lt;i&gt;Use case #5: &lt;/i&gt;High-speed current differential protection with a sampling rate of 1200 Hz under voltage condition 2 (see  IEC 61850-90-1[28] for more details).', '', '&lt;i&gt;Use case #6: High-speed current differential protection with a sampling rat&lt;/i&gt;', '']</t>
+        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;7.4	Other requirements &lt;/h2&gt;</t>
+          <t>&lt;h3&gt;A.4.4.4	High-speed current differential protection&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TS_22_125.docx</t>
+          <t>TS_22_104.docx</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2652,7 +3202,12 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1.056294202804565</v>
+        <v>1.052699208259583</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>['', 'High-speed current differential protection, which is required for sub-millisecond fault detection, is another typical use case of power distribution automation. The approach utilises differential current measurements to significantly reduce fault detection time. The protection relays exchange the current samples via the 5G system. Each relay then compares the sent and received samples to determine if a fault has occurred in a protected area. This is done in order to identify and isolate a fault in the grid. The sampling rate varies and is dependent on the algorithms designed by the manufacturers. A protection relay collects the current samples (with the typical message size of up to 245 bytes) at a frequency of 600 Hz, 1200 Hz, 1600 Hz, or 3000 Hz. The exchange of measurement samples is done in a strictly cyclic and deterministic manner. With the sampling rate of 600 Hz, the transfer interval is 1.7 ms and the required bandwidth 1.2 Mbit/s; for 1200 Hz, the transfer interval is 0.83 ms and the required bandwidth 2.4 Mbit/s. The maximum allowed end-to-end delay between two protection relays is between 5 ms and 10 ms, depending on the voltage (see  IEC 61850-90-1 for more details [28]). For some legacy systems, the latency usually is set to 15 ms. The associated KPIs are provided in Table A.4.4.4-1.', '', 'Table A.4.4.4-1: KPIs for high speed current differential protection', '', 'Use case #', '', 'Communication service availability', '', 'End-to-end latency: maximum', '', '(note)', '', 'Service bitrate: user experienced data rate', '', 'Message size [byte]', '', 'Transfer interval: target value', '', 'Survival time', '', 'UE speed', '', 'UE density [#/km&lt;sup&gt;2&lt;/sup&gt;)]', '', 'Service area', '', '1', '', '&amp;gt; 99.999\xa0%', '', '15 ms', '', '2.5 Mbit/s', '', '&amp;lt; 245', '', '≤ 1 ms', '', ' transfer interval (one frame loss)', '', 'stationary', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '2', '', '&amp;gt; 99.999\xa0%', '', '15 ms', '', '1.2 Mbit/s', '', '&amp;lt; 245', '', '≤ 2 ms', '', ' transfer interval (one frame loss)', '', 'stationary', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '3', '', '&amp;gt; 99.999\xa0%', '', '10 ms', '', '2.5 Mbit/s', '', '&amp;lt; 245', '', '≤ 1 ms', '', ' transfer interval (one frame loss)', '', 'stationary', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '4', '', '&amp;gt; 99.999\xa0%', '', '10 ms', '', '1.2 Mbit/s', '', '&amp;lt; 245', '', '≤ 2 ms', '', ' transfer interval (one frame loss)', '', 'stationary', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '5', '', '&amp;gt; 99.999\xa0%', '', '5 ms', '', '2.5 Mbit/s', '', '&amp;lt; 245', '', '≤ 1 ms', '', ' transfer interval (one frame loss)', '', 'stationary', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', '6', '', '&amp;gt; 99.999\xa0%', '', '5 ms', '', '1.2 Mbit/s', '', '&amp;lt; 245', '', '≤ 2 ms', '', ' transfer interval (one frame loss)', '', 'stationary', '', '≤ 100/km&lt;sup&gt;2&lt;/sup&gt;', '', 'several km&lt;sup&gt;2&lt;/sup&gt;', '', 'NOTE :\tUE-to-UE communication.', '', '', '', '&lt;i&gt;Use case #1: &lt;/i&gt;High-speed current differential protection with a sampling rate of 1200 Hz for legacy systems.', '', '&lt;i&gt;Use case #2: &lt;/i&gt;High-speed current differential protection with a sampling rate of 600 Hz for legacy systems.', '', '&lt;i&gt;Use case #3: &lt;/i&gt;High-speed current differential protection with a sampling rate of 1200 Hz under voltage condition 1 (see  IEC 61850-90-1[28] for more details).', '', '&lt;i&gt;Use case #4: &lt;/i&gt;High-speed current differential protection with a sampling rate of 600 Hz under voltage condition 1 (see  IEC 61850-90-1[28] for more details).', '', '&lt;i&gt;Use case #5: &lt;/i&gt;High-speed current differential protection with a sampling rate of 1200 Hz under voltage condition 2 (see  IEC 61850-90-1[28] for more details).', '', '&lt;i&gt;Use case #6: High-speed current differential protection with a sampling rat&lt;/i&gt;', '']</t>
+        </is>
       </c>
     </row>
   </sheetData>
